--- a/FinancialManagement/Pharma_Data.xlsx
+++ b/FinancialManagement/Pharma_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goomb\Documents\Datasets\FinancialManagement\Pharma_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB63AA8-9CE7-4FA3-9C92-646F8CD9E602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search strategy" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,98 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    9% del Estado de Nueva Jersey y 21% federal de EEUU</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={04297985-960D-4A6D-B72C-D25F288EBCA2}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{04297985-960D-4A6D-B72C-D25F288EBCA2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    15% es el máximo en la región de Basilea en Suiza</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={427EB58A-84ED-4BA1-BFBD-2D82CABA1FF1}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{427EB58A-84ED-4BA1-BFBD-2D82CABA1FF1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    7,25% del Estad de Nueva York y 21% federal
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D1CB7C83-2261-4BA5-9694-B0C208C79A51}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{D1CB7C83-2261-4BA5-9694-B0C208C79A51}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    15% es el tipo corporativo máximo en Basilea, Suiza</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={52883D57-F86C-480B-9960-F09CA44D92A4}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{52883D57-F86C-480B-9960-F09CA44D92A4}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    8,5% del estado de Indiana y 21% tipo federal de EEUU
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="199">
   <si>
@@ -955,14 +1047,14 @@
     <t>D</t>
   </si>
   <si>
-    <t>Effective Tax rate</t>
+    <t>t_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -996,6 +1088,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1096,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1167,11 +1265,19 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,14 +1287,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,6 +1304,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lucas Senande López" id="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" userId="S::100473028@alumnos.uc3m.es::31d0fb0c-afe5-479c-baf8-21196e965742" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,6 +1627,48 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q11" dT="2024-04-16T20:44:33.13" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
+    <text>9% del Estado de Nueva Jersey y 21% federal de EEUU</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q11" dT="2024-04-16T20:44:09.85" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{04297985-960D-4A6D-B72C-D25F288EBCA2}">
+    <text>15% es el máximo en la región de Basilea en Suiza</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q11" dT="2024-04-16T20:45:44.09" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{427EB58A-84ED-4BA1-BFBD-2D82CABA1FF1}">
+    <text xml:space="preserve">7,25% del Estad de Nueva York y 21% federal
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q11" dT="2024-04-16T20:46:36.72" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{D1CB7C83-2261-4BA5-9694-B0C208C79A51}">
+    <text>15% es el tipo corporativo máximo en Basilea, Suiza</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q11" dT="2024-04-16T20:47:42.10" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{52883D57-F86C-480B-9960-F09CA44D92A4}">
+    <text xml:space="preserve">8,5% del estado de Indiana y 21% tipo federal de EEUU
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
@@ -1540,86 +1688,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,10 +1779,10 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1646,10 +1794,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1661,10 +1809,10 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1676,10 +1824,10 @@
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1691,10 +1839,10 @@
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
@@ -1703,17 +1851,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
@@ -1722,42 +1870,25 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="B11:C11"/>
@@ -1765,6 +1896,23 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4430,12 +4578,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03140F42-7C75-4C7D-9199-1DB0B1072644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03140F42-7C75-4C7D-9199-1DB0B1072644}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4449,12 +4597,11 @@
     <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>196</v>
       </c>
@@ -4501,13 +4648,13 @@
         <v>195</v>
       </c>
       <c r="P1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" t="s">
         <v>198</v>
       </c>
-      <c r="Q1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -4554,14 +4701,11 @@
         <v>3895000</v>
       </c>
       <c r="P2">
-        <v>0.25975617227225389</v>
-      </c>
-      <c r="Q2">
         <v>18760000</v>
       </c>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -4608,14 +4752,11 @@
         <v>3746000</v>
       </c>
       <c r="P3">
-        <v>0.24576546174313707</v>
-      </c>
-      <c r="Q3">
         <v>19861000</v>
       </c>
-      <c r="S3" s="25"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -4663,14 +4804,11 @@
         <v>3754000</v>
       </c>
       <c r="P4">
-        <v>0.19727932285368799</v>
-      </c>
-      <c r="Q4">
         <v>27126000</v>
       </c>
-      <c r="S4" s="25"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4717,14 +4855,11 @@
         <v>5642000</v>
       </c>
       <c r="P5">
-        <v>12.594615384615384</v>
-      </c>
-      <c r="Q5">
         <v>34581000</v>
       </c>
-      <c r="S5" s="25"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -4771,14 +4906,11 @@
         <v>6929000</v>
       </c>
       <c r="P6">
-        <v>0.17663594168791263</v>
-      </c>
-      <c r="Q6">
         <v>29981000</v>
       </c>
-      <c r="S6" s="25"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -4825,14 +4957,11 @@
         <v>7009000</v>
       </c>
       <c r="P7">
-        <v>0.14610754679542293</v>
-      </c>
-      <c r="Q7">
         <v>27696000</v>
       </c>
-      <c r="S7" s="25"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -4879,14 +5008,11 @@
         <v>7300000</v>
       </c>
       <c r="P8">
-        <v>0.12117711023515021</v>
-      </c>
-      <c r="Q8">
         <v>35266000</v>
       </c>
-      <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -4933,14 +5059,11 @@
         <v>7390000</v>
       </c>
       <c r="P9">
-        <v>-8.1425423891177351E-2</v>
-      </c>
-      <c r="Q9">
         <v>33751000</v>
       </c>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -4988,14 +5111,11 @@
         <v>6970000</v>
       </c>
       <c r="P10">
-        <v>7.9036842985340749E-2</v>
-      </c>
-      <c r="Q10">
         <v>39659000</v>
       </c>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -5042,25 +5162,27 @@
         <v>7103000</v>
       </c>
       <c r="P11">
-        <v>-0.57153016812220869</v>
-      </c>
-      <c r="Q11">
         <v>29332000</v>
       </c>
-      <c r="S11" s="25"/>
+      <c r="Q11" s="36">
+        <f>9% + 21%</f>
+        <v>0.3</v>
+      </c>
+      <c r="R11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D143F43-DDA8-48B7-AA53-77749AB56B8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D143F43-DDA8-48B7-AA53-77749AB56B8E}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5072,9 +5194,7 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,10 +5244,10 @@
         <v>195</v>
       </c>
       <c r="P1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" t="s">
         <v>198</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,9 +5297,6 @@
         <v>4632493.93486977</v>
       </c>
       <c r="P2">
-        <v>0.34108444063437782</v>
-      </c>
-      <c r="Q2">
         <v>25997369.934797198</v>
       </c>
     </row>
@@ -5230,9 +5347,6 @@
         <v>3931055.4742813101</v>
       </c>
       <c r="P3">
-        <v>0.35247658806273785</v>
-      </c>
-      <c r="Q3">
         <v>23436146.36731109</v>
       </c>
     </row>
@@ -5283,9 +5397,6 @@
         <v>5649606.3423156701</v>
       </c>
       <c r="P4">
-        <v>0.35829156223893222</v>
-      </c>
-      <c r="Q4">
         <v>22002952.923774719</v>
       </c>
     </row>
@@ -5336,9 +5447,6 @@
         <v>7831436.4495277395</v>
       </c>
       <c r="P5">
-        <v>0.41874203637206198</v>
-      </c>
-      <c r="Q5">
         <v>19440172.176361114</v>
       </c>
     </row>
@@ -5389,9 +5497,6 @@
         <v>7172743.0491447402</v>
       </c>
       <c r="P6">
-        <v>0.34742857142857386</v>
-      </c>
-      <c r="Q6">
         <v>19061643.357277006</v>
       </c>
     </row>
@@ -5442,9 +5547,6 @@
         <v>6516215.4725789996</v>
       </c>
       <c r="P7">
-        <v>0.23094020893531764</v>
-      </c>
-      <c r="Q7">
         <v>16093781.818628192</v>
       </c>
     </row>
@@ -5495,9 +5597,6 @@
         <v>5911257.4281692496</v>
       </c>
       <c r="P8">
-        <v>0.25673312346974586</v>
-      </c>
-      <c r="Q8">
         <v>17488651.991844594</v>
       </c>
     </row>
@@ -5548,9 +5647,6 @@
         <v>5583434.0066909799</v>
       </c>
       <c r="P9">
-        <v>0.24895908111988208</v>
-      </c>
-      <c r="Q9">
         <v>35665609.063148677</v>
       </c>
     </row>
@@ -5601,9 +5697,6 @@
         <v>7375033.8071584702</v>
       </c>
       <c r="P10">
-        <v>0.31446743418404499</v>
-      </c>
-      <c r="Q10">
         <v>28750609.102248698</v>
       </c>
     </row>
@@ -5654,23 +5747,26 @@
         <v>5643711.85350418</v>
       </c>
       <c r="P11">
-        <v>0.22447382153417794</v>
-      </c>
-      <c r="Q11">
         <v>36643058.062552899</v>
+      </c>
+      <c r="Q11" s="37">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B231A4-BC20-493A-9F2E-2632555001BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B231A4-BC20-493A-9F2E-2632555001BB}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5684,9 +5780,7 @@
     <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,10 +5830,10 @@
         <v>195</v>
       </c>
       <c r="P1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" t="s">
         <v>198</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,9 +5883,6 @@
         <v>6006000</v>
       </c>
       <c r="P2">
-        <v>0.33982920954674833</v>
-      </c>
-      <c r="Q2">
         <v>36682000</v>
       </c>
     </row>
@@ -5842,9 +5933,6 @@
         <v>5975000</v>
       </c>
       <c r="P3">
-        <v>0.28811610863629822</v>
-      </c>
-      <c r="Q3">
         <v>38899000</v>
       </c>
     </row>
@@ -5895,9 +5983,6 @@
         <v>7204000</v>
       </c>
       <c r="P4">
-        <v>0.15777069180646053</v>
-      </c>
-      <c r="Q4">
         <v>42086000</v>
       </c>
     </row>
@@ -5948,9 +6033,6 @@
         <v>6664000</v>
       </c>
       <c r="P5">
-        <v>-0.42251736437018961</v>
-      </c>
-      <c r="Q5">
         <v>43491000</v>
       </c>
     </row>
@@ -6001,9 +6083,6 @@
         <v>9499000</v>
       </c>
       <c r="P6">
-        <v>-0.67769706752757597</v>
-      </c>
-      <c r="Q6">
         <v>41740000</v>
       </c>
     </row>
@@ -6054,9 +6133,6 @@
         <v>8853000</v>
       </c>
       <c r="P7">
-        <v>-0.29418633235004921</v>
-      </c>
-      <c r="Q7">
         <v>52150000</v>
       </c>
     </row>
@@ -6107,9 +6183,6 @@
         <v>6468000</v>
       </c>
       <c r="P8">
-        <v>-0.23179386395894752</v>
-      </c>
-      <c r="Q8">
         <v>39836000</v>
       </c>
     </row>
@@ -6160,9 +6233,6 @@
         <v>5277000</v>
       </c>
       <c r="P9">
-        <v>0.10605095541401277</v>
-      </c>
-      <c r="Q9">
         <v>38436000</v>
       </c>
     </row>
@@ -6213,9 +6283,6 @@
         <v>5485000</v>
       </c>
       <c r="P10">
-        <v>0.10700624760933319</v>
-      </c>
-      <c r="Q10">
         <v>35829000</v>
       </c>
     </row>
@@ -6266,24 +6333,26 @@
         <v>15514000</v>
       </c>
       <c r="P11">
-        <v>-0.5007078810759793</v>
-      </c>
-      <c r="Q11">
         <v>71888000</v>
+      </c>
+      <c r="Q11" s="36">
+        <f>7.25% + 21%</f>
+        <v>0.28249999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE62E8B-B252-4389-A5F4-D2A4703DD146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE62E8B-B252-4389-A5F4-D2A4703DD146}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6298,8 +6367,7 @@
     <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,10 +6417,10 @@
         <v>195</v>
       </c>
       <c r="P1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" t="s">
         <v>198</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,9 +6470,6 @@
         <v>4774000</v>
       </c>
       <c r="P2">
-        <v>0.16758080313418211</v>
-      </c>
-      <c r="Q2">
         <v>20358999.99999997</v>
       </c>
     </row>
@@ -6455,9 +6520,6 @@
         <v>4148000</v>
       </c>
       <c r="P3">
-        <v>-0.54259686217173697</v>
-      </c>
-      <c r="Q3">
         <v>21901000</v>
       </c>
     </row>
@@ -6508,9 +6570,6 @@
         <v>6063000</v>
       </c>
       <c r="P4">
-        <v>0.1646305125148988</v>
-      </c>
-      <c r="Q4">
         <v>23686000</v>
       </c>
     </row>
@@ -6561,9 +6620,6 @@
         <v>6108000</v>
       </c>
       <c r="P5">
-        <v>0.16824613786836307</v>
-      </c>
-      <c r="Q5">
         <v>28425000</v>
       </c>
     </row>
@@ -6614,9 +6670,6 @@
         <v>6729000</v>
       </c>
       <c r="P6">
-        <v>9.7058123860122025E-2</v>
-      </c>
-      <c r="Q6">
         <v>32090000</v>
       </c>
     </row>
@@ -6667,9 +6720,6 @@
         <v>5866000</v>
       </c>
       <c r="P7">
-        <v>-0.23303784520968296</v>
-      </c>
-      <c r="Q7">
         <v>29148000</v>
       </c>
     </row>
@@ -6720,9 +6770,6 @@
         <v>6471000</v>
       </c>
       <c r="P8">
-        <v>0.22373637264618429</v>
-      </c>
-      <c r="Q8">
         <v>37855000</v>
       </c>
     </row>
@@ -6773,9 +6820,6 @@
         <v>6216000</v>
       </c>
       <c r="P9">
-        <v>8.8089588276924369E-2</v>
-      </c>
-      <c r="Q9">
         <v>31025000</v>
       </c>
     </row>
@@ -6826,9 +6870,6 @@
         <v>7188000</v>
       </c>
       <c r="P10">
-        <v>0.20359453630481661</v>
-      </c>
-      <c r="Q10">
         <v>27909000</v>
       </c>
     </row>
@@ -6879,24 +6920,25 @@
         <v>8293000</v>
       </c>
       <c r="P11">
-        <v>-0.37168439477581794</v>
-      </c>
-      <c r="Q11">
         <v>26348000</v>
+      </c>
+      <c r="Q11" s="37">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80605593-FA81-460E-B498-6BBA7B2DB4BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80605593-FA81-460E-B498-6BBA7B2DB4BD}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6912,8 +6954,7 @@
     <col min="11" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,10 +7004,10 @@
         <v>195</v>
       </c>
       <c r="P1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" t="s">
         <v>198</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,9 +7057,6 @@
         <v>1847700</v>
       </c>
       <c r="P2">
-        <v>0.25509307676218373</v>
-      </c>
-      <c r="Q2">
         <v>8021500</v>
       </c>
     </row>
@@ -7069,9 +7107,6 @@
         <v>1654400</v>
       </c>
       <c r="P3">
-        <v>0.15844544095665181</v>
-      </c>
-      <c r="Q3">
         <v>7978500</v>
       </c>
     </row>
@@ -7122,9 +7157,6 @@
         <v>1752400</v>
       </c>
       <c r="P4">
-        <v>0.23246639392168333</v>
-      </c>
-      <c r="Q4">
         <v>10305200</v>
       </c>
     </row>
@@ -7175,9 +7207,6 @@
         <v>2297900</v>
       </c>
       <c r="P5">
-        <v>-12.29250367466928</v>
-      </c>
-      <c r="Q5">
         <v>13647100</v>
       </c>
     </row>
@@ -7228,9 +7257,6 @@
         <v>1748100</v>
       </c>
       <c r="P6">
-        <v>0.13864480198019802</v>
-      </c>
-      <c r="Q6">
         <v>10298600</v>
       </c>
     </row>
@@ -7281,9 +7307,6 @@
         <v>1730400</v>
       </c>
       <c r="P7">
-        <v>-0.36695758799769185</v>
-      </c>
-      <c r="Q7">
         <v>15317199.999999985</v>
       </c>
     </row>
@@ -7334,9 +7357,6 @@
         <v>1303900</v>
       </c>
       <c r="P8">
-        <v>0.16729902965916987</v>
-      </c>
-      <c r="Q8">
         <v>16595300</v>
       </c>
     </row>
@@ -7387,9 +7407,6 @@
         <v>1850700</v>
       </c>
       <c r="P9">
-        <v>0.10280022215454077</v>
-      </c>
-      <c r="Q9">
         <v>16884700</v>
       </c>
     </row>
@@ -7440,9 +7457,6 @@
         <v>1744100</v>
       </c>
       <c r="P10">
-        <v>8.9930822444273639E-2</v>
-      </c>
-      <c r="Q10">
         <v>16238600</v>
       </c>
     </row>
@@ -7493,13 +7507,15 @@
         <v>1549500</v>
       </c>
       <c r="P11">
-        <v>0.25078238302419664</v>
-      </c>
-      <c r="Q11">
         <v>25225300</v>
+      </c>
+      <c r="Q11" s="36">
+        <f>8.5% + 21%</f>
+        <v>0.29499999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FinancialManagement/Pharma_Data.xlsx
+++ b/FinancialManagement/Pharma_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3863360b7313d4a6/Documentos/GitHub/UC3M_Projects/FinancialManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1212" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD52936-3BCE-45F9-8BE6-0837C7518215}"/>
+  <xr:revisionPtr revIDLastSave="1306" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A87E0C-C66C-4FEE-8C5A-E96DBC1DC92C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search strategy" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="Cálculos" sheetId="8" r:id="rId8"/>
     <sheet name="Gráficos" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Cálculos!$B$2:$B$51</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -83,6 +80,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={427EB58A-84ED-4BA1-BFBD-2D82CABA1FF1}</author>
+    <author>tc={446BE28C-59F2-4B47-B53E-DA33B790B7A3}</author>
   </authors>
   <commentList>
     <comment ref="R11" authorId="0" shapeId="0" xr:uid="{427EB58A-84ED-4BA1-BFBD-2D82CABA1FF1}">
@@ -92,6 +90,14 @@
 Comment:
     7,25% del Estad de Nueva York y 21% federal
 </t>
+      </text>
+    </comment>
+    <comment ref="V11" authorId="1" shapeId="0" xr:uid="{446BE28C-59F2-4B47-B53E-DA33B790B7A3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Se usó el spread del año anterior porque si se cogía el EBIT de ese año y los intereses nuevos, el ICR seguía siendo &gt; 8 </t>
       </text>
     </comment>
   </commentList>
@@ -158,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="219">
   <si>
     <t>Product name</t>
   </si>
@@ -1120,6 +1126,21 @@
   </si>
   <si>
     <t>Spread</t>
+  </si>
+  <si>
+    <t>D/V</t>
+  </si>
+  <si>
+    <t>La media del ratio D / V fue:</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>TS</t>
   </si>
 </sst>
 </file>
@@ -1127,9 +1148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1190,6 +1211,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1453,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1523,28 +1550,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -1568,7 +1573,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1590,6 +1595,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7160,6 +7188,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lucas Senande López" id="{743F5DB6-1958-42C6-BD5F-77B09807DC6D}" userId="3863360b7313d4a6" providerId="Windows Live"/>
   <person displayName="Lucas Senande López" id="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" userId="S::100473028@alumnos.uc3m.es::31d0fb0c-afe5-479c-baf8-21196e965742" providerId="AD"/>
 </personList>
 </file>
@@ -7501,6 +7530,9 @@
     <text xml:space="preserve">7,25% del Estad de Nueva York y 21% federal
 </text>
   </threadedComment>
+  <threadedComment ref="V11" dT="2024-04-19T15:33:46.19" personId="{743F5DB6-1958-42C6-BD5F-77B09807DC6D}" id="{446BE28C-59F2-4B47-B53E-DA33B790B7A3}">
+    <text xml:space="preserve">Se usó el spread del año anterior porque si se cogía el EBIT de ese año y los intereses nuevos, el ICR seguía siendo &gt; 8 </text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -7540,86 +7572,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -7631,10 +7663,10 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -7646,10 +7678,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
@@ -7661,10 +7693,10 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
@@ -7676,10 +7708,10 @@
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
@@ -7691,10 +7723,10 @@
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
@@ -7703,17 +7735,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
@@ -7722,25 +7754,42 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="B11:C11"/>
@@ -7748,23 +7797,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10432,10 +10464,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03140F42-7C75-4C7D-9199-1DB0B1072644}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10457,744 +10489,820 @@
     <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="26" t="s">
         <v>213</v>
       </c>
+      <c r="V1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
         <v>2014</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="29">
         <v>131119000</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="29">
         <v>69752000</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="29">
         <v>16323000</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="29">
         <v>292702970</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="29">
         <v>0.29480000000000001</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="29">
         <v>0.15679999999999999</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="29">
         <v>104.57</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="29">
         <v>278373970</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="29">
         <v>2783000</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="29">
         <v>33089000</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="29">
         <v>21034000</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="29">
         <v>533000</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="29">
         <v>74331000</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="29">
         <v>3895000</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="29">
         <v>18760000</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="29">
         <v>39.463414634146339</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="T2" s="41">
+      <c r="T2" s="31">
         <f>P2/E2</f>
         <v>6.4092277574088155E-2</v>
       </c>
-      <c r="U2" s="42"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31">
+        <f>P2/I2</f>
+        <v>6.7391358466454318E-2</v>
+      </c>
+      <c r="X2" s="32"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>2015</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>133411000</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="29">
         <v>71150000</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="29">
         <v>15409000</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="29">
         <v>284220453</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="29">
         <v>0.26979999999999998</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="29">
         <v>0.1439</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="29">
         <v>102.72</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="29">
         <v>265705453</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="29">
         <v>2755000</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="29">
         <v>38376000</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="29">
         <v>19652000</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="29">
         <v>552000</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="29">
         <v>70074000</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="29">
         <v>3746000</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="29">
         <v>19861000</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="29">
         <v>35.60144927536232</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41">
+      <c r="R3" s="31"/>
+      <c r="S3" s="31">
         <f>C3/C2 - 1</f>
         <v>2.0042436059181101E-2</v>
       </c>
-      <c r="T3" s="41">
+      <c r="T3" s="31">
         <f t="shared" ref="T3:T11" si="0">P3/E3</f>
         <v>6.9878855621977348E-2</v>
       </c>
-      <c r="U3" s="42"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31">
+        <f>P3/I3</f>
+        <v>7.4748183658842712E-2</v>
+      </c>
+      <c r="X3" s="32"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>2016</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="29">
         <v>141208000</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="29">
         <v>70418000</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="29">
         <v>16540000</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="29">
         <v>313432458</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="29">
         <v>0.28120000000000001</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="29">
         <v>0.14019999999999999</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="29">
         <f>E4/J4</f>
         <v>115.78590986331733</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="29">
         <v>298651458</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="29">
         <v>2707000</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="29">
         <v>41907000</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="29">
         <v>20215000</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="29">
         <v>726000</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="29">
         <v>71890000</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="29">
         <v>3754000</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="29">
         <v>27126000</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="29">
         <v>27.844352617079888</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S11" si="1">C4/C3 - 1</f>
         <v>-1.0288123682361205E-2</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="31">
         <f t="shared" si="0"/>
         <v>8.6544961466626408E-2</v>
       </c>
-      <c r="U4" s="42"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31">
+        <f>P4/I4</f>
+        <v>9.0828285860904787E-2</v>
+      </c>
+      <c r="X4" s="32"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
         <v>2017</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="29">
         <v>157303000</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="29">
         <v>60160000</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="29">
         <v>1300000</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="29">
         <v>375360585</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="29">
         <v>0.29380000000000001</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="29">
         <v>0.1124</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="29">
         <v>139.72</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="29">
         <v>391645585</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="29">
         <v>2683000</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="29">
         <v>18296000</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="29">
         <v>18222000</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="29">
         <v>934000</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="29">
         <v>76450000</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="29">
         <v>5642000</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="29">
         <v>34581000</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="29">
         <v>19.509635974304068</v>
       </c>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41">
+      <c r="R5" s="31"/>
+      <c r="S5" s="31">
         <f t="shared" si="1"/>
         <v>-0.14567298133999829</v>
       </c>
-      <c r="T5" s="41">
+      <c r="T5" s="31">
         <f t="shared" si="0"/>
         <v>9.2127413963828939E-2</v>
       </c>
-      <c r="U5" s="42"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31">
+        <f>P5/I5</f>
+        <v>8.8296667508711985E-2</v>
+      </c>
+      <c r="X5" s="32"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
         <v>2018</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="29">
         <v>152954000</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="29">
         <v>59752000</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="29">
         <v>15297000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="29">
         <v>346109265</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="29">
         <v>0.30120000000000002</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="29">
         <v>0.1177</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="29">
         <v>129.05000000000001</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="29">
         <v>356403265</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="29">
         <v>2662000</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="29">
         <v>19687000</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="29">
         <v>18393000</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="29">
         <v>1005000</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="29">
         <v>81581000</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="29">
         <v>6929000</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="29">
         <v>29981000</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="29">
         <v>18.301492537313433</v>
       </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41">
+      <c r="R6" s="31"/>
+      <c r="S6" s="31">
         <f t="shared" si="1"/>
         <v>-6.7819148936170137E-3</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="31">
         <f t="shared" si="0"/>
         <v>8.6622933945440614E-2</v>
       </c>
-      <c r="U6" s="42"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31">
+        <f>P6/I6</f>
+        <v>8.412100265130848E-2</v>
+      </c>
+      <c r="X6" s="32"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
         <v>2019</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="29">
         <v>157728000</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="29">
         <v>59471000</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="29">
         <v>15119000</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="29">
         <v>383911214</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="29">
         <v>0.29139999999999999</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="29">
         <v>0.1099</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="29">
         <v>145.87</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="29">
         <v>392320214</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="29">
         <v>2633000</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="29">
         <v>19287000</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="29">
         <v>17145000</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="29">
         <v>318000</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="29">
         <v>82059000</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="29">
         <v>7009000</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="29">
         <v>27696000</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="29">
         <v>53.915094339622641</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41">
+      <c r="R7" s="31"/>
+      <c r="S7" s="31">
         <f t="shared" si="1"/>
         <v>-4.7027714553488087E-3</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="31">
         <f t="shared" si="0"/>
         <v>7.2141680133365416E-2</v>
       </c>
-      <c r="U7" s="61">
+      <c r="U7" s="31">
         <v>6.3E-3</v>
       </c>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31">
+        <f>P7/I7</f>
+        <v>7.0595393792276015E-2</v>
+      </c>
+      <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
         <v>2020</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="29">
         <v>174894000</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="29">
         <v>63278000</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="29">
         <v>14714000</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="29">
         <v>414309579</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="29">
         <v>0.26069999999999999</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="29">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="29">
         <v>157.38</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="29">
         <v>424390579</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="29">
         <v>2629000</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="29">
         <v>25185000</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="29">
         <v>16087000</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="29">
         <v>201000</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="29">
         <v>82584000</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="29">
         <v>7300000</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="29">
         <v>35266000</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="29">
         <v>80.03482587064677</v>
       </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41">
+      <c r="R8" s="31"/>
+      <c r="S8" s="31">
         <f t="shared" si="1"/>
         <v>6.4014393569975292E-2</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="31">
         <f t="shared" si="0"/>
         <v>8.5119924296995317E-2</v>
       </c>
-      <c r="U8" s="61">
+      <c r="U8" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31">
+        <f>P8/I8</f>
+        <v>8.3097980363037227E-2</v>
+      </c>
+      <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
         <v>2021</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="29">
         <v>182018000</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="29">
         <v>74023000</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="29">
         <v>20878000</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="29">
         <v>450358383</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="29">
         <v>0.2591</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="29">
         <v>0.10539999999999999</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="29">
         <v>171.07</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="29">
         <v>452501383</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="29">
         <v>2633000</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="29">
         <v>31608000</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="29">
         <v>19524000</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="29">
         <v>183000</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="29">
         <v>78740000</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="29">
         <v>7390000</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="29">
         <v>33751000</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="29">
         <v>106.68852459016394</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41">
+      <c r="R9" s="31"/>
+      <c r="S9" s="31">
         <f t="shared" si="1"/>
         <v>0.16980625177786912</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="31">
         <f t="shared" si="0"/>
         <v>7.4942537485751651E-2</v>
       </c>
-      <c r="U9" s="61">
+      <c r="U9" s="31">
         <v>6.7000000000000002E-3</v>
       </c>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31">
+        <f>P9/I9</f>
+        <v>7.4587617337735293E-2</v>
+      </c>
+      <c r="X9" s="32"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
         <v>2022</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="29">
         <v>187378000</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="29">
         <v>76804000</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="29">
         <v>17941000</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="29">
         <v>461848513</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="29">
         <v>0.25209999999999999</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="29">
         <v>0.1033</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="29">
         <f>E10/J10</f>
         <v>176.68267521040551</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="29">
         <v>477988513</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="29">
         <v>2614000</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="29">
         <v>23519000</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="29">
         <v>20131000</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="29">
         <v>276000</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="29">
         <v>79990000</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="29">
         <v>6970000</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="29">
         <v>39659000</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="29">
         <v>72.938405797101453</v>
       </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41">
+      <c r="R10" s="31"/>
+      <c r="S10" s="31">
         <f t="shared" si="1"/>
         <v>3.75694041041299E-2</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="31">
         <f t="shared" si="0"/>
         <v>8.5870147642978331E-2</v>
       </c>
-      <c r="U10" s="61">
+      <c r="U10" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31">
+        <f>P10/I10</f>
+        <v>8.2970613145257735E-2</v>
+      </c>
+      <c r="X10" s="32"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
         <v>2023</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="29">
         <v>167558000</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="29">
         <v>68774000</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="29">
         <v>35153000</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="29">
         <v>377316864</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="29">
         <v>0.21899999999999997</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="29">
         <v>8.9900000000000008E-2</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="29">
         <v>156.74</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="29">
         <v>383721864</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="29">
         <v>2407000</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="29">
         <v>22927000</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="29">
         <v>15539000</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="29">
         <v>772000</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="29">
         <v>85159000</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="29">
         <v>7103000</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="29">
         <v>29332000</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="29">
         <v>20.128238341968913</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="33">
         <f>9% + 21%</f>
         <v>0.3</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="31">
         <f t="shared" si="1"/>
         <v>-0.1045518462580074</v>
       </c>
-      <c r="T11" s="41">
+      <c r="T11" s="31">
         <f t="shared" si="0"/>
         <v>7.773837535128035E-2</v>
       </c>
-      <c r="U11" s="61">
+      <c r="U11" s="31">
         <v>5.8999999999999999E-3</v>
       </c>
+      <c r="V11" s="51">
+        <f>3.94%+U11</f>
+        <v>4.53E-2</v>
+      </c>
+      <c r="W11" s="31">
+        <f>P11/I11</f>
+        <v>7.6440783681797186E-2</v>
+      </c>
+      <c r="X11" s="62">
+        <f>R11*P11</f>
+        <v>8799600</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
         <v>2026</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
         <v>2027</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
         <v>2028</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="A17" s="30">
         <v>2029</v>
       </c>
     </row>
@@ -11208,10 +11316,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D143F43-DDA8-48B7-AA53-77749AB56B8E}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11229,687 +11337,742 @@
     <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="26" t="s">
         <v>202</v>
       </c>
+      <c r="U1" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
         <v>2014</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="29">
         <v>76474568.687796593</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="29">
         <v>21795570.5473423</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="29">
         <v>9434839.2405509893</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="29">
         <v>191711311.431133</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="29">
         <v>0.58050000000000002</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="29">
         <v>0.16550000000000001</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="29">
         <v>272.87431536912902</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="29">
         <v>205876713.55279601</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="29">
         <v>702563</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="29">
         <v>11831967.813134201</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="29">
         <v>14245272.7067471</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="29">
         <v>1859265.8983469</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="29">
         <v>47985034.294366799</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="29">
         <v>4632493.93486977</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="29">
         <v>25997369.934797198</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="29">
         <v>7.6617727025557647</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="44" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="31">
         <f>P2/E2</f>
         <v>0.13560686503433594</v>
       </c>
+      <c r="U2" s="34"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>2015</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>76366296.384096101</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="29">
         <v>23485536.551475499</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="29">
         <v>8933575.5560398102</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="29">
         <v>195734636.39291701</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="29">
         <v>0.51450000000000007</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="29">
         <v>0.15820000000000001</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="29">
         <v>278.60095720291099</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="29">
         <v>208609347.052659</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="29">
         <v>702563</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="29">
         <v>10561435.7075691</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="29">
         <v>13931055.8230877</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="29">
         <v>1625844.22564507</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="29">
         <v>48528375.848531701</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="29">
         <v>3931055.4742813101</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="29">
         <v>23436146.36731109</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="29">
         <v>8.5685058896466018</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41">
-        <f>C3/C2 -1</f>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31">
+        <f t="shared" ref="S3:S11" si="0">C3/C2 -1</f>
         <v>7.7537130788221997E-2</v>
       </c>
-      <c r="T3" s="42">
-        <f t="shared" ref="T3:T11" si="0">P3/E3</f>
+      <c r="T3" s="31">
+        <f t="shared" ref="T3:T11" si="1">P3/E3</f>
         <v>0.11973428310493527</v>
       </c>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="32"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>2016</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="29">
         <v>75609252.545356795</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="29">
         <v>25986220.670700099</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="29">
         <v>9425196.9223022498</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="29">
         <v>160842607.829494</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="29">
         <v>0.49270000000000003</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="29">
         <v>0.16930000000000001</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="29">
         <v>228.937009620666</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="29">
         <v>172786505.55841401</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="29">
         <v>702563</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="29">
         <v>10059055.194854699</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="29">
         <v>13847441.0505295</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="29">
         <v>1099409.45720673</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="29">
         <v>49779527.938842803</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="29">
         <v>5649606.3423156701</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="29">
         <v>22002952.923774719</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="29">
         <v>12.595344673231844</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41">
-        <f>C4/C3 -1</f>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31">
+        <f t="shared" si="0"/>
         <v>0.10647762352559464</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="31">
+        <f t="shared" si="1"/>
+        <v>0.13679803642017296</v>
+      </c>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="29">
+        <v>78617860.854148895</v>
+      </c>
+      <c r="C5" s="29">
+        <v>29741617.8438663</v>
+      </c>
+      <c r="D5" s="29">
+        <v>8851635.35857201</v>
+      </c>
+      <c r="E5" s="29">
+        <v>177567625.19450799</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.42219999999999996</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="H5" s="29">
+        <v>252.74274480342899</v>
+      </c>
+      <c r="I5" s="29">
+        <v>183834414.874989</v>
+      </c>
+      <c r="J5" s="29">
+        <v>702563</v>
+      </c>
+      <c r="K5" s="29">
+        <v>13173382.495880101</v>
+      </c>
+      <c r="L5" s="29">
+        <v>13332307.954073001</v>
+      </c>
+      <c r="M5" s="29">
+        <v>863324.10192489601</v>
+      </c>
+      <c r="N5" s="29">
+        <v>54648825.782060601</v>
+      </c>
+      <c r="O5" s="29">
+        <v>7831436.4495277395</v>
+      </c>
+      <c r="P5" s="29">
+        <v>19440172.176361114</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>15.442992874109324</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31">
         <f t="shared" si="0"/>
-        <v>0.13679803642017296</v>
-      </c>
+        <v>0.14451494200541726</v>
+      </c>
+      <c r="T5" s="31">
+        <f t="shared" si="1"/>
+        <v>0.10948038616311</v>
+      </c>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="39">
-        <v>78617860.854148895</v>
-      </c>
-      <c r="C5" s="39">
-        <v>29741617.8438663</v>
-      </c>
-      <c r="D5" s="39">
-        <v>8851635.35857201</v>
-      </c>
-      <c r="E5" s="39">
-        <v>177567625.19450799</v>
-      </c>
-      <c r="F5" s="39">
-        <v>0.42219999999999996</v>
-      </c>
-      <c r="G5" s="39">
-        <v>0.15970000000000001</v>
-      </c>
-      <c r="H5" s="39">
-        <v>252.74274480342899</v>
-      </c>
-      <c r="I5" s="39">
-        <v>183834414.874989</v>
-      </c>
-      <c r="J5" s="39">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="29">
+        <v>79736976.637363404</v>
+      </c>
+      <c r="C6" s="29">
+        <v>30837818.976402301</v>
+      </c>
+      <c r="D6" s="29">
+        <v>10663146.2574005</v>
+      </c>
+      <c r="E6" s="29">
+        <v>173660768.60041499</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.46590000000000004</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.1802</v>
+      </c>
+      <c r="H6" s="29">
+        <v>247.181885623932</v>
+      </c>
+      <c r="I6" s="29">
+        <v>179390432.52272499</v>
+      </c>
+      <c r="J6" s="29">
         <v>702563</v>
       </c>
-      <c r="K5" s="39">
-        <v>13173382.495880101</v>
-      </c>
-      <c r="L5" s="39">
-        <v>13332307.954073001</v>
-      </c>
-      <c r="M5" s="39">
-        <v>863324.10192489601</v>
-      </c>
-      <c r="N5" s="39">
-        <v>54648825.782060601</v>
-      </c>
-      <c r="O5" s="39">
-        <v>7831436.4495277395</v>
-      </c>
-      <c r="P5" s="39">
-        <v>19440172.176361114</v>
-      </c>
-      <c r="Q5" s="39">
-        <v>15.442992874109324</v>
-      </c>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41">
-        <f>C5/C4 -1</f>
-        <v>0.14451494200541726</v>
-      </c>
-      <c r="T5" s="42">
+      <c r="K6" s="29">
+        <v>13331979.434967</v>
+      </c>
+      <c r="L6" s="29">
+        <v>14998476.864337901</v>
+      </c>
+      <c r="M6" s="29">
+        <v>815476.80425643898</v>
+      </c>
+      <c r="N6" s="29">
+        <v>57729258.299827598</v>
+      </c>
+      <c r="O6" s="29">
+        <v>7172743.0491447402</v>
+      </c>
+      <c r="P6" s="29">
+        <v>19061643.357277006</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>18.392278953922769</v>
+      </c>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
-        <v>0.10948038616311</v>
-      </c>
+        <v>3.6857481603411735E-2</v>
+      </c>
+      <c r="T6" s="31">
+        <f t="shared" si="1"/>
+        <v>0.10976367034938629</v>
+      </c>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="39">
-        <v>79736976.637363404</v>
-      </c>
-      <c r="C6" s="39">
-        <v>30837818.976402301</v>
-      </c>
-      <c r="D6" s="39">
-        <v>10663146.2574005</v>
-      </c>
-      <c r="E6" s="39">
-        <v>173660768.60041499</v>
-      </c>
-      <c r="F6" s="39">
-        <v>0.46590000000000004</v>
-      </c>
-      <c r="G6" s="39">
-        <v>0.1802</v>
-      </c>
-      <c r="H6" s="39">
-        <v>247.181885623932</v>
-      </c>
-      <c r="I6" s="39">
-        <v>179390432.52272499</v>
-      </c>
-      <c r="J6" s="39">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="29">
+        <v>85820076.055169106</v>
+      </c>
+      <c r="C7" s="29">
+        <v>37045030.964493804</v>
+      </c>
+      <c r="D7" s="29">
+        <v>13940301.1940718</v>
+      </c>
+      <c r="E7" s="29">
+        <v>227850321.757144</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.4632</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="H7" s="29">
+        <v>324.31314921379101</v>
+      </c>
+      <c r="I7" s="29">
+        <v>231678043.19340599</v>
+      </c>
+      <c r="J7" s="29">
         <v>702563</v>
       </c>
-      <c r="K6" s="39">
-        <v>13331979.434967</v>
-      </c>
-      <c r="L6" s="39">
-        <v>14998476.864337901</v>
-      </c>
-      <c r="M6" s="39">
-        <v>815476.80425643898</v>
-      </c>
-      <c r="N6" s="39">
-        <v>57729258.299827598</v>
-      </c>
-      <c r="O6" s="39">
-        <v>7172743.0491447402</v>
-      </c>
-      <c r="P6" s="39">
-        <v>19061643.357277006</v>
-      </c>
-      <c r="Q6" s="39">
-        <v>18.392278953922769</v>
-      </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41">
-        <f>C6/C5 -1</f>
-        <v>3.6857481603411735E-2</v>
-      </c>
-      <c r="T6" s="42">
+      <c r="K7" s="29">
+        <v>12266060.382366201</v>
+      </c>
+      <c r="L7" s="29">
+        <v>18124353.956699401</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1043172.86849022</v>
+      </c>
+      <c r="N7" s="29">
+        <v>63484815.380811699</v>
+      </c>
+      <c r="O7" s="29">
+        <v>6516215.4725789996</v>
+      </c>
+      <c r="P7" s="29">
+        <v>16093781.818628192</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>17.374257425742588</v>
+      </c>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31">
         <f t="shared" si="0"/>
-        <v>0.10976367034938629</v>
-      </c>
+        <v>0.20128570029032788</v>
+      </c>
+      <c r="T7" s="31">
+        <f t="shared" si="1"/>
+        <v>7.0633131849521247E-2</v>
+      </c>
+      <c r="U7" s="31">
+        <v>6.3E-3</v>
+      </c>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="39">
-        <v>85820076.055169106</v>
-      </c>
-      <c r="C7" s="39">
-        <v>37045030.964493804</v>
-      </c>
-      <c r="D7" s="39">
-        <v>13940301.1940718</v>
-      </c>
-      <c r="E7" s="39">
-        <v>227850321.757144</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0.4632</v>
-      </c>
-      <c r="G7" s="39">
-        <v>0.19989999999999999</v>
-      </c>
-      <c r="H7" s="39">
-        <v>324.31314921379101</v>
-      </c>
-      <c r="I7" s="39">
-        <v>231678043.19340599</v>
-      </c>
-      <c r="J7" s="39">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="29">
+        <v>97750795.2289581</v>
+      </c>
+      <c r="C8" s="29">
+        <v>45135043.519020103</v>
+      </c>
+      <c r="D8" s="29">
+        <v>16222197.146415699</v>
+      </c>
+      <c r="E8" s="29">
+        <v>246359369.27453601</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="H8" s="29">
+        <v>350.65819644928001</v>
+      </c>
+      <c r="I8" s="29">
+        <v>249840985.28329501</v>
+      </c>
+      <c r="J8" s="29">
         <v>702563</v>
       </c>
-      <c r="K7" s="39">
-        <v>12266060.382366201</v>
-      </c>
-      <c r="L7" s="39">
-        <v>18124353.956699401</v>
-      </c>
-      <c r="M7" s="39">
-        <v>1043172.86849022</v>
-      </c>
-      <c r="N7" s="39">
-        <v>63484815.380811699</v>
-      </c>
-      <c r="O7" s="39">
-        <v>6516215.4725789996</v>
-      </c>
-      <c r="P7" s="39">
-        <v>16093781.818628192</v>
-      </c>
-      <c r="Q7" s="39">
-        <v>17.374257425742588</v>
-      </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41">
-        <f>C7/C6 -1</f>
-        <v>0.20128570029032788</v>
-      </c>
-      <c r="T7" s="42">
+      <c r="K8" s="29">
+        <v>14007035.983085601</v>
+      </c>
+      <c r="L8" s="29">
+        <v>21042896.235466</v>
+      </c>
+      <c r="M8" s="29">
+        <v>643440.76824188197</v>
+      </c>
+      <c r="N8" s="29">
+        <v>66185883.4676743</v>
+      </c>
+      <c r="O8" s="29">
+        <v>5911257.4281692496</v>
+      </c>
+      <c r="P8" s="29">
+        <v>17488651.991844594</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>32.703703703703717</v>
+      </c>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>7.0633131849521247E-2</v>
-      </c>
+        <v>0.21838320400596389</v>
+      </c>
+      <c r="T8" s="31">
+        <f t="shared" si="1"/>
+        <v>7.0988377845519354E-2</v>
+      </c>
+      <c r="U8" s="31">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="V8" s="31"/>
+      <c r="W8" s="32"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="39">
-        <v>97750795.2289581</v>
-      </c>
-      <c r="C8" s="39">
-        <v>45135043.519020103</v>
-      </c>
-      <c r="D8" s="39">
-        <v>16222197.146415699</v>
-      </c>
-      <c r="E8" s="39">
-        <v>246359369.27453601</v>
-      </c>
-      <c r="F8" s="39">
-        <v>0.45169999999999999</v>
-      </c>
-      <c r="G8" s="39">
-        <v>0.20860000000000001</v>
-      </c>
-      <c r="H8" s="39">
-        <v>350.65819644928001</v>
-      </c>
-      <c r="I8" s="39">
-        <v>249840985.28329501</v>
-      </c>
-      <c r="J8" s="39">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="29">
+        <v>101147150.15614</v>
+      </c>
+      <c r="C9" s="29">
+        <v>31056208.186745599</v>
+      </c>
+      <c r="D9" s="29">
+        <v>15262408.891916299</v>
+      </c>
+      <c r="E9" s="29">
+        <v>291817174.58843303</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.1885</v>
+      </c>
+      <c r="H9" s="29">
+        <v>415.36103452444098</v>
+      </c>
+      <c r="I9" s="29">
+        <v>313192216.58932298</v>
+      </c>
+      <c r="J9" s="29">
         <v>702563</v>
       </c>
-      <c r="K8" s="39">
-        <v>14007035.983085601</v>
-      </c>
-      <c r="L8" s="39">
-        <v>21042896.235466</v>
-      </c>
-      <c r="M8" s="39">
-        <v>643440.76824188197</v>
-      </c>
-      <c r="N8" s="39">
-        <v>66185883.4676743</v>
-      </c>
-      <c r="O8" s="39">
-        <v>5911257.4281692496</v>
-      </c>
-      <c r="P8" s="39">
-        <v>17488651.991844594</v>
-      </c>
-      <c r="Q8" s="39">
-        <v>32.703703703703717</v>
-      </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41">
-        <f>C8/C7 -1</f>
-        <v>0.21838320400596389</v>
-      </c>
-      <c r="T8" s="42">
+      <c r="K9" s="29">
+        <v>14290567.0622587</v>
+      </c>
+      <c r="L9" s="29">
+        <v>19891531.4739943</v>
+      </c>
+      <c r="M9" s="29">
+        <v>479894.83809471101</v>
+      </c>
+      <c r="N9" s="29">
+        <v>68807935.450196296</v>
+      </c>
+      <c r="O9" s="29">
+        <v>5583434.0066909799</v>
+      </c>
+      <c r="P9" s="29">
+        <v>35665609.063148677</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>41.449771689497837</v>
+      </c>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31">
         <f t="shared" si="0"/>
-        <v>7.0988377845519354E-2</v>
-      </c>
+        <v>-0.31192692494783181</v>
+      </c>
+      <c r="T9" s="31">
+        <f t="shared" si="1"/>
+        <v>0.12221901988273991</v>
+      </c>
+      <c r="U9" s="31">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="V9" s="31"/>
+      <c r="W9" s="32"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="39">
-        <v>101147150.15614</v>
-      </c>
-      <c r="C9" s="39">
-        <v>31056208.186745599</v>
-      </c>
-      <c r="D9" s="39">
-        <v>15262408.891916299</v>
-      </c>
-      <c r="E9" s="39">
-        <v>291817174.58843303</v>
-      </c>
-      <c r="F9" s="39">
-        <v>0.61380000000000001</v>
-      </c>
-      <c r="G9" s="39">
-        <v>0.1885</v>
-      </c>
-      <c r="H9" s="39">
-        <v>415.36103452444098</v>
-      </c>
-      <c r="I9" s="39">
-        <v>313192216.58932298</v>
-      </c>
-      <c r="J9" s="39">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="29">
+        <v>95479013.825058907</v>
+      </c>
+      <c r="C10" s="29">
+        <v>34676414.647698402</v>
+      </c>
+      <c r="D10" s="29">
+        <v>13453560.7165098</v>
+      </c>
+      <c r="E10" s="29">
+        <v>221060886.24396399</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.51</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.1852</v>
+      </c>
+      <c r="H10" s="29">
+        <v>314.64933484792698</v>
+      </c>
+      <c r="I10" s="29">
+        <v>239226063.50638899</v>
+      </c>
+      <c r="J10" s="29">
         <v>702563</v>
       </c>
-      <c r="K9" s="39">
-        <v>14290567.0622587</v>
-      </c>
-      <c r="L9" s="39">
-        <v>19891531.4739943</v>
-      </c>
-      <c r="M9" s="39">
-        <v>479894.83809471101</v>
-      </c>
-      <c r="N9" s="39">
-        <v>68807935.450196296</v>
-      </c>
-      <c r="O9" s="39">
-        <v>5583434.0066909799</v>
-      </c>
-      <c r="P9" s="39">
-        <v>35665609.063148677</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>41.449771689497837</v>
-      </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41">
-        <f>C9/C8 -1</f>
-        <v>-0.31192692494783181</v>
-      </c>
-      <c r="T9" s="42">
+      <c r="K10" s="29">
+        <v>10585431.8398237</v>
+      </c>
+      <c r="L10" s="29">
+        <v>18928784.081935901</v>
+      </c>
+      <c r="M10" s="29">
+        <v>879501.755237579</v>
+      </c>
+      <c r="N10" s="29">
+        <v>68541564.745306998</v>
+      </c>
+      <c r="O10" s="29">
+        <v>7375033.8071584702</v>
+      </c>
+      <c r="P10" s="29">
+        <v>28750609.102248698</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>21.522167487684758</v>
+      </c>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.12221901988273991</v>
-      </c>
+        <v>0.11656949358350399</v>
+      </c>
+      <c r="T10" s="31">
+        <f t="shared" si="1"/>
+        <v>0.13005742259858386</v>
+      </c>
+      <c r="U10" s="31">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="V10" s="31"/>
+      <c r="W10" s="32"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="39">
-        <v>95479013.825058907</v>
-      </c>
-      <c r="C10" s="39">
-        <v>34676414.647698402</v>
-      </c>
-      <c r="D10" s="39">
-        <v>13453560.7165098</v>
-      </c>
-      <c r="E10" s="39">
-        <v>221060886.24396399</v>
-      </c>
-      <c r="F10" s="39">
-        <v>0.51</v>
-      </c>
-      <c r="G10" s="39">
-        <v>0.1852</v>
-      </c>
-      <c r="H10" s="39">
-        <v>314.64933484792698</v>
-      </c>
-      <c r="I10" s="39">
-        <v>239226063.50638899</v>
-      </c>
-      <c r="J10" s="39">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="29">
+        <v>107693592.905045</v>
+      </c>
+      <c r="C11" s="29">
+        <v>39596453.782558396</v>
+      </c>
+      <c r="D11" s="29">
+        <v>13687280.9305191</v>
+      </c>
+      <c r="E11" s="29">
+        <v>204483763.245511</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.42330000000000001</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.15560000000000002</v>
+      </c>
+      <c r="H11" s="29">
+        <v>291.05411267280601</v>
+      </c>
+      <c r="I11" s="29">
+        <v>228591852.77454799</v>
+      </c>
+      <c r="J11" s="29">
         <v>702563</v>
       </c>
-      <c r="K10" s="39">
-        <v>10585431.8398237</v>
-      </c>
-      <c r="L10" s="39">
-        <v>18928784.081935901</v>
-      </c>
-      <c r="M10" s="39">
-        <v>879501.755237579</v>
-      </c>
-      <c r="N10" s="39">
-        <v>68541564.745306998</v>
-      </c>
-      <c r="O10" s="39">
-        <v>7375033.8071584702</v>
-      </c>
-      <c r="P10" s="39">
-        <v>28750609.102248698</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>21.522167487684758</v>
-      </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41">
-        <f>C10/C9 -1</f>
-        <v>0.11656949358350399</v>
-      </c>
-      <c r="T10" s="42">
+      <c r="K11" s="29">
+        <v>12534968.5335159</v>
+      </c>
+      <c r="L11" s="29">
+        <v>18326290.6527519</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1570144.6814536999</v>
+      </c>
+      <c r="N11" s="29">
+        <v>69895841.634750396</v>
+      </c>
+      <c r="O11" s="29">
+        <v>5643711.85350418</v>
+      </c>
+      <c r="P11" s="29">
+        <v>36643058.062552899</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>11.671721000758172</v>
+      </c>
+      <c r="R11" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.13005742259858386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="39">
-        <v>107693592.905045</v>
-      </c>
-      <c r="C11" s="39">
-        <v>39596453.782558396</v>
-      </c>
-      <c r="D11" s="39">
-        <v>13687280.9305191</v>
-      </c>
-      <c r="E11" s="39">
-        <v>204483763.245511</v>
-      </c>
-      <c r="F11" s="39">
-        <v>0.42330000000000001</v>
-      </c>
-      <c r="G11" s="39">
-        <v>0.15560000000000002</v>
-      </c>
-      <c r="H11" s="39">
-        <v>291.05411267280601</v>
-      </c>
-      <c r="I11" s="39">
-        <v>228591852.77454799</v>
-      </c>
-      <c r="J11" s="39">
-        <v>702563</v>
-      </c>
-      <c r="K11" s="39">
-        <v>12534968.5335159</v>
-      </c>
-      <c r="L11" s="39">
-        <v>18326290.6527519</v>
-      </c>
-      <c r="M11" s="39">
-        <v>1570144.6814536999</v>
-      </c>
-      <c r="N11" s="39">
-        <v>69895841.634750396</v>
-      </c>
-      <c r="O11" s="39">
-        <v>5643711.85350418</v>
-      </c>
-      <c r="P11" s="39">
-        <v>36643058.062552899</v>
-      </c>
-      <c r="Q11" s="39">
-        <v>11.671721000758172</v>
-      </c>
-      <c r="R11" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="S11" s="41">
-        <f>C11/C10 -1</f>
         <v>0.14188430911459737</v>
       </c>
-      <c r="T11" s="42">
-        <f t="shared" si="0"/>
+      <c r="T11" s="33">
+        <f t="shared" si="1"/>
         <v>0.17919788584171276</v>
+      </c>
+      <c r="U11" s="31">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="V11" s="31">
+        <f>0.7%+U11</f>
+        <v>1.2899999999999998E-2</v>
+      </c>
+      <c r="W11" s="62">
+        <f>R11*P11</f>
+        <v>5496458.7093829345</v>
       </c>
     </row>
   </sheetData>
@@ -11921,10 +12084,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B231A4-BC20-493A-9F2E-2632555001BB}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11945,688 +12108,743 @@
     <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="26" t="s">
         <v>202</v>
       </c>
+      <c r="U1" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
         <v>2014</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="29">
         <v>167566000</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="29">
         <v>71301000</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="29">
         <v>9134000</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="29">
         <v>196265471</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="29">
         <v>0.1716</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="29">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="29">
         <v>31.15</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="29">
         <v>196825471</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="29">
         <v>6291000</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="29">
         <v>36122000</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="29">
         <v>12726000</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="29">
         <v>1360000</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="29">
         <v>49605000</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="29">
         <v>6006000</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="29">
         <v>36682000</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="29">
         <v>9.3573529411764707</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="44" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="31">
         <f>P2/E2</f>
         <v>0.18689991577784967</v>
       </c>
+      <c r="U2" s="34"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>2015</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>167381000</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="29">
         <v>64720000</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="29">
         <v>6959000</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="29">
         <v>199264495</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="29">
         <v>0.13849999999999998</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="29">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="29">
         <v>32.28</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="29">
         <v>214873495</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="29">
         <v>6175000</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="29">
         <v>23290000</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="29">
         <v>10329000</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="29">
         <v>1199000</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="29">
         <v>48851000</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="29">
         <v>5975000</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="29">
         <v>38899000</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="29">
         <v>8.614678899082568</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41">
-        <f>C3/C2 -1</f>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31">
+        <f t="shared" ref="S3:S11" si="0">C3/C2 -1</f>
         <v>-9.2298845738488899E-2</v>
       </c>
-      <c r="T3" s="42">
-        <f t="shared" ref="T3:T11" si="0">P3/E3</f>
+      <c r="T3" s="31">
+        <f t="shared" ref="T3:T11" si="1">P3/E3</f>
         <v>0.19521290032125391</v>
       </c>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="32"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>2016</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="29">
         <v>171615000</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="29">
         <v>59544000</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="29">
         <v>7213000</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="29">
         <v>197100172</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="29">
         <v>0.14019999999999999</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="29">
         <v>4.87E-2</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="29">
         <v>32.479999999999997</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="29">
         <v>221336172</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="29">
         <v>6070000</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="29">
         <v>17850000</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="29">
         <v>9004000</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="29">
         <v>1186000</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="29">
         <v>52824000</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="29">
         <v>7204000</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="29">
         <v>42086000</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="29">
         <v>7.5919055649241143</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41">
-        <f>C4/C3 -1</f>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31">
+        <f t="shared" si="0"/>
         <v>-7.997527812113725E-2</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="31">
+        <f t="shared" si="1"/>
+        <v>0.2135259425344388</v>
+      </c>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="29">
+        <v>171797000</v>
+      </c>
+      <c r="C5" s="29">
+        <v>71308000</v>
+      </c>
+      <c r="D5" s="29">
+        <v>21308000</v>
+      </c>
+      <c r="E5" s="29">
+        <v>215896826</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.1726</v>
+      </c>
+      <c r="G5" s="29">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>36.22</v>
+      </c>
+      <c r="I5" s="29">
+        <v>239395826</v>
+      </c>
+      <c r="J5" s="29">
+        <v>5979000</v>
+      </c>
+      <c r="K5" s="29">
+        <v>19992000</v>
+      </c>
+      <c r="L5" s="29">
+        <v>12989000</v>
+      </c>
+      <c r="M5" s="29">
+        <v>1270000</v>
+      </c>
+      <c r="N5" s="29">
+        <v>52546000</v>
+      </c>
+      <c r="O5" s="29">
+        <v>6664000</v>
+      </c>
+      <c r="P5" s="29">
+        <v>43491000</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>10.22755905511811</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31">
         <f t="shared" si="0"/>
-        <v>0.2135259425344388</v>
-      </c>
+        <v>0.19756818487169148</v>
+      </c>
+      <c r="T5" s="31">
+        <f t="shared" si="1"/>
+        <v>0.20144344317502844</v>
+      </c>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="39">
-        <v>171797000</v>
-      </c>
-      <c r="C5" s="39">
-        <v>71308000</v>
-      </c>
-      <c r="D5" s="39">
-        <v>21308000</v>
-      </c>
-      <c r="E5" s="39">
-        <v>215896826</v>
-      </c>
-      <c r="F5" s="39">
-        <v>0.1726</v>
-      </c>
-      <c r="G5" s="39">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="H5" s="39">
-        <v>36.22</v>
-      </c>
-      <c r="I5" s="39">
-        <v>239395826</v>
-      </c>
-      <c r="J5" s="39">
-        <v>5979000</v>
-      </c>
-      <c r="K5" s="39">
-        <v>19992000</v>
-      </c>
-      <c r="L5" s="39">
-        <v>12989000</v>
-      </c>
-      <c r="M5" s="39">
-        <v>1270000</v>
-      </c>
-      <c r="N5" s="39">
-        <v>52546000</v>
-      </c>
-      <c r="O5" s="39">
-        <v>6664000</v>
-      </c>
-      <c r="P5" s="39">
-        <v>43491000</v>
-      </c>
-      <c r="Q5" s="39">
-        <v>10.22755905511811</v>
-      </c>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41">
-        <f>C5/C4 -1</f>
-        <v>0.19756818487169148</v>
-      </c>
-      <c r="T5" s="42">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="29">
+        <v>159422000</v>
+      </c>
+      <c r="C6" s="29">
+        <v>63407000</v>
+      </c>
+      <c r="D6" s="29">
+        <v>11151000</v>
+      </c>
+      <c r="E6" s="29">
+        <v>252317724</v>
+      </c>
+      <c r="F6" s="29">
+        <v>5.67E-2</v>
+      </c>
+      <c r="G6" s="29">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H6" s="29">
+        <v>43.65</v>
+      </c>
+      <c r="I6" s="29">
+        <v>275224724</v>
+      </c>
+      <c r="J6" s="29">
+        <v>5717000</v>
+      </c>
+      <c r="K6" s="29">
+        <v>18833000</v>
+      </c>
+      <c r="L6" s="29">
+        <v>4062000</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1316000</v>
+      </c>
+      <c r="N6" s="29">
+        <v>40825000</v>
+      </c>
+      <c r="O6" s="29">
+        <v>9499000</v>
+      </c>
+      <c r="P6" s="29">
+        <v>41740000</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>3.0866261398176293</v>
+      </c>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
-        <v>0.20144344317502844</v>
-      </c>
+        <v>-0.11080103214225612</v>
+      </c>
+      <c r="T6" s="31">
+        <f t="shared" si="1"/>
+        <v>0.16542634951795934</v>
+      </c>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="39">
-        <v>159422000</v>
-      </c>
-      <c r="C6" s="39">
-        <v>63407000</v>
-      </c>
-      <c r="D6" s="39">
-        <v>11151000</v>
-      </c>
-      <c r="E6" s="39">
-        <v>252317724</v>
-      </c>
-      <c r="F6" s="39">
-        <v>5.67E-2</v>
-      </c>
-      <c r="G6" s="39">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="H6" s="39">
-        <v>43.65</v>
-      </c>
-      <c r="I6" s="39">
-        <v>275224724</v>
-      </c>
-      <c r="J6" s="39">
-        <v>5717000</v>
-      </c>
-      <c r="K6" s="39">
-        <v>18833000</v>
-      </c>
-      <c r="L6" s="39">
-        <v>4062000</v>
-      </c>
-      <c r="M6" s="39">
-        <v>1316000</v>
-      </c>
-      <c r="N6" s="39">
-        <v>40825000</v>
-      </c>
-      <c r="O6" s="39">
-        <v>9499000</v>
-      </c>
-      <c r="P6" s="39">
-        <v>41740000</v>
-      </c>
-      <c r="Q6" s="39">
-        <v>3.0866261398176293</v>
-      </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41">
-        <f>C6/C5 -1</f>
-        <v>-0.11080103214225612</v>
-      </c>
-      <c r="T6" s="42">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="29">
+        <v>167594000</v>
+      </c>
+      <c r="C7" s="29">
+        <v>63144000</v>
+      </c>
+      <c r="D7" s="29">
+        <v>16272000</v>
+      </c>
+      <c r="E7" s="29">
+        <v>216826916</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.18190000000000001</v>
+      </c>
+      <c r="G7" s="29">
+        <v>6.8499999999999991E-2</v>
+      </c>
+      <c r="H7" s="29">
+        <v>39.18</v>
+      </c>
+      <c r="I7" s="29">
+        <v>259330916</v>
+      </c>
+      <c r="J7" s="29">
+        <v>5534000</v>
+      </c>
+      <c r="K7" s="29">
+        <v>9646000</v>
+      </c>
+      <c r="L7" s="29">
+        <v>12331000</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1573000</v>
+      </c>
+      <c r="N7" s="29">
+        <v>41172000</v>
+      </c>
+      <c r="O7" s="29">
+        <v>8853000</v>
+      </c>
+      <c r="P7" s="29">
+        <v>52150000</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>7.8391608391608392</v>
+      </c>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31">
         <f t="shared" si="0"/>
-        <v>0.16542634951795934</v>
-      </c>
+        <v>-4.1478070244610477E-3</v>
+      </c>
+      <c r="T7" s="31">
+        <f t="shared" si="1"/>
+        <v>0.24051442026690081</v>
+      </c>
+      <c r="U7" s="51">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="39">
-        <v>167594000</v>
-      </c>
-      <c r="C7" s="39">
-        <v>63144000</v>
-      </c>
-      <c r="D7" s="39">
-        <v>16272000</v>
-      </c>
-      <c r="E7" s="39">
-        <v>216826916</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0.18190000000000001</v>
-      </c>
-      <c r="G7" s="39">
-        <v>6.8499999999999991E-2</v>
-      </c>
-      <c r="H7" s="39">
-        <v>39.18</v>
-      </c>
-      <c r="I7" s="39">
-        <v>259330916</v>
-      </c>
-      <c r="J7" s="39">
-        <v>5534000</v>
-      </c>
-      <c r="K7" s="39">
-        <v>9646000</v>
-      </c>
-      <c r="L7" s="39">
-        <v>12331000</v>
-      </c>
-      <c r="M7" s="39">
-        <v>1573000</v>
-      </c>
-      <c r="N7" s="39">
-        <v>41172000</v>
-      </c>
-      <c r="O7" s="39">
-        <v>8853000</v>
-      </c>
-      <c r="P7" s="39">
-        <v>52150000</v>
-      </c>
-      <c r="Q7" s="39">
-        <v>7.8391608391608392</v>
-      </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41">
-        <f>C7/C6 -1</f>
-        <v>-4.1478070244610477E-3</v>
-      </c>
-      <c r="T7" s="42">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="29">
+        <v>154229000</v>
+      </c>
+      <c r="C8" s="29">
+        <v>63238000</v>
+      </c>
+      <c r="D8" s="29">
+        <v>9159000</v>
+      </c>
+      <c r="E8" s="29">
+        <v>204604586</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0.11130000000000001</v>
+      </c>
+      <c r="G8" s="29">
+        <v>4.5599999999999995E-2</v>
+      </c>
+      <c r="H8" s="29">
+        <v>36.81</v>
+      </c>
+      <c r="I8" s="29">
+        <v>232219586</v>
+      </c>
+      <c r="J8" s="29">
+        <v>5620000</v>
+      </c>
+      <c r="K8" s="29">
+        <v>12221000</v>
+      </c>
+      <c r="L8" s="29">
+        <v>7534000</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1449000</v>
+      </c>
+      <c r="N8" s="29">
+        <v>41651000</v>
+      </c>
+      <c r="O8" s="29">
+        <v>6468000</v>
+      </c>
+      <c r="P8" s="29">
+        <v>39836000</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>5.1994478951000689</v>
+      </c>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.24051442026690081</v>
-      </c>
+        <v>1.4886608387179034E-3</v>
+      </c>
+      <c r="T8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.1946974932419159</v>
+      </c>
+      <c r="U8" s="51">
+        <v>1.18E-2</v>
+      </c>
+      <c r="V8" s="31"/>
+      <c r="W8" s="32"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="39">
-        <v>154229000</v>
-      </c>
-      <c r="C8" s="39">
-        <v>63238000</v>
-      </c>
-      <c r="D8" s="39">
-        <v>9159000</v>
-      </c>
-      <c r="E8" s="39">
-        <v>204604586</v>
-      </c>
-      <c r="F8" s="39">
-        <v>0.11130000000000001</v>
-      </c>
-      <c r="G8" s="39">
-        <v>4.5599999999999995E-2</v>
-      </c>
-      <c r="H8" s="39">
-        <v>36.81</v>
-      </c>
-      <c r="I8" s="39">
-        <v>232219586</v>
-      </c>
-      <c r="J8" s="39">
-        <v>5620000</v>
-      </c>
-      <c r="K8" s="39">
-        <v>12221000</v>
-      </c>
-      <c r="L8" s="39">
-        <v>7534000</v>
-      </c>
-      <c r="M8" s="39">
-        <v>1449000</v>
-      </c>
-      <c r="N8" s="39">
-        <v>41651000</v>
-      </c>
-      <c r="O8" s="39">
-        <v>6468000</v>
-      </c>
-      <c r="P8" s="39">
-        <v>39836000</v>
-      </c>
-      <c r="Q8" s="39">
-        <v>5.1994478951000689</v>
-      </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41">
-        <f>C8/C7 -1</f>
-        <v>1.4886608387179034E-3</v>
-      </c>
-      <c r="T8" s="42">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="29">
+        <v>181476000</v>
+      </c>
+      <c r="C9" s="29">
+        <v>77200000</v>
+      </c>
+      <c r="D9" s="29">
+        <v>21980000</v>
+      </c>
+      <c r="E9" s="29">
+        <v>331439768</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.31489999999999996</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H9" s="29">
+        <v>59.05</v>
+      </c>
+      <c r="I9" s="29">
+        <v>338806768</v>
+      </c>
+      <c r="J9" s="29">
+        <v>5567000</v>
+      </c>
+      <c r="K9" s="29">
+        <v>31069000</v>
+      </c>
+      <c r="L9" s="29">
+        <v>23486000</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1291000</v>
+      </c>
+      <c r="N9" s="29">
+        <v>81288000</v>
+      </c>
+      <c r="O9" s="29">
+        <v>5277000</v>
+      </c>
+      <c r="P9" s="29">
+        <v>38436000</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>18.192099147947328</v>
+      </c>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31">
         <f t="shared" si="0"/>
-        <v>0.1946974932419159</v>
-      </c>
+        <v>0.22078497106170336</v>
+      </c>
+      <c r="T9" s="31">
+        <f t="shared" si="1"/>
+        <v>0.11596677197770668</v>
+      </c>
+      <c r="U9" s="51">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="V9" s="31"/>
+      <c r="W9" s="32"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="39">
-        <v>181476000</v>
-      </c>
-      <c r="C9" s="39">
-        <v>77200000</v>
-      </c>
-      <c r="D9" s="39">
-        <v>21980000</v>
-      </c>
-      <c r="E9" s="39">
-        <v>331439768</v>
-      </c>
-      <c r="F9" s="39">
-        <v>0.31489999999999996</v>
-      </c>
-      <c r="G9" s="39">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="H9" s="39">
-        <v>59.05</v>
-      </c>
-      <c r="I9" s="39">
-        <v>338806768</v>
-      </c>
-      <c r="J9" s="39">
-        <v>5567000</v>
-      </c>
-      <c r="K9" s="39">
-        <v>31069000</v>
-      </c>
-      <c r="L9" s="39">
-        <v>23486000</v>
-      </c>
-      <c r="M9" s="39">
-        <v>1291000</v>
-      </c>
-      <c r="N9" s="39">
-        <v>81288000</v>
-      </c>
-      <c r="O9" s="39">
-        <v>5277000</v>
-      </c>
-      <c r="P9" s="39">
-        <v>38436000</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>18.192099147947328</v>
-      </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41">
-        <f>C9/C8 -1</f>
-        <v>0.22078497106170336</v>
-      </c>
-      <c r="T9" s="42">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="29">
+        <v>197205000</v>
+      </c>
+      <c r="C10" s="29">
+        <v>95660000</v>
+      </c>
+      <c r="D10" s="29">
+        <v>31372000</v>
+      </c>
+      <c r="E10" s="29">
+        <v>287626246</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="H10" s="29">
+        <v>51.24</v>
+      </c>
+      <c r="I10" s="29">
+        <v>300723246</v>
+      </c>
+      <c r="J10" s="29">
+        <v>5616000</v>
+      </c>
+      <c r="K10" s="29">
+        <v>22732000</v>
+      </c>
+      <c r="L10" s="29">
+        <v>36237000</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1238000</v>
+      </c>
+      <c r="N10" s="29">
+        <v>100330000</v>
+      </c>
+      <c r="O10" s="29">
+        <v>5485000</v>
+      </c>
+      <c r="P10" s="29">
+        <v>35829000</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>29.27059773828756</v>
+      </c>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.11596677197770668</v>
-      </c>
+        <v>0.23911917098445601</v>
+      </c>
+      <c r="T10" s="31">
+        <f t="shared" si="1"/>
+        <v>0.12456790886878939</v>
+      </c>
+      <c r="U10" s="51">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="V10" s="31"/>
+      <c r="W10" s="32"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="39">
-        <v>197205000</v>
-      </c>
-      <c r="C10" s="39">
-        <v>95660000</v>
-      </c>
-      <c r="D10" s="39">
-        <v>31372000</v>
-      </c>
-      <c r="E10" s="39">
-        <v>287626246</v>
-      </c>
-      <c r="F10" s="39">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="G10" s="39">
-        <v>0.17610000000000001</v>
-      </c>
-      <c r="H10" s="39">
-        <v>51.24</v>
-      </c>
-      <c r="I10" s="39">
-        <v>300723246</v>
-      </c>
-      <c r="J10" s="39">
-        <v>5616000</v>
-      </c>
-      <c r="K10" s="39">
-        <v>22732000</v>
-      </c>
-      <c r="L10" s="39">
-        <v>36237000</v>
-      </c>
-      <c r="M10" s="39">
-        <v>1238000</v>
-      </c>
-      <c r="N10" s="39">
-        <v>100330000</v>
-      </c>
-      <c r="O10" s="39">
-        <v>5485000</v>
-      </c>
-      <c r="P10" s="39">
-        <v>35829000</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>29.27059773828756</v>
-      </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41">
-        <f>C10/C9 -1</f>
-        <v>0.23911917098445601</v>
-      </c>
-      <c r="T10" s="42">
-        <f t="shared" si="0"/>
-        <v>0.12456790886878939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
         <v>2023</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="29">
         <v>226502000</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="29">
         <v>89014000</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="29">
         <v>2119000</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="29">
         <v>162560244</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="29">
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="29">
         <v>4.6999999999999993E-3</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="29">
         <v>28.79</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="29">
         <v>221758244</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="29">
         <v>5646000</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="29">
         <v>12690000</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="29">
         <v>-929000</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="29">
         <v>2209000</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="29">
         <v>58496000</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="29">
         <v>15514000</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="29">
         <v>71888000</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="29">
         <v>-0.42055228610230871</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="33">
         <f>7.25% + 21%</f>
         <v>0.28249999999999997</v>
       </c>
-      <c r="S11" s="41">
-        <f>C11/C10 -1</f>
+      <c r="S11" s="31">
+        <f t="shared" si="0"/>
         <v>-6.9475224754338316E-2</v>
       </c>
-      <c r="T11" s="42">
-        <f t="shared" si="0"/>
+      <c r="T11" s="33">
+        <f t="shared" si="1"/>
         <v>0.44222374567794082</v>
+      </c>
+      <c r="U11" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="51">
+        <f>0.69 %+ 3.94%</f>
+        <v>4.6299999999999994E-2</v>
+      </c>
+      <c r="W11" s="62">
+        <f>R11*P11</f>
+        <v>20308359.999999996</v>
       </c>
     </row>
   </sheetData>
@@ -12638,10 +12856,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE62E8B-B252-4389-A5F4-D2A4703DD146}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:T11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12663,687 +12881,742 @@
     <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="26" t="s">
         <v>202</v>
       </c>
+      <c r="U1" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
         <v>2014</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="29">
         <v>125387000</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="29">
         <v>70844000</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="29">
         <v>10210000</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="29">
         <v>252671019.956</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="29">
         <v>0.16829999999999998</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="29">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="29">
         <v>93.367702943086599</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="29">
         <v>259524019.956</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="29">
         <v>2706193</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="29">
         <v>13506000</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="29">
         <v>10736000</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="29">
         <v>792000</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="29">
         <v>59276000</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="29">
         <v>4774000</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="29">
         <v>20358999.99999997</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="29">
         <v>13.555555555555555</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="44" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="31">
         <f>P2/E2</f>
         <v>8.0575128891098302E-2</v>
       </c>
+      <c r="U2" s="34"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>2015</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>131556000</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="29">
         <v>77122000</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="29">
         <v>17783000</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="29">
         <v>234213293.69499999</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="29">
         <v>0.10550000000000001</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="29">
         <v>6.1799999999999994E-2</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="29">
         <v>87.491183376312307</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="29">
         <v>250810293.69499999</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="29">
         <v>2676993</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="29">
         <v>5304000</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="29">
         <v>8977000</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="29">
         <v>890000</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="29">
         <v>50387000</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="29">
         <v>4148000</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="29">
         <v>21901000</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="29">
         <v>10.086516853932585</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41">
-        <f>C3/C2 -1</f>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31">
+        <f t="shared" ref="S3:S11" si="0">C3/C2 -1</f>
         <v>8.8617243520975775E-2</v>
       </c>
-      <c r="T3" s="42">
-        <f t="shared" ref="T3:T11" si="0">P3/E3</f>
+      <c r="T3" s="31">
+        <f t="shared" ref="T3:T11" si="1">P3/E3</f>
         <v>9.3508782761580478E-2</v>
       </c>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="32"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>2016</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="29">
         <v>130124000</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="29">
         <v>74891000</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="29">
         <v>6712000</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="29">
         <v>191603548.85699999</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="29">
         <v>0.10439999999999999</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="29">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="29">
         <v>72.933071422576901</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="29">
         <v>207742548.85699999</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="29">
         <v>2627115</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="29">
         <v>7547000</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="29">
         <v>8268000</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="29">
         <v>728000</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="29">
         <v>49436000</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="29">
         <v>6063000</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="29">
         <v>23686000</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="29">
         <v>11.357142857142858</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41">
-        <f>C4/C3 -1</f>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31">
+        <f t="shared" si="0"/>
         <v>-2.8928191696273475E-2</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="31">
+        <f t="shared" si="1"/>
+        <v>0.12361983972268509</v>
+      </c>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="29">
+        <v>133079000</v>
+      </c>
+      <c r="C5" s="29">
+        <v>74227000</v>
+      </c>
+      <c r="D5" s="29">
+        <v>7703000</v>
+      </c>
+      <c r="E5" s="29">
+        <v>221088912.42899999</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.12119999999999999</v>
+      </c>
+      <c r="G5" s="29">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>84.486824226379397</v>
+      </c>
+      <c r="I5" s="29">
+        <v>240059912.42899999</v>
+      </c>
+      <c r="J5" s="29">
+        <v>2616845</v>
+      </c>
+      <c r="K5" s="29">
+        <v>9454000</v>
+      </c>
+      <c r="L5" s="29">
+        <v>8629000</v>
+      </c>
+      <c r="M5" s="29">
+        <v>803000</v>
+      </c>
+      <c r="N5" s="29">
+        <v>50135000</v>
+      </c>
+      <c r="O5" s="29">
+        <v>6108000</v>
+      </c>
+      <c r="P5" s="29">
+        <v>28425000</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>10.745952677459528</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31">
         <f t="shared" si="0"/>
-        <v>0.12361983972268509</v>
-      </c>
+        <v>-8.8662189048083206E-3</v>
+      </c>
+      <c r="T5" s="31">
+        <f t="shared" si="1"/>
+        <v>0.12856818411971854</v>
+      </c>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="39">
-        <v>133079000</v>
-      </c>
-      <c r="C5" s="39">
-        <v>74227000</v>
-      </c>
-      <c r="D5" s="39">
-        <v>7703000</v>
-      </c>
-      <c r="E5" s="39">
-        <v>221088912.42899999</v>
-      </c>
-      <c r="F5" s="39">
-        <v>0.12119999999999999</v>
-      </c>
-      <c r="G5" s="39">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="H5" s="39">
-        <v>84.486824226379397</v>
-      </c>
-      <c r="I5" s="39">
-        <v>240059912.42899999</v>
-      </c>
-      <c r="J5" s="39">
-        <v>2616845</v>
-      </c>
-      <c r="K5" s="39">
-        <v>9454000</v>
-      </c>
-      <c r="L5" s="39">
-        <v>8629000</v>
-      </c>
-      <c r="M5" s="39">
-        <v>803000</v>
-      </c>
-      <c r="N5" s="39">
-        <v>50135000</v>
-      </c>
-      <c r="O5" s="39">
-        <v>6108000</v>
-      </c>
-      <c r="P5" s="39">
-        <v>28425000</v>
-      </c>
-      <c r="Q5" s="39">
-        <v>10.745952677459528</v>
-      </c>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41">
-        <f>C5/C4 -1</f>
-        <v>-8.8662189048083206E-3</v>
-      </c>
-      <c r="T5" s="42">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="29">
+        <v>145563000</v>
+      </c>
+      <c r="C6" s="29">
+        <v>78692000</v>
+      </c>
+      <c r="D6" s="29">
+        <v>12611000</v>
+      </c>
+      <c r="E6" s="29">
+        <v>217685096.62900001</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.17579999999999998</v>
+      </c>
+      <c r="G6" s="29">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H6" s="29">
+        <v>85.345791568756098</v>
+      </c>
+      <c r="I6" s="29">
+        <v>233941096.62900001</v>
+      </c>
+      <c r="J6" s="29">
+        <v>2550625</v>
+      </c>
+      <c r="K6" s="29">
+        <v>15834000</v>
+      </c>
+      <c r="L6" s="29">
+        <v>8169000</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="N6" s="29">
+        <v>53166000</v>
+      </c>
+      <c r="O6" s="29">
+        <v>6729000</v>
+      </c>
+      <c r="P6" s="29">
+        <v>32090000</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
-        <v>0.12856818411971854</v>
-      </c>
+        <v>6.0153313484311743E-2</v>
+      </c>
+      <c r="T6" s="31">
+        <f t="shared" si="1"/>
+        <v>0.14741477711122725</v>
+      </c>
+      <c r="U6" s="32"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="39">
-        <v>145563000</v>
-      </c>
-      <c r="C6" s="39">
-        <v>78692000</v>
-      </c>
-      <c r="D6" s="39">
-        <v>12611000</v>
-      </c>
-      <c r="E6" s="39">
-        <v>217685096.62900001</v>
-      </c>
-      <c r="F6" s="39">
-        <v>0.17579999999999998</v>
-      </c>
-      <c r="G6" s="39">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H6" s="39">
-        <v>85.345791568756098</v>
-      </c>
-      <c r="I6" s="39">
-        <v>233941096.62900001</v>
-      </c>
-      <c r="J6" s="39">
-        <v>2550625</v>
-      </c>
-      <c r="K6" s="39">
-        <v>15834000</v>
-      </c>
-      <c r="L6" s="39">
-        <v>8169000</v>
-      </c>
-      <c r="M6" s="39">
-        <v>1000000</v>
-      </c>
-      <c r="N6" s="39">
-        <v>53166000</v>
-      </c>
-      <c r="O6" s="39">
-        <v>6729000</v>
-      </c>
-      <c r="P6" s="39">
-        <v>32090000</v>
-      </c>
-      <c r="Q6" s="39">
-        <v>8.1690000000000005</v>
-      </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41">
-        <f>C6/C5 -1</f>
-        <v>6.0153313484311743E-2</v>
-      </c>
-      <c r="T6" s="42">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="29">
+        <v>118370000</v>
+      </c>
+      <c r="C7" s="29">
+        <v>55551000</v>
+      </c>
+      <c r="D7" s="29">
+        <v>11732000</v>
+      </c>
+      <c r="E7" s="29">
+        <v>239894384.63999999</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G7" s="29">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H7" s="29">
+        <v>94.918402588367499</v>
+      </c>
+      <c r="I7" s="29">
+        <v>257698384.63999999</v>
+      </c>
+      <c r="J7" s="29">
+        <v>2527375</v>
+      </c>
+      <c r="K7" s="29">
+        <v>11344000</v>
+      </c>
+      <c r="L7" s="29">
+        <v>9157000</v>
+      </c>
+      <c r="M7" s="29">
+        <v>915000</v>
+      </c>
+      <c r="N7" s="29">
+        <v>50486000</v>
+      </c>
+      <c r="O7" s="29">
+        <v>5866000</v>
+      </c>
+      <c r="P7" s="29">
+        <v>29148000</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>10.007650273224044</v>
+      </c>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31">
         <f t="shared" si="0"/>
-        <v>0.14741477711122725</v>
-      </c>
+        <v>-0.29407055355055156</v>
+      </c>
+      <c r="T7" s="31">
+        <f t="shared" si="1"/>
+        <v>0.12150346930271523</v>
+      </c>
+      <c r="U7" s="31">
+        <v>6.3E-3</v>
+      </c>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="39">
-        <v>118370000</v>
-      </c>
-      <c r="C7" s="39">
-        <v>55551000</v>
-      </c>
-      <c r="D7" s="39">
-        <v>11732000</v>
-      </c>
-      <c r="E7" s="39">
-        <v>239894384.63999999</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="G7" s="39">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="H7" s="39">
-        <v>94.918402588367499</v>
-      </c>
-      <c r="I7" s="39">
-        <v>257698384.63999999</v>
-      </c>
-      <c r="J7" s="39">
-        <v>2527375</v>
-      </c>
-      <c r="K7" s="39">
-        <v>11344000</v>
-      </c>
-      <c r="L7" s="39">
-        <v>9157000</v>
-      </c>
-      <c r="M7" s="39">
-        <v>915000</v>
-      </c>
-      <c r="N7" s="39">
-        <v>50486000</v>
-      </c>
-      <c r="O7" s="39">
-        <v>5866000</v>
-      </c>
-      <c r="P7" s="39">
-        <v>29148000</v>
-      </c>
-      <c r="Q7" s="39">
-        <v>10.007650273224044</v>
-      </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41">
-        <f>C7/C6 -1</f>
-        <v>-0.29407055355055156</v>
-      </c>
-      <c r="T7" s="42">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="29">
+        <v>132059000</v>
+      </c>
+      <c r="C8" s="29">
+        <v>56666000</v>
+      </c>
+      <c r="D8" s="29">
+        <v>8072000</v>
+      </c>
+      <c r="E8" s="29">
+        <v>234191615.44800001</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="G8" s="29">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="H8" s="29">
+        <v>94.927372598648105</v>
+      </c>
+      <c r="I8" s="29">
+        <v>260642615.44800001</v>
+      </c>
+      <c r="J8" s="29">
+        <v>2467061</v>
+      </c>
+      <c r="K8" s="29">
+        <v>11404000</v>
+      </c>
+      <c r="L8" s="29">
+        <v>10152000</v>
+      </c>
+      <c r="M8" s="29">
+        <v>921000</v>
+      </c>
+      <c r="N8" s="29">
+        <v>49898000</v>
+      </c>
+      <c r="O8" s="29">
+        <v>6471000</v>
+      </c>
+      <c r="P8" s="29">
+        <v>37855000</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>11.022801302931596</v>
+      </c>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.12150346930271523</v>
-      </c>
+        <v>2.0071645874961686E-2</v>
+      </c>
+      <c r="T8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.16164114128332377</v>
+      </c>
+      <c r="U8" s="31">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="V8" s="31"/>
+      <c r="W8" s="32"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="39">
-        <v>132059000</v>
-      </c>
-      <c r="C8" s="39">
-        <v>56666000</v>
-      </c>
-      <c r="D8" s="39">
-        <v>8072000</v>
-      </c>
-      <c r="E8" s="39">
-        <v>234191615.44800001</v>
-      </c>
-      <c r="F8" s="39">
-        <v>0.17430000000000001</v>
-      </c>
-      <c r="G8" s="39">
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="H8" s="39">
-        <v>94.927372598648105</v>
-      </c>
-      <c r="I8" s="39">
-        <v>260642615.44800001</v>
-      </c>
-      <c r="J8" s="39">
-        <v>2467061</v>
-      </c>
-      <c r="K8" s="39">
-        <v>11404000</v>
-      </c>
-      <c r="L8" s="39">
-        <v>10152000</v>
-      </c>
-      <c r="M8" s="39">
-        <v>921000</v>
-      </c>
-      <c r="N8" s="39">
-        <v>49898000</v>
-      </c>
-      <c r="O8" s="39">
-        <v>6471000</v>
-      </c>
-      <c r="P8" s="39">
-        <v>37855000</v>
-      </c>
-      <c r="Q8" s="39">
-        <v>11.022801302931596</v>
-      </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41">
-        <f>C8/C7 -1</f>
-        <v>2.0071645874961686E-2</v>
-      </c>
-      <c r="T8" s="42">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="29">
+        <v>131795000</v>
+      </c>
+      <c r="C9" s="29">
+        <v>67822000</v>
+      </c>
+      <c r="D9" s="29">
+        <v>24021000</v>
+      </c>
+      <c r="E9" s="29">
+        <v>214128757.36000001</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.38539999999999996</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.19829999999999998</v>
+      </c>
+      <c r="H9" s="29">
+        <v>87.958807311058095</v>
+      </c>
+      <c r="I9" s="29">
+        <v>216929757.36000001</v>
+      </c>
+      <c r="J9" s="29">
+        <v>2434421</v>
+      </c>
+      <c r="K9" s="29">
+        <v>28224000</v>
+      </c>
+      <c r="L9" s="29">
+        <v>11689000</v>
+      </c>
+      <c r="M9" s="29">
+        <v>905000</v>
+      </c>
+      <c r="N9" s="29">
+        <v>52877000</v>
+      </c>
+      <c r="O9" s="29">
+        <v>6216000</v>
+      </c>
+      <c r="P9" s="29">
+        <v>31025000</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>12.916022099447513</v>
+      </c>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31">
         <f t="shared" si="0"/>
-        <v>0.16164114128332377</v>
-      </c>
+        <v>0.19687290438711047</v>
+      </c>
+      <c r="T9" s="31">
+        <f t="shared" si="1"/>
+        <v>0.14488945988623</v>
+      </c>
+      <c r="U9" s="31">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="V9" s="31"/>
+      <c r="W9" s="32"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="39">
-        <v>131795000</v>
-      </c>
-      <c r="C9" s="39">
-        <v>67822000</v>
-      </c>
-      <c r="D9" s="39">
-        <v>24021000</v>
-      </c>
-      <c r="E9" s="39">
-        <v>214128757.36000001</v>
-      </c>
-      <c r="F9" s="39">
-        <v>0.38539999999999996</v>
-      </c>
-      <c r="G9" s="39">
-        <v>0.19829999999999998</v>
-      </c>
-      <c r="H9" s="39">
-        <v>87.958807311058095</v>
-      </c>
-      <c r="I9" s="39">
-        <v>216929757.36000001</v>
-      </c>
-      <c r="J9" s="39">
-        <v>2434421</v>
-      </c>
-      <c r="K9" s="39">
-        <v>28224000</v>
-      </c>
-      <c r="L9" s="39">
-        <v>11689000</v>
-      </c>
-      <c r="M9" s="39">
-        <v>905000</v>
-      </c>
-      <c r="N9" s="39">
-        <v>52877000</v>
-      </c>
-      <c r="O9" s="39">
-        <v>6216000</v>
-      </c>
-      <c r="P9" s="39">
-        <v>31025000</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>12.916022099447513</v>
-      </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41">
-        <f>C9/C8 -1</f>
-        <v>0.19687290438711047</v>
-      </c>
-      <c r="T9" s="42">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="29">
+        <v>117453000</v>
+      </c>
+      <c r="C10" s="29">
+        <v>59423000</v>
+      </c>
+      <c r="D10" s="29">
+        <v>6955000</v>
+      </c>
+      <c r="E10" s="29">
+        <v>217630164.68399999</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.1409</v>
+      </c>
+      <c r="G10" s="29">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="H10" s="29">
+        <v>90.538856798410393</v>
+      </c>
+      <c r="I10" s="29">
+        <v>226813164.68399999</v>
+      </c>
+      <c r="J10" s="29">
+        <v>2403721</v>
+      </c>
+      <c r="K10" s="29">
+        <v>18726000</v>
+      </c>
+      <c r="L10" s="29">
+        <v>9197000</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1031000</v>
+      </c>
+      <c r="N10" s="29">
+        <v>51828000</v>
+      </c>
+      <c r="O10" s="29">
+        <v>7188000</v>
+      </c>
+      <c r="P10" s="29">
+        <v>27909000</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>8.9204655674102806</v>
+      </c>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>0.14488945988623</v>
-      </c>
+        <v>-0.12383887234230784</v>
+      </c>
+      <c r="T10" s="31">
+        <f t="shared" si="1"/>
+        <v>0.12824049478859698</v>
+      </c>
+      <c r="U10" s="31">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="V10" s="31"/>
+      <c r="W10" s="32"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="39">
-        <v>117453000</v>
-      </c>
-      <c r="C10" s="39">
-        <v>59423000</v>
-      </c>
-      <c r="D10" s="39">
-        <v>6955000</v>
-      </c>
-      <c r="E10" s="39">
-        <v>217630164.68399999</v>
-      </c>
-      <c r="F10" s="39">
-        <v>0.1409</v>
-      </c>
-      <c r="G10" s="39">
-        <v>7.1300000000000002E-2</v>
-      </c>
-      <c r="H10" s="39">
-        <v>90.538856798410393</v>
-      </c>
-      <c r="I10" s="39">
-        <v>226813164.68399999</v>
-      </c>
-      <c r="J10" s="39">
-        <v>2403721</v>
-      </c>
-      <c r="K10" s="39">
-        <v>18726000</v>
-      </c>
-      <c r="L10" s="39">
-        <v>9197000</v>
-      </c>
-      <c r="M10" s="39">
-        <v>1031000</v>
-      </c>
-      <c r="N10" s="39">
-        <v>51828000</v>
-      </c>
-      <c r="O10" s="39">
-        <v>7188000</v>
-      </c>
-      <c r="P10" s="39">
-        <v>27909000</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>8.9204655674102806</v>
-      </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41">
-        <f>C10/C9 -1</f>
-        <v>-0.12383887234230784</v>
-      </c>
-      <c r="T10" s="42">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="29">
+        <v>99945000</v>
+      </c>
+      <c r="C11" s="29">
+        <v>46750000</v>
+      </c>
+      <c r="D11" s="29">
+        <v>14854000</v>
+      </c>
+      <c r="E11" s="29">
+        <v>230092909.801</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.1996</v>
+      </c>
+      <c r="G11" s="29">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="H11" s="29">
+        <v>101.029703650475</v>
+      </c>
+      <c r="I11" s="29">
+        <v>242367909.801</v>
+      </c>
+      <c r="J11" s="29">
+        <v>2277478</v>
+      </c>
+      <c r="K11" s="29">
+        <v>14073000</v>
+      </c>
+      <c r="L11" s="29">
+        <v>10030000</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1120000</v>
+      </c>
+      <c r="N11" s="29">
+        <v>54107000</v>
+      </c>
+      <c r="O11" s="29">
+        <v>8293000</v>
+      </c>
+      <c r="P11" s="29">
+        <v>26348000</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>8.9553571428571423</v>
+      </c>
+      <c r="R11" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="S11" s="31">
         <f t="shared" si="0"/>
-        <v>0.12824049478859698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="39">
-        <v>99945000</v>
-      </c>
-      <c r="C11" s="39">
-        <v>46750000</v>
-      </c>
-      <c r="D11" s="39">
-        <v>14854000</v>
-      </c>
-      <c r="E11" s="39">
-        <v>230092909.801</v>
-      </c>
-      <c r="F11" s="39">
-        <v>0.1996</v>
-      </c>
-      <c r="G11" s="39">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="H11" s="39">
-        <v>101.029703650475</v>
-      </c>
-      <c r="I11" s="39">
-        <v>242367909.801</v>
-      </c>
-      <c r="J11" s="39">
-        <v>2277478</v>
-      </c>
-      <c r="K11" s="39">
-        <v>14073000</v>
-      </c>
-      <c r="L11" s="39">
-        <v>10030000</v>
-      </c>
-      <c r="M11" s="39">
-        <v>1120000</v>
-      </c>
-      <c r="N11" s="39">
-        <v>54107000</v>
-      </c>
-      <c r="O11" s="39">
-        <v>8293000</v>
-      </c>
-      <c r="P11" s="39">
-        <v>26348000</v>
-      </c>
-      <c r="Q11" s="39">
-        <v>8.9553571428571423</v>
-      </c>
-      <c r="R11" s="43">
-        <v>0.15</v>
-      </c>
-      <c r="S11" s="41">
-        <f>C11/C10 -1</f>
         <v>-0.21326758999040774</v>
       </c>
-      <c r="T11" s="42">
-        <f t="shared" si="0"/>
+      <c r="T11" s="33">
+        <f t="shared" si="1"/>
         <v>0.11451026466998719</v>
+      </c>
+      <c r="U11" s="31">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="V11" s="31">
+        <f>U11+0.7%</f>
+        <v>1.2899999999999998E-2</v>
+      </c>
+      <c r="W11" s="62">
+        <f>R11*P11</f>
+        <v>3952200</v>
       </c>
     </row>
   </sheetData>
@@ -13355,10 +13628,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80605593-FA81-460E-B498-6BBA7B2DB4BD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13380,688 +13653,743 @@
     <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="26" t="s">
         <v>202</v>
       </c>
+      <c r="U1" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
         <v>2014</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="29">
         <v>36307600</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="29">
         <v>15373200</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="29">
         <v>2390500</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="29">
         <v>76815520.695999995</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="29">
         <v>0.19519999999999998</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="29">
         <v>8.2599999999999993E-2</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="29">
         <v>68.989999999999995</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="29">
         <v>80010020.695999995</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="29">
         <v>1111000</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="29">
         <v>4827000</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="29">
         <v>2659800</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="29">
         <v>148800</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="29">
         <v>19615600</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="29">
         <v>1847700</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="29">
         <v>8021500</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="29">
         <v>17.875</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="44" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="31">
         <f>P2/E2</f>
         <v>0.10442551098163294</v>
       </c>
+      <c r="U2" s="34"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="32"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>2015</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>35568900</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="29">
         <v>14571300</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="29">
         <v>2408400</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="29">
         <v>93366532.386000007</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="29">
         <v>0.19149999999999998</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="29">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="29">
         <v>84.26</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="29">
         <v>96893232.386000007</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="29">
         <v>1105000</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="29">
         <v>4451800</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="29">
         <v>2522700</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="29">
         <v>161200</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="29">
         <v>19958700</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="29">
         <v>1654400</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="29">
         <v>7978500</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="29">
         <v>15.649503722084367</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41">
-        <f>C3/C2 -1</f>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31">
+        <f t="shared" ref="S3:S11" si="0">C3/C2 -1</f>
         <v>-5.2162204355631903E-2</v>
       </c>
-      <c r="T3" s="42">
-        <f t="shared" ref="T3:T11" si="0">P3/E3</f>
+      <c r="T3" s="31">
+        <f t="shared" ref="T3:T11" si="1">P3/E3</f>
         <v>8.5453532396543713E-2</v>
       </c>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="32"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>2016</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="29">
         <v>38805900</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="29">
         <v>14007700</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="29">
         <v>2737600</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="29">
         <v>81195395.685000002</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="29">
         <v>0.2409</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="29">
         <v>8.6899999999999991E-2</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="29">
         <v>73.55</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="29">
         <v>85461995.685000002</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="29">
         <v>1101000</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="29">
         <v>6038600</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="29">
         <v>3458800</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="29">
         <v>185200</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="29">
         <v>21222100</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="29">
         <v>1752400</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="29">
         <v>10305200</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="29">
         <v>18.676025917926566</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41">
-        <f>C4/C3 -1</f>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31">
+        <f t="shared" si="0"/>
         <v>-3.867877265583719E-2</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="31">
+        <f t="shared" si="1"/>
+        <v>0.12691852675956325</v>
+      </c>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="29">
+        <v>44981000</v>
+      </c>
+      <c r="C5" s="29">
+        <v>11592200</v>
+      </c>
+      <c r="D5" s="29">
+        <v>-204100</v>
+      </c>
+      <c r="E5" s="29">
+        <v>92998458.283000007</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.19879999999999998</v>
+      </c>
+      <c r="G5" s="29">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>84.46</v>
+      </c>
+      <c r="I5" s="29">
+        <v>98611458.283000007</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1100000</v>
+      </c>
+      <c r="K5" s="29">
+        <v>8034100</v>
+      </c>
+      <c r="L5" s="29">
+        <v>2003300</v>
+      </c>
+      <c r="M5" s="29">
+        <v>225000</v>
+      </c>
+      <c r="N5" s="29">
+        <v>19973800</v>
+      </c>
+      <c r="O5" s="29">
+        <v>2297900</v>
+      </c>
+      <c r="P5" s="29">
+        <v>13647100</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>8.9035555555555561</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31">
         <f t="shared" si="0"/>
-        <v>0.12691852675956325</v>
-      </c>
+        <v>-0.17244087180622092</v>
+      </c>
+      <c r="T5" s="31">
+        <f t="shared" si="1"/>
+        <v>0.14674544344026691</v>
+      </c>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="39">
-        <v>44981000</v>
-      </c>
-      <c r="C5" s="39">
-        <v>11592200</v>
-      </c>
-      <c r="D5" s="39">
-        <v>-204100</v>
-      </c>
-      <c r="E5" s="39">
-        <v>92998458.283000007</v>
-      </c>
-      <c r="F5" s="39">
-        <v>0.19879999999999998</v>
-      </c>
-      <c r="G5" s="39">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="H5" s="39">
-        <v>84.46</v>
-      </c>
-      <c r="I5" s="39">
-        <v>98611458.283000007</v>
-      </c>
-      <c r="J5" s="39">
-        <v>1100000</v>
-      </c>
-      <c r="K5" s="39">
-        <v>8034100</v>
-      </c>
-      <c r="L5" s="39">
-        <v>2003300</v>
-      </c>
-      <c r="M5" s="39">
-        <v>225000</v>
-      </c>
-      <c r="N5" s="39">
-        <v>19973800</v>
-      </c>
-      <c r="O5" s="39">
-        <v>2297900</v>
-      </c>
-      <c r="P5" s="39">
-        <v>13647100</v>
-      </c>
-      <c r="Q5" s="39">
-        <v>8.9035555555555561</v>
-      </c>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41">
-        <f>C5/C4 -1</f>
-        <v>-0.17244087180622092</v>
-      </c>
-      <c r="T5" s="42">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="29">
+        <v>43908400</v>
+      </c>
+      <c r="C6" s="29">
+        <v>9828700</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3232000</v>
+      </c>
+      <c r="E6" s="29">
+        <v>122584772.642</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.37439999999999996</v>
+      </c>
+      <c r="G6" s="29">
+        <v>8.3800000000000013E-2</v>
+      </c>
+      <c r="H6" s="29">
+        <v>115.72</v>
+      </c>
+      <c r="I6" s="29">
+        <v>125474472.642</v>
+      </c>
+      <c r="J6" s="29">
+        <v>1058000</v>
+      </c>
+      <c r="K6" s="29">
+        <v>7408900</v>
+      </c>
+      <c r="L6" s="29">
+        <v>3534500</v>
+      </c>
+      <c r="M6" s="29">
+        <v>242500</v>
+      </c>
+      <c r="N6" s="29">
+        <v>21493300</v>
+      </c>
+      <c r="O6" s="29">
+        <v>1748100</v>
+      </c>
+      <c r="P6" s="29">
+        <v>10298600</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>14.575257731958763</v>
+      </c>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
-        <v>0.14674544344026691</v>
-      </c>
+        <v>-0.15212815513880018</v>
+      </c>
+      <c r="T6" s="31">
+        <f t="shared" si="1"/>
+        <v>8.4012065920098564E-2</v>
+      </c>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="39">
-        <v>43908400</v>
-      </c>
-      <c r="C6" s="39">
-        <v>9828700</v>
-      </c>
-      <c r="D6" s="39">
-        <v>3232000</v>
-      </c>
-      <c r="E6" s="39">
-        <v>122584772.642</v>
-      </c>
-      <c r="F6" s="39">
-        <v>0.37439999999999996</v>
-      </c>
-      <c r="G6" s="39">
-        <v>8.3800000000000013E-2</v>
-      </c>
-      <c r="H6" s="39">
-        <v>115.72</v>
-      </c>
-      <c r="I6" s="39">
-        <v>125474472.642</v>
-      </c>
-      <c r="J6" s="39">
-        <v>1058000</v>
-      </c>
-      <c r="K6" s="39">
-        <v>7408900</v>
-      </c>
-      <c r="L6" s="39">
-        <v>3534500</v>
-      </c>
-      <c r="M6" s="39">
-        <v>242500</v>
-      </c>
-      <c r="N6" s="39">
-        <v>21493300</v>
-      </c>
-      <c r="O6" s="39">
-        <v>1748100</v>
-      </c>
-      <c r="P6" s="39">
-        <v>10298600</v>
-      </c>
-      <c r="Q6" s="39">
-        <v>14.575257731958763</v>
-      </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41">
-        <f>C6/C5 -1</f>
-        <v>-0.15212815513880018</v>
-      </c>
-      <c r="T6" s="42">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="29">
+        <v>39286100</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2606900</v>
+      </c>
+      <c r="D7" s="29">
+        <v>8318400</v>
+      </c>
+      <c r="E7" s="29">
+        <v>126189980.2</v>
+      </c>
+      <c r="F7" s="29">
+        <v>2.02</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H7" s="29">
+        <v>131.43</v>
+      </c>
+      <c r="I7" s="29">
+        <v>139068680.19999999</v>
+      </c>
+      <c r="J7" s="29">
+        <v>958000</v>
+      </c>
+      <c r="K7" s="29">
+        <v>2438500</v>
+      </c>
+      <c r="L7" s="29">
+        <v>5031600</v>
+      </c>
+      <c r="M7" s="29">
+        <v>400600</v>
+      </c>
+      <c r="N7" s="29">
+        <v>22319500</v>
+      </c>
+      <c r="O7" s="29">
+        <v>1730400</v>
+      </c>
+      <c r="P7" s="29">
+        <v>15317199.999999985</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>12.560159760359461</v>
+      </c>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31">
         <f t="shared" si="0"/>
-        <v>8.4012065920098564E-2</v>
-      </c>
+        <v>-0.73476655101895472</v>
+      </c>
+      <c r="T7" s="31">
+        <f t="shared" si="1"/>
+        <v>0.12138206199670983</v>
+      </c>
+      <c r="U7" s="31">
+        <v>6.3E-3</v>
+      </c>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="39">
-        <v>39286100</v>
-      </c>
-      <c r="C7" s="39">
-        <v>2606900</v>
-      </c>
-      <c r="D7" s="39">
-        <v>8318400</v>
-      </c>
-      <c r="E7" s="39">
-        <v>126189980.2</v>
-      </c>
-      <c r="F7" s="39">
-        <v>2.02</v>
-      </c>
-      <c r="G7" s="39">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="H7" s="39">
-        <v>131.43</v>
-      </c>
-      <c r="I7" s="39">
-        <v>139068680.19999999</v>
-      </c>
-      <c r="J7" s="39">
-        <v>958000</v>
-      </c>
-      <c r="K7" s="39">
-        <v>2438500</v>
-      </c>
-      <c r="L7" s="39">
-        <v>5031600</v>
-      </c>
-      <c r="M7" s="39">
-        <v>400600</v>
-      </c>
-      <c r="N7" s="39">
-        <v>22319500</v>
-      </c>
-      <c r="O7" s="39">
-        <v>1730400</v>
-      </c>
-      <c r="P7" s="39">
-        <v>15317199.999999985</v>
-      </c>
-      <c r="Q7" s="39">
-        <v>12.560159760359461</v>
-      </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41">
-        <f>C7/C6 -1</f>
-        <v>-0.73476655101895472</v>
-      </c>
-      <c r="T7" s="42">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="29">
+        <v>46633100</v>
+      </c>
+      <c r="C8" s="29">
+        <v>5641600</v>
+      </c>
+      <c r="D8" s="29">
+        <v>6193700</v>
+      </c>
+      <c r="E8" s="29">
+        <v>161509233.50299999</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1.2815000000000001</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.155</v>
+      </c>
+      <c r="H8" s="29">
+        <v>168.84</v>
+      </c>
+      <c r="I8" s="29">
+        <v>174423233.50299999</v>
+      </c>
+      <c r="J8" s="29">
+        <v>954000</v>
+      </c>
+      <c r="K8" s="29">
+        <v>3681300</v>
+      </c>
+      <c r="L8" s="29">
+        <v>6058000</v>
+      </c>
+      <c r="M8" s="29">
+        <v>359600</v>
+      </c>
+      <c r="N8" s="29">
+        <v>24539800</v>
+      </c>
+      <c r="O8" s="29">
+        <v>1303900</v>
+      </c>
+      <c r="P8" s="29">
+        <v>16595300</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>16.846496106785317</v>
+      </c>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>0.12138206199670983</v>
-      </c>
+        <v>1.1641029575357704</v>
+      </c>
+      <c r="T8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.10275140089555157</v>
+      </c>
+      <c r="U8" s="31">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="V8" s="31"/>
+      <c r="W8" s="32"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="39">
-        <v>46633100</v>
-      </c>
-      <c r="C8" s="39">
-        <v>5641600</v>
-      </c>
-      <c r="D8" s="39">
-        <v>6193700</v>
-      </c>
-      <c r="E8" s="39">
-        <v>161509233.50299999</v>
-      </c>
-      <c r="F8" s="39">
-        <v>1.2815000000000001</v>
-      </c>
-      <c r="G8" s="39">
-        <v>0.155</v>
-      </c>
-      <c r="H8" s="39">
-        <v>168.84</v>
-      </c>
-      <c r="I8" s="39">
-        <v>174423233.50299999</v>
-      </c>
-      <c r="J8" s="39">
-        <v>954000</v>
-      </c>
-      <c r="K8" s="39">
-        <v>3681300</v>
-      </c>
-      <c r="L8" s="39">
-        <v>6058000</v>
-      </c>
-      <c r="M8" s="39">
-        <v>359600</v>
-      </c>
-      <c r="N8" s="39">
-        <v>24539800</v>
-      </c>
-      <c r="O8" s="39">
-        <v>1303900</v>
-      </c>
-      <c r="P8" s="39">
-        <v>16595300</v>
-      </c>
-      <c r="Q8" s="39">
-        <v>16.846496106785317</v>
-      </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41">
-        <f>C8/C7 -1</f>
-        <v>1.1641029575357704</v>
-      </c>
-      <c r="T8" s="42">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="29">
+        <v>48806000</v>
+      </c>
+      <c r="C9" s="29">
+        <v>8979200</v>
+      </c>
+      <c r="D9" s="29">
+        <v>5581700</v>
+      </c>
+      <c r="E9" s="29">
+        <v>264229951.96200001</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.6855</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="H9" s="29">
+        <v>276.22000000000003</v>
+      </c>
+      <c r="I9" s="29">
+        <v>277206051.96200001</v>
+      </c>
+      <c r="J9" s="29">
+        <v>957000</v>
+      </c>
+      <c r="K9" s="29">
+        <v>3908600</v>
+      </c>
+      <c r="L9" s="29">
+        <v>5951900</v>
+      </c>
+      <c r="M9" s="29">
+        <v>339800</v>
+      </c>
+      <c r="N9" s="29">
+        <v>28318400</v>
+      </c>
+      <c r="O9" s="29">
+        <v>1850700</v>
+      </c>
+      <c r="P9" s="29">
+        <v>16884700</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>17.515891701000587</v>
+      </c>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31">
         <f t="shared" si="0"/>
-        <v>0.10275140089555157</v>
-      </c>
+        <v>0.59160521837776514</v>
+      </c>
+      <c r="T9" s="31">
+        <f t="shared" si="1"/>
+        <v>6.3901536803928488E-2</v>
+      </c>
+      <c r="U9" s="31">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="V9" s="31"/>
+      <c r="W9" s="32"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="39">
-        <v>48806000</v>
-      </c>
-      <c r="C9" s="39">
-        <v>8979200</v>
-      </c>
-      <c r="D9" s="39">
-        <v>5581700</v>
-      </c>
-      <c r="E9" s="39">
-        <v>264229951.96200001</v>
-      </c>
-      <c r="F9" s="39">
-        <v>0.6855</v>
-      </c>
-      <c r="G9" s="39">
-        <v>0.12609999999999999</v>
-      </c>
-      <c r="H9" s="39">
-        <v>276.22000000000003</v>
-      </c>
-      <c r="I9" s="39">
-        <v>277206051.96200001</v>
-      </c>
-      <c r="J9" s="39">
-        <v>957000</v>
-      </c>
-      <c r="K9" s="39">
-        <v>3908600</v>
-      </c>
-      <c r="L9" s="39">
-        <v>5951900</v>
-      </c>
-      <c r="M9" s="39">
-        <v>339800</v>
-      </c>
-      <c r="N9" s="39">
-        <v>28318400</v>
-      </c>
-      <c r="O9" s="39">
-        <v>1850700</v>
-      </c>
-      <c r="P9" s="39">
-        <v>16884700</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>17.515891701000587</v>
-      </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41">
-        <f>C9/C8 -1</f>
-        <v>0.59160521837776514</v>
-      </c>
-      <c r="T9" s="42">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="29">
+        <v>49489800</v>
+      </c>
+      <c r="C10" s="29">
+        <v>10649800</v>
+      </c>
+      <c r="D10" s="29">
+        <v>6244800</v>
+      </c>
+      <c r="E10" s="29">
+        <v>347613079.45599997</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.6391</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H10" s="29">
+        <v>365.84</v>
+      </c>
+      <c r="I10" s="29">
+        <v>361639879.45599997</v>
+      </c>
+      <c r="J10" s="29">
+        <v>950000</v>
+      </c>
+      <c r="K10" s="29">
+        <v>2211800</v>
+      </c>
+      <c r="L10" s="29">
+        <v>7127300</v>
+      </c>
+      <c r="M10" s="29">
+        <v>331600</v>
+      </c>
+      <c r="N10" s="29">
+        <v>28541400</v>
+      </c>
+      <c r="O10" s="29">
+        <v>1744100</v>
+      </c>
+      <c r="P10" s="29">
+        <v>16238600</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>21.493667068757539</v>
+      </c>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>6.3901536803928488E-2</v>
-      </c>
+        <v>0.18605220955096224</v>
+      </c>
+      <c r="T10" s="31">
+        <f t="shared" si="1"/>
+        <v>4.6714582850026054E-2</v>
+      </c>
+      <c r="U10" s="31">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="V10" s="31"/>
+      <c r="W10" s="32"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="39">
-        <v>49489800</v>
-      </c>
-      <c r="C10" s="39">
-        <v>10649800</v>
-      </c>
-      <c r="D10" s="39">
-        <v>6244800</v>
-      </c>
-      <c r="E10" s="39">
-        <v>347613079.45599997</v>
-      </c>
-      <c r="F10" s="39">
-        <v>0.6391</v>
-      </c>
-      <c r="G10" s="39">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="H10" s="39">
-        <v>365.84</v>
-      </c>
-      <c r="I10" s="39">
-        <v>361639879.45599997</v>
-      </c>
-      <c r="J10" s="39">
-        <v>950000</v>
-      </c>
-      <c r="K10" s="39">
-        <v>2211800</v>
-      </c>
-      <c r="L10" s="39">
-        <v>7127300</v>
-      </c>
-      <c r="M10" s="39">
-        <v>331600</v>
-      </c>
-      <c r="N10" s="39">
-        <v>28541400</v>
-      </c>
-      <c r="O10" s="39">
-        <v>1744100</v>
-      </c>
-      <c r="P10" s="39">
-        <v>16238600</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>21.493667068757539</v>
-      </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41">
-        <f>C10/C9 -1</f>
-        <v>0.18605220955096224</v>
-      </c>
-      <c r="T10" s="42">
-        <f t="shared" si="0"/>
-        <v>4.6714582850026054E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
         <v>2023</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="29">
         <v>64006300</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="29">
         <v>10771900</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="29">
         <v>5240400</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="29">
         <v>553370158.36899996</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="29">
         <v>0.60850000000000004</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="29">
         <v>0.1024</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="29">
         <v>582.91999999999996</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="29">
         <v>575667758.36899996</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="29">
         <v>949000</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="29">
         <v>2927700</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="29">
         <v>6457900</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="29">
         <v>485900</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="29">
         <v>34124100</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="29">
         <v>1549500</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="29">
         <v>25225300</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="29">
         <v>13.290594772586951</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="33">
         <f>8.5% + 21%</f>
         <v>0.29499999999999998</v>
       </c>
-      <c r="S11" s="41">
-        <f>C11/C10 -1</f>
+      <c r="S11" s="31">
+        <f t="shared" si="0"/>
         <v>1.1465004037634507E-2</v>
       </c>
-      <c r="T11" s="42">
-        <f t="shared" si="0"/>
+      <c r="T11" s="33">
+        <f t="shared" si="1"/>
         <v>4.5584857836116252E-2</v>
+      </c>
+      <c r="U11" s="31">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="V11" s="31">
+        <f>3.94%+U11</f>
+        <v>4.53E-2</v>
+      </c>
+      <c r="W11" s="62">
+        <f>R11*P11</f>
+        <v>7441463.5</v>
       </c>
     </row>
   </sheetData>
@@ -14074,564 +14402,762 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1201D640-FACA-47DD-A6E4-D0E6DE97DB38}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="45"/>
-    <col min="2" max="2" width="13.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="45"/>
-    <col min="5" max="5" width="8.88671875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="45"/>
-    <col min="7" max="7" width="34.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="45"/>
-    <col min="19" max="19" width="10.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="45"/>
+    <col min="1" max="1" width="8.88671875" style="35"/>
+    <col min="2" max="2" width="13.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="35"/>
+    <col min="5" max="5" width="8.88671875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="35"/>
+    <col min="7" max="7" width="34.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="8.88671875" style="35"/>
+    <col min="19" max="19" width="10.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="59" t="s">
+      <c r="D1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" cm="1">
+      <c r="A2" s="35" cm="1">
         <f t="array" ref="A2:A11">'JOHNSON &amp; JOHNSON'!T2:T11</f>
         <v>6.4092277574088155E-2</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O2/'JOHNSON &amp; JOHNSON'!N2</f>
         <v>5.2400748005542772E-2</v>
       </c>
-      <c r="C2" s="45" cm="1">
+      <c r="C2" s="35" cm="1">
         <f t="array" ref="C2:C10">'JOHNSON &amp; JOHNSON'!S3:S11</f>
         <v>2.0042436059181101E-2</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="56">
+      <c r="D2" s="35" cm="1">
+        <f t="array" ref="D2:D11">'JOHNSON &amp; JOHNSON'!P2:P11/'JOHNSON &amp; JOHNSON'!I2:I11</f>
+        <v>6.7391358466454318E-2</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="46">
         <f>AVERAGE(A2:A51)</f>
         <v>0.12584781207593759</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="K2" s="45">
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="K2" s="35">
         <f>'JOHNSON &amp; JOHNSON'!N3/'JOHNSON &amp; JOHNSON'!N2  - 1</f>
         <v>-5.7270856035839701E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+      <c r="A3" s="35">
         <v>6.9878855621977348E-2</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O3/'JOHNSON &amp; JOHNSON'!N3</f>
         <v>5.3457773211176757E-2</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="35">
         <v>-1.0288123682361205E-2</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="57" t="s">
+      <c r="D3" s="35">
+        <v>7.4748183658842712E-2</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="K3" s="45">
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="K3" s="35">
         <f>'JOHNSON &amp; JOHNSON'!N4/'JOHNSON &amp; JOHNSON'!N3  - 1</f>
         <v>2.5915460798584311E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+      <c r="A4" s="35">
         <v>8.6544961466626408E-2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O4/'JOHNSON &amp; JOHNSON'!N4</f>
         <v>5.2218667408540829E-2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="35">
         <v>-0.14567298133999829</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="56">
+      <c r="D4" s="35">
+        <v>9.0828285860904787E-2</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="46">
         <f>MEDIAN(A2:A51)</f>
         <v>0.12144276564971253</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="K4" s="45">
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="K4" s="35">
         <f>'JOHNSON &amp; JOHNSON'!N5/'JOHNSON &amp; JOHNSON'!N4  - 1</f>
         <v>6.3430240645430569E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="A5" s="35">
         <v>9.2127413963828939E-2</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O5/'JOHNSON &amp; JOHNSON'!N5</f>
         <v>7.3799869195552648E-2</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="35">
         <v>-6.7819148936170137E-3</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="K5" s="45">
+      <c r="D5" s="35">
+        <v>8.8296667508711985E-2</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="K5" s="35">
         <f>'JOHNSON &amp; JOHNSON'!N6/'JOHNSON &amp; JOHNSON'!N5  - 1</f>
         <v>6.7115761935905738E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45">
+      <c r="A6" s="35">
         <v>8.6622933945440614E-2</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O6/'JOHNSON &amp; JOHNSON'!N6</f>
         <v>8.493399198342752E-2</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="35">
         <v>-4.7027714553488087E-3</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="K6" s="45">
+      <c r="D6" s="35">
+        <v>8.412100265130848E-2</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="K6" s="35">
         <f>'JOHNSON &amp; JOHNSON'!N7/'JOHNSON &amp; JOHNSON'!N6  - 1</f>
         <v>5.8592074134908856E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="45">
+      <c r="A7" s="35">
         <v>7.2141680133365416E-2</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O7/'JOHNSON &amp; JOHNSON'!N7</f>
         <v>8.5414153231211695E-2</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="35">
         <v>6.4014393569975292E-2</v>
       </c>
-      <c r="K7" s="45">
+      <c r="D7" s="35">
+        <v>7.0595393792276015E-2</v>
+      </c>
+      <c r="K7" s="35">
         <f>'JOHNSON &amp; JOHNSON'!N8/'JOHNSON &amp; JOHNSON'!N7  - 1</f>
         <v>6.3978357035792133E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
+      <c r="A8" s="35">
         <v>8.5119924296995317E-2</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O8/'JOHNSON &amp; JOHNSON'!N8</f>
         <v>8.8394846459362589E-2</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="35">
         <v>0.16980625177786912</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="59" t="s">
+      <c r="D8" s="35">
+        <v>8.3097980363037227E-2</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="K8" s="45">
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="K8" s="35">
         <f>'JOHNSON &amp; JOHNSON'!N9/'JOHNSON &amp; JOHNSON'!N8  - 1</f>
         <v>-4.6546546546546552E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
+      <c r="A9" s="35">
         <v>7.4942537485751651E-2</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O9/'JOHNSON &amp; JOHNSON'!N9</f>
         <v>9.3853187706375407E-2</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="35">
         <v>3.75694041041299E-2</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="56">
+      <c r="D9" s="35">
+        <v>7.4587617337735293E-2</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="46">
         <f>AVERAGE(_xlfn.ANCHORARRAY(C2))</f>
         <v>2.1594275424247447E-3</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="K9" s="45">
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="K9" s="35">
         <f>'JOHNSON &amp; JOHNSON'!N10/'JOHNSON &amp; JOHNSON'!N9  - 1</f>
         <v>1.5875031750063551E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+      <c r="A10" s="35">
         <v>8.5870147642978331E-2</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O10/'JOHNSON &amp; JOHNSON'!N10</f>
         <v>8.7135891986498307E-2</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="35">
         <v>-0.1045518462580074</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="57" t="s">
+      <c r="D10" s="35">
+        <v>8.2970613145257735E-2</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="K10" s="45">
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="K10" s="35">
         <f>'JOHNSON &amp; JOHNSON'!N11/'JOHNSON &amp; JOHNSON'!N10  - 1</f>
         <v>6.4620577572196414E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
+      <c r="A11" s="35">
         <v>7.773837535128035E-2</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="35">
         <f>'JOHNSON &amp; JOHNSON'!O11/'JOHNSON &amp; JOHNSON'!N11</f>
         <v>8.3408682581993687E-2</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="56">
+      <c r="D11" s="35">
+        <v>7.6440783681797186E-2</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="46">
         <f>MEDIAN(_xlfn.ANCHORARRAY(C2))</f>
         <v>-4.7027714553488087E-3</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" cm="1">
+      <c r="A12" s="35" cm="1">
         <f t="array" ref="A12:A21" xml:space="preserve"> 'PFIZER INC'!T2:T11</f>
         <v>0.18689991577784967</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="57" t="s">
+      <c r="D12" s="35" cm="1">
+        <f t="array" ref="D12:D21">'ROCHE HOLDING AG'!P2:P11/'ROCHE HOLDING AG'!I2:I11</f>
+        <v>0.12627639855990955</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="45">
+      <c r="A13" s="35">
         <v>0.19521290032125391</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="58">
+      <c r="D13" s="35">
+        <v>0.11234466095804965</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="48">
         <f>('JOHNSON &amp; JOHNSON'!B11 / 'JOHNSON &amp; JOHNSON'!B2)^(1/10) - 1</f>
         <v>2.4825572786371986E-2</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
+      <c r="A14" s="35">
         <v>0.2135259425344388</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0.12734184797976697</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="45">
+      <c r="A15" s="35">
         <v>0.20144344317502844</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0.10574827455229649</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
+      <c r="A16" s="35">
         <v>0.16542634951795934</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="59" t="s">
+      <c r="D16" s="35">
+        <v>0.10625785940318917</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
+      <c r="A17" s="35">
         <v>0.24051442026690081</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="56">
+      <c r="D17" s="35">
+        <v>6.9466150511263702E-2</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="46">
         <f>AVERAGE(K2:K10)</f>
         <v>1.6155190359651603E-2</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
+      <c r="A18" s="35">
         <v>0.1946974932419159</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="57" t="s">
+      <c r="D18" s="35">
+        <v>6.9999131535661327E-2</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="45">
+      <c r="A19" s="35">
         <v>0.11596677197770668</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="56">
+      <c r="D19" s="35">
+        <v>0.11387769929773073</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="46">
         <f>MEDIAN(K2:K10)</f>
         <v>1.5875031750063551E-2</v>
       </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="35">
         <v>0.12456790886878939</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="57" t="s">
+      <c r="D20" s="35">
+        <v>0.12018175896407232</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="45">
+      <c r="A21" s="35">
         <v>0.44222374567794082</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="58">
+      <c r="D21" s="35">
+        <v>0.16029905535912797</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="48">
         <f>('JOHNSON &amp; JOHNSON'!N11 / 'JOHNSON &amp; JOHNSON'!N2) ^(1 / 10) - 1</f>
         <v>1.3692090244024291E-2</v>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="45" cm="1">
+      <c r="A22" s="35" cm="1">
         <f t="array" ref="A22:A31">'NOVARTIS AG'!T2:T11</f>
         <v>8.0575128891098302E-2</v>
       </c>
+      <c r="D22" s="35" cm="1">
+        <f t="array" ref="D22:D31">'NOVARTIS AG'!P2:P11/'NOVARTIS AG'!I2:I11</f>
+        <v>7.8447459327470562E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="45">
+      <c r="A23" s="35">
         <v>9.3508782761580478E-2</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="59" t="s">
+      <c r="D23" s="35">
+        <v>8.732097745012371E-2</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+      <c r="A24" s="35">
         <v>0.12361983972268509</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="56">
+      <c r="D24" s="35">
+        <v>0.11401612298645813</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="46">
         <f>AVERAGE(B2:B11)</f>
         <v>7.5501781176968222E-2</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="45">
+      <c r="A25" s="35">
         <v>0.12856818411971854</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="57" t="s">
+      <c r="D25" s="35">
+        <v>0.11840794121928611</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="45">
+      <c r="A26" s="35">
         <v>0.14741477711122725</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="56">
+      <c r="D26" s="35">
+        <v>0.13717128141401569</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="46">
         <f>MEDIAN(B2:B11)</f>
         <v>8.4171337282710604E-2</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="45">
+      <c r="A27" s="35">
         <v>0.12150346930271523</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
+      <c r="D27" s="35">
+        <v>0.11310897443427607</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="45">
+      <c r="A28" s="35">
         <v>0.16164114128332377</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
+      <c r="D28" s="35">
+        <v>0.14523718592576942</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="45">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="35">
         <v>0.14488945988623</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0.14301864519450544</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="45">
+      <c r="A30" s="35">
         <v>0.12824049478859698</v>
       </c>
+      <c r="D30" s="35">
+        <v>0.12304841316809498</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="45">
+      <c r="A31" s="35">
         <v>0.11451026466998719</v>
       </c>
+      <c r="D31" s="35">
+        <v>0.10871076134474007</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="46">
+        <f>AVERAGE(D2:D46)</f>
+        <v>0.1203840648667111</v>
+      </c>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" cm="1">
+      <c r="A32" s="35" cm="1">
         <f t="array" ref="A32:A41">'NOVARTIS AG'!T2:T11</f>
         <v>8.0575128891098302E-2</v>
       </c>
+      <c r="D32" s="35" cm="1">
+        <f t="array" ref="D32:D41">'PFIZER INC'!P2:P11/'PFIZER INC'!I2:I11</f>
+        <v>0.18636815557271041</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="35">
         <v>9.3508782761580478E-2</v>
       </c>
+      <c r="D33" s="35">
+        <v>0.18103209984088545</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="46">
+        <f>MEDIAN(D2:D51)</f>
+        <v>0.11124296168790571</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="35">
         <v>0.12361983972268509</v>
       </c>
+      <c r="D34" s="35">
+        <v>0.19014515169260268</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="35">
         <v>0.12856818411971854</v>
       </c>
+      <c r="D35" s="35">
+        <v>0.1816698341265148</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="35">
         <v>0.14741477711122725</v>
       </c>
+      <c r="D36" s="35">
+        <v>0.15165788666573429</v>
+      </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="35">
         <v>0.12150346930271523</v>
       </c>
+      <c r="D37" s="35">
+        <v>0.20109441945595102</v>
+      </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="35">
         <v>0.16164114128332377</v>
       </c>
+      <c r="D38" s="35">
+        <v>0.17154453113184001</v>
+      </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="35">
         <v>0.14488945988623</v>
       </c>
+      <c r="D39" s="35">
+        <v>0.11344519540412487</v>
+      </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="35">
         <v>0.12824049478859698</v>
       </c>
+      <c r="D40" s="35">
+        <v>0.11914276823149215</v>
+      </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="35">
         <v>0.11451026466998719</v>
       </c>
+      <c r="D41" s="35">
+        <v>0.32417284112332706</v>
+      </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45" cm="1">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" cm="1">
         <f t="array" ref="A42:A51">'ELI LILLY AND COMPANY'!T2:T11</f>
         <v>0.10442551098163294</v>
       </c>
+      <c r="D42" s="35" cm="1">
+        <f t="array" ref="D42:D51">'ELI LILLY AND COMPANY'!P2:P11/'ELI LILLY AND COMPANY'!I2:I11</f>
+        <v>0.10025619203971817</v>
+      </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="35">
         <v>8.5453532396543713E-2</v>
       </c>
+      <c r="D43" s="35">
+        <v>8.234321225052664E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="35">
         <v>0.12691852675956325</v>
       </c>
+      <c r="D44" s="35">
+        <v>0.12058225316880511</v>
+      </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="35">
         <v>0.14674544344026691</v>
       </c>
+      <c r="D45" s="35">
+        <v>0.13839263953317557</v>
+      </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="35">
         <v>8.4012065920098564E-2</v>
       </c>
+      <c r="D46" s="35">
+        <v>8.2077252712459345E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="35">
         <v>0.12138206199670983</v>
       </c>
+      <c r="D47" s="35">
+        <v>0.11014126241776175</v>
+      </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="35">
         <v>0.10275140089555157</v>
       </c>
+      <c r="D48" s="35">
+        <v>9.51438616674571E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="35">
         <v>6.3901536803928488E-2</v>
       </c>
+      <c r="D49" s="35">
+        <v>6.0910286339327796E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="35">
         <v>4.6714582850026054E-2</v>
       </c>
+      <c r="D50" s="35">
+        <v>4.4902680601561586E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="35">
         <v>4.5584857836116252E-2</v>
+      </c>
+      <c r="D51" s="35">
+        <v>4.3819198892550655E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14649,7 +15175,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="45"/>
+    <col min="1" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FinancialManagement/Pharma_Data.xlsx
+++ b/FinancialManagement/Pharma_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3863360b7313d4a6/Documentos/GitHub/UC3M_Projects/FinancialManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1306" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A87E0C-C66C-4FEE-8C5A-E96DBC1DC92C}"/>
+  <xr:revisionPtr revIDLastSave="1337" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{892C9AA0-8682-4834-915C-6CBF97F379CE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search strategy" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="V11" authorId="1" shapeId="0" xr:uid="{446BE28C-59F2-4B47-B53E-DA33B790B7A3}">
+    <comment ref="W11" authorId="1" shapeId="0" xr:uid="{446BE28C-59F2-4B47-B53E-DA33B790B7A3}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="219">
   <si>
     <t>Product name</t>
   </si>
@@ -1131,9 +1131,6 @@
     <t>D/V</t>
   </si>
   <si>
-    <t>La media del ratio D / V fue:</t>
-  </si>
-  <si>
     <t>rd</t>
   </si>
   <si>
@@ -1141,6 +1138,9 @@
   </si>
   <si>
     <t>TS</t>
+  </si>
+  <si>
+    <t>La media del ratio D/V del sector fue:</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1211,12 +1211,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1595,6 +1589,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1617,7 +1612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2897,39 +2891,39 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'ROCHE HOLDING AG'!$L$2:$L$11</c:f>
+              <c:f>'PFIZER INC'!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14245272.7067471</c:v>
+                  <c:v>12726000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13931055.8230877</c:v>
+                  <c:v>10329000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13847441.0505295</c:v>
+                  <c:v>9004000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13332307.954073001</c:v>
+                  <c:v>12989000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14998476.864337901</c:v>
+                  <c:v>4062000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18124353.956699401</c:v>
+                  <c:v>12331000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21042896.235466</c:v>
+                  <c:v>7534000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19891531.4739943</c:v>
+                  <c:v>23486000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18928784.081935901</c:v>
+                  <c:v>36237000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18326290.6527519</c:v>
+                  <c:v>-929000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4276,6 +4270,652 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>D/E de las compañías</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>J&amp;J</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ROCHE HOLDING AG'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JOHNSON &amp; JOHNSON'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.4092277574088155E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9878855621977348E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6544961466626408E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2127413963828939E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6622933945440614E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2141680133365416E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5119924296995317E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4942537485751651E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5870147642978331E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.773837535128035E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B841-41E7-A077-53B576595F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Roche</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ROCHE HOLDING AG'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13560686503433594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11973428310493527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13679803642017296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10948038616311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10976367034938629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0633131849521247E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0988377845519354E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12221901988273991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13005742259858386</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>0.17919788584171276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B841-41E7-A077-53B576595F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pfizer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PFIZER INC'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18689991577784967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19521290032125391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2135259425344388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20144344317502844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16542634951795934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24051442026690081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1946974932419159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11596677197770668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12456790886878939</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>0.44222374567794082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B841-41E7-A077-53B576595F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Novartis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'NOVARTIS AG'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.0575128891098302E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3508782761580478E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12361983972268509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12856818411971854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14741477711122725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12150346930271523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16164114128332377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14488945988623</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12824049478859698</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>0.11451026466998719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B841-41E7-A077-53B576595F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Eli Lilly</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ELI LILLY AND COMPANY'!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.10442551098163294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5453532396543713E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12691852675956325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14674544344026691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4012065920098564E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12138206199670983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10275140089555157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3901536803928488E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6714582850026054E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>4.5584857836116252E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B841-41E7-A077-53B576595F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="580336639"/>
+        <c:axId val="580340479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="580336639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580340479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580340479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580336639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12805489938757658"/>
+          <c:y val="0.14285724701079031"/>
+          <c:w val="0.1663895450568679"/>
+          <c:h val="0.39062773403324585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4476,6 +5116,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6638,6 +7318,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7178,6 +8374,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73A6FCE-9CB5-6D4A-7CA1-3795FB7D9817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7530,7 +8762,7 @@
     <text xml:space="preserve">7,25% del Estad de Nueva York y 21% federal
 </text>
   </threadedComment>
-  <threadedComment ref="V11" dT="2024-04-19T15:33:46.19" personId="{743F5DB6-1958-42C6-BD5F-77B09807DC6D}" id="{446BE28C-59F2-4B47-B53E-DA33B790B7A3}">
+  <threadedComment ref="W11" dT="2024-04-19T15:33:46.19" personId="{743F5DB6-1958-42C6-BD5F-77B09807DC6D}" id="{446BE28C-59F2-4B47-B53E-DA33B790B7A3}">
     <text xml:space="preserve">Se usó el spread del año anterior porque si se cogía el EBIT de ese año y los intereses nuevos, el ICR seguía siendo &gt; 8 </text>
   </threadedComment>
 </ThreadedComments>
@@ -7572,86 +8804,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="60"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="60"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="60"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="60"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="60"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="60"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="61"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="60"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="61"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -7663,10 +8895,10 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -7678,10 +8910,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
@@ -7693,10 +8925,10 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
@@ -7708,10 +8940,10 @@
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
@@ -7723,10 +8955,10 @@
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
@@ -7735,17 +8967,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
@@ -7754,22 +8986,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -10466,8 +11698,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10557,13 +11789,13 @@
         <v>213</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W1" s="26" t="s">
         <v>214</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -10629,7 +11861,7 @@
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31">
-        <f>P2/I2</f>
+        <f t="shared" ref="W2:W11" si="0">P2/I2</f>
         <v>6.7391358466454318E-2</v>
       </c>
       <c r="X2" s="32"/>
@@ -10692,13 +11924,13 @@
         <v>2.0042436059181101E-2</v>
       </c>
       <c r="T3" s="31">
-        <f t="shared" ref="T3:T11" si="0">P3/E3</f>
+        <f t="shared" ref="T3:T11" si="1">P3/E3</f>
         <v>6.9878855621977348E-2</v>
       </c>
       <c r="U3" s="31"/>
       <c r="V3" s="31"/>
       <c r="W3" s="31">
-        <f>P3/I3</f>
+        <f t="shared" si="0"/>
         <v>7.4748183658842712E-2</v>
       </c>
       <c r="X3" s="32"/>
@@ -10758,17 +11990,17 @@
       </c>
       <c r="R4" s="31"/>
       <c r="S4" s="31">
-        <f t="shared" ref="S4:S11" si="1">C4/C3 - 1</f>
+        <f t="shared" ref="S4:S11" si="2">C4/C3 - 1</f>
         <v>-1.0288123682361205E-2</v>
       </c>
       <c r="T4" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6544961466626408E-2</v>
       </c>
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
       <c r="W4" s="31">
-        <f>P4/I4</f>
+        <f t="shared" si="0"/>
         <v>9.0828285860904787E-2</v>
       </c>
       <c r="X4" s="32"/>
@@ -10827,17 +12059,17 @@
       </c>
       <c r="R5" s="31"/>
       <c r="S5" s="31">
+        <f t="shared" si="2"/>
+        <v>-0.14567298133999829</v>
+      </c>
+      <c r="T5" s="31">
         <f t="shared" si="1"/>
-        <v>-0.14567298133999829</v>
-      </c>
-      <c r="T5" s="31">
-        <f t="shared" si="0"/>
         <v>9.2127413963828939E-2</v>
       </c>
       <c r="U5" s="31"/>
       <c r="V5" s="31"/>
       <c r="W5" s="31">
-        <f>P5/I5</f>
+        <f t="shared" si="0"/>
         <v>8.8296667508711985E-2</v>
       </c>
       <c r="X5" s="32"/>
@@ -10896,17 +12128,17 @@
       </c>
       <c r="R6" s="31"/>
       <c r="S6" s="31">
+        <f t="shared" si="2"/>
+        <v>-6.7819148936170137E-3</v>
+      </c>
+      <c r="T6" s="31">
         <f t="shared" si="1"/>
-        <v>-6.7819148936170137E-3</v>
-      </c>
-      <c r="T6" s="31">
-        <f t="shared" si="0"/>
         <v>8.6622933945440614E-2</v>
       </c>
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
       <c r="W6" s="31">
-        <f>P6/I6</f>
+        <f t="shared" si="0"/>
         <v>8.412100265130848E-2</v>
       </c>
       <c r="X6" s="32"/>
@@ -10965,11 +12197,11 @@
       </c>
       <c r="R7" s="31"/>
       <c r="S7" s="31">
+        <f t="shared" si="2"/>
+        <v>-4.7027714553488087E-3</v>
+      </c>
+      <c r="T7" s="31">
         <f t="shared" si="1"/>
-        <v>-4.7027714553488087E-3</v>
-      </c>
-      <c r="T7" s="31">
-        <f t="shared" si="0"/>
         <v>7.2141680133365416E-2</v>
       </c>
       <c r="U7" s="31">
@@ -10977,7 +12209,7 @@
       </c>
       <c r="V7" s="31"/>
       <c r="W7" s="31">
-        <f>P7/I7</f>
+        <f t="shared" si="0"/>
         <v>7.0595393792276015E-2</v>
       </c>
       <c r="X7" s="32"/>
@@ -11036,11 +12268,11 @@
       </c>
       <c r="R8" s="31"/>
       <c r="S8" s="31">
+        <f t="shared" si="2"/>
+        <v>6.4014393569975292E-2</v>
+      </c>
+      <c r="T8" s="31">
         <f t="shared" si="1"/>
-        <v>6.4014393569975292E-2</v>
-      </c>
-      <c r="T8" s="31">
-        <f t="shared" si="0"/>
         <v>8.5119924296995317E-2</v>
       </c>
       <c r="U8" s="31">
@@ -11048,7 +12280,7 @@
       </c>
       <c r="V8" s="31"/>
       <c r="W8" s="31">
-        <f>P8/I8</f>
+        <f t="shared" si="0"/>
         <v>8.3097980363037227E-2</v>
       </c>
       <c r="X8" s="32"/>
@@ -11107,11 +12339,11 @@
       </c>
       <c r="R9" s="31"/>
       <c r="S9" s="31">
+        <f t="shared" si="2"/>
+        <v>0.16980625177786912</v>
+      </c>
+      <c r="T9" s="31">
         <f t="shared" si="1"/>
-        <v>0.16980625177786912</v>
-      </c>
-      <c r="T9" s="31">
-        <f t="shared" si="0"/>
         <v>7.4942537485751651E-2</v>
       </c>
       <c r="U9" s="31">
@@ -11119,7 +12351,7 @@
       </c>
       <c r="V9" s="31"/>
       <c r="W9" s="31">
-        <f>P9/I9</f>
+        <f t="shared" si="0"/>
         <v>7.4587617337735293E-2</v>
       </c>
       <c r="X9" s="32"/>
@@ -11179,11 +12411,11 @@
       </c>
       <c r="R10" s="31"/>
       <c r="S10" s="31">
+        <f t="shared" si="2"/>
+        <v>3.75694041041299E-2</v>
+      </c>
+      <c r="T10" s="31">
         <f t="shared" si="1"/>
-        <v>3.75694041041299E-2</v>
-      </c>
-      <c r="T10" s="31">
-        <f t="shared" si="0"/>
         <v>8.5870147642978331E-2</v>
       </c>
       <c r="U10" s="31">
@@ -11191,7 +12423,7 @@
       </c>
       <c r="V10" s="31"/>
       <c r="W10" s="31">
-        <f>P10/I10</f>
+        <f t="shared" si="0"/>
         <v>8.2970613145257735E-2</v>
       </c>
       <c r="X10" s="32"/>
@@ -11253,11 +12485,11 @@
         <v>0.3</v>
       </c>
       <c r="S11" s="31">
+        <f t="shared" si="2"/>
+        <v>-0.1045518462580074</v>
+      </c>
+      <c r="T11" s="31">
         <f t="shared" si="1"/>
-        <v>-0.1045518462580074</v>
-      </c>
-      <c r="T11" s="31">
-        <f t="shared" si="0"/>
         <v>7.773837535128035E-2</v>
       </c>
       <c r="U11" s="31">
@@ -11268,10 +12500,10 @@
         <v>4.53E-2</v>
       </c>
       <c r="W11" s="31">
-        <f>P11/I11</f>
+        <f t="shared" si="0"/>
         <v>7.6440783681797186E-2</v>
       </c>
-      <c r="X11" s="62">
+      <c r="X11" s="52">
         <f>R11*P11</f>
         <v>8799600</v>
       </c>
@@ -11316,10 +12548,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D143F43-DDA8-48B7-AA53-77749AB56B8E}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11337,7 +12569,7 @@
     <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
@@ -11399,16 +12631,19 @@
         <v>202</v>
       </c>
       <c r="U1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X1" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="V1" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="27" t="s">
-        <v>218</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>2014</v>
       </c>
@@ -11469,10 +12704,14 @@
         <v>0.13560686503433594</v>
       </c>
       <c r="U2" s="34"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32"/>
+      <c r="V2" s="34">
+        <f>P2/I2</f>
+        <v>0.12627639855990955</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="32"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2015</v>
       </c>
@@ -11534,10 +12773,14 @@
         <v>0.11973428310493527</v>
       </c>
       <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="32"/>
+      <c r="V3" s="34">
+        <f t="shared" ref="V3:V11" si="2">P3/I3</f>
+        <v>0.11234466095804965</v>
+      </c>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2016</v>
       </c>
@@ -11599,10 +12842,14 @@
         <v>0.13679803642017296</v>
       </c>
       <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
+      <c r="V4" s="34">
+        <f t="shared" si="2"/>
+        <v>0.12734184797976697</v>
+      </c>
+      <c r="W4" s="31"/>
+      <c r="X4" s="32"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2017</v>
       </c>
@@ -11664,10 +12911,14 @@
         <v>0.10948038616311</v>
       </c>
       <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
+      <c r="V5" s="34">
+        <f t="shared" si="2"/>
+        <v>0.10574827455229649</v>
+      </c>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>2018</v>
       </c>
@@ -11729,10 +12980,14 @@
         <v>0.10976367034938629</v>
       </c>
       <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
+      <c r="V6" s="34">
+        <f t="shared" si="2"/>
+        <v>0.10625785940318917</v>
+      </c>
+      <c r="W6" s="31"/>
+      <c r="X6" s="32"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>2019</v>
       </c>
@@ -11796,10 +13051,14 @@
       <c r="U7" s="31">
         <v>6.3E-3</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="V7" s="34">
+        <f t="shared" si="2"/>
+        <v>6.9466150511263702E-2</v>
+      </c>
+      <c r="W7" s="31"/>
+      <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>2020</v>
       </c>
@@ -11863,10 +13122,14 @@
       <c r="U8" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
+      <c r="V8" s="34">
+        <f t="shared" si="2"/>
+        <v>6.9999131535661327E-2</v>
+      </c>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2021</v>
       </c>
@@ -11930,10 +13193,14 @@
       <c r="U9" s="31">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
+      <c r="V9" s="34">
+        <f t="shared" si="2"/>
+        <v>0.11387769929773073</v>
+      </c>
+      <c r="W9" s="31"/>
+      <c r="X9" s="32"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>2022</v>
       </c>
@@ -11997,10 +13264,14 @@
       <c r="U10" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="V10" s="31"/>
-      <c r="W10" s="32"/>
+      <c r="V10" s="34">
+        <f t="shared" si="2"/>
+        <v>0.12018175896407232</v>
+      </c>
+      <c r="W10" s="31"/>
+      <c r="X10" s="32"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>2023</v>
       </c>
@@ -12066,11 +13337,15 @@
       <c r="U11" s="31">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="34">
+        <f t="shared" si="2"/>
+        <v>0.16029905535912797</v>
+      </c>
+      <c r="W11" s="31">
         <f>0.7%+U11</f>
         <v>1.2899999999999998E-2</v>
       </c>
-      <c r="W11" s="62">
+      <c r="X11" s="52">
         <f>R11*P11</f>
         <v>5496458.7093829345</v>
       </c>
@@ -12084,17 +13359,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B231A4-BC20-493A-9F2E-2632555001BB}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
@@ -12108,7 +13384,7 @@
     <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
@@ -12170,16 +13446,19 @@
         <v>202</v>
       </c>
       <c r="U1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X1" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="V1" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="27" t="s">
-        <v>218</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>2014</v>
       </c>
@@ -12240,10 +13519,14 @@
         <v>0.18689991577784967</v>
       </c>
       <c r="U2" s="34"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32"/>
+      <c r="V2" s="34">
+        <f>P2/I2</f>
+        <v>0.18636815557271041</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="32"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2015</v>
       </c>
@@ -12305,10 +13588,14 @@
         <v>0.19521290032125391</v>
       </c>
       <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="32"/>
+      <c r="V3" s="34">
+        <f t="shared" ref="V3:V11" si="2">P3/I3</f>
+        <v>0.18103209984088545</v>
+      </c>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2016</v>
       </c>
@@ -12370,10 +13657,14 @@
         <v>0.2135259425344388</v>
       </c>
       <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
+      <c r="V4" s="34">
+        <f t="shared" si="2"/>
+        <v>0.19014515169260268</v>
+      </c>
+      <c r="W4" s="31"/>
+      <c r="X4" s="32"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2017</v>
       </c>
@@ -12435,10 +13726,14 @@
         <v>0.20144344317502844</v>
       </c>
       <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
+      <c r="V5" s="34">
+        <f t="shared" si="2"/>
+        <v>0.1816698341265148</v>
+      </c>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>2018</v>
       </c>
@@ -12500,10 +13795,14 @@
         <v>0.16542634951795934</v>
       </c>
       <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
+      <c r="V6" s="34">
+        <f t="shared" si="2"/>
+        <v>0.15165788666573429</v>
+      </c>
+      <c r="W6" s="31"/>
+      <c r="X6" s="32"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>2019</v>
       </c>
@@ -12567,10 +13866,14 @@
       <c r="U7" s="51">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="V7" s="34">
+        <f t="shared" si="2"/>
+        <v>0.20109441945595102</v>
+      </c>
+      <c r="W7" s="31"/>
+      <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>2020</v>
       </c>
@@ -12634,10 +13937,14 @@
       <c r="U8" s="51">
         <v>1.18E-2</v>
       </c>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
+      <c r="V8" s="34">
+        <f t="shared" si="2"/>
+        <v>0.17154453113184001</v>
+      </c>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2021</v>
       </c>
@@ -12701,10 +14008,14 @@
       <c r="U9" s="51">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
+      <c r="V9" s="34">
+        <f t="shared" si="2"/>
+        <v>0.11344519540412487</v>
+      </c>
+      <c r="W9" s="31"/>
+      <c r="X9" s="32"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>2022</v>
       </c>
@@ -12768,10 +14079,14 @@
       <c r="U10" s="51">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="V10" s="31"/>
-      <c r="W10" s="32"/>
+      <c r="V10" s="34">
+        <f t="shared" si="2"/>
+        <v>0.11914276823149215</v>
+      </c>
+      <c r="W10" s="31"/>
+      <c r="X10" s="32"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>2023</v>
       </c>
@@ -12838,11 +14153,15 @@
       <c r="U11" s="51">
         <v>0.2</v>
       </c>
-      <c r="V11" s="51">
+      <c r="V11" s="34">
+        <f t="shared" si="2"/>
+        <v>0.32417284112332706</v>
+      </c>
+      <c r="W11" s="51">
         <f>0.69 %+ 3.94%</f>
         <v>4.6299999999999994E-2</v>
       </c>
-      <c r="W11" s="62">
+      <c r="X11" s="52">
         <f>R11*P11</f>
         <v>20308359.999999996</v>
       </c>
@@ -12856,10 +14175,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE62E8B-B252-4389-A5F4-D2A4703DD146}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="V2" sqref="V2:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12881,7 +14200,7 @@
     <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
@@ -12943,16 +14262,19 @@
         <v>202</v>
       </c>
       <c r="U1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X1" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="V1" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="27" t="s">
-        <v>218</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>2014</v>
       </c>
@@ -13013,10 +14335,14 @@
         <v>8.0575128891098302E-2</v>
       </c>
       <c r="U2" s="34"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32"/>
+      <c r="V2" s="34">
+        <f>P2/I2</f>
+        <v>7.8447459327470562E-2</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="32"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2015</v>
       </c>
@@ -13078,10 +14404,14 @@
         <v>9.3508782761580478E-2</v>
       </c>
       <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="32"/>
+      <c r="V3" s="34">
+        <f t="shared" ref="V3:V11" si="2">P3/I3</f>
+        <v>8.732097745012371E-2</v>
+      </c>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2016</v>
       </c>
@@ -13143,10 +14473,14 @@
         <v>0.12361983972268509</v>
       </c>
       <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
+      <c r="V4" s="34">
+        <f t="shared" si="2"/>
+        <v>0.11401612298645813</v>
+      </c>
+      <c r="W4" s="31"/>
+      <c r="X4" s="32"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2017</v>
       </c>
@@ -13208,10 +14542,14 @@
         <v>0.12856818411971854</v>
       </c>
       <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
+      <c r="V5" s="34">
+        <f t="shared" si="2"/>
+        <v>0.11840794121928611</v>
+      </c>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>2018</v>
       </c>
@@ -13273,10 +14611,14 @@
         <v>0.14741477711122725</v>
       </c>
       <c r="U6" s="32"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
+      <c r="V6" s="34">
+        <f t="shared" si="2"/>
+        <v>0.13717128141401569</v>
+      </c>
+      <c r="W6" s="31"/>
+      <c r="X6" s="32"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>2019</v>
       </c>
@@ -13340,10 +14682,14 @@
       <c r="U7" s="31">
         <v>6.3E-3</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="V7" s="34">
+        <f t="shared" si="2"/>
+        <v>0.11310897443427607</v>
+      </c>
+      <c r="W7" s="31"/>
+      <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>2020</v>
       </c>
@@ -13407,10 +14753,14 @@
       <c r="U8" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
+      <c r="V8" s="34">
+        <f t="shared" si="2"/>
+        <v>0.14523718592576942</v>
+      </c>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2021</v>
       </c>
@@ -13474,10 +14824,14 @@
       <c r="U9" s="31">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
+      <c r="V9" s="34">
+        <f t="shared" si="2"/>
+        <v>0.14301864519450544</v>
+      </c>
+      <c r="W9" s="31"/>
+      <c r="X9" s="32"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>2022</v>
       </c>
@@ -13541,10 +14895,14 @@
       <c r="U10" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="V10" s="31"/>
-      <c r="W10" s="32"/>
+      <c r="V10" s="34">
+        <f t="shared" si="2"/>
+        <v>0.12304841316809498</v>
+      </c>
+      <c r="W10" s="31"/>
+      <c r="X10" s="32"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>2023</v>
       </c>
@@ -13610,11 +14968,15 @@
       <c r="U11" s="31">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="34">
+        <f t="shared" si="2"/>
+        <v>0.10871076134474007</v>
+      </c>
+      <c r="W11" s="31">
         <f>U11+0.7%</f>
         <v>1.2899999999999998E-2</v>
       </c>
-      <c r="W11" s="62">
+      <c r="X11" s="52">
         <f>R11*P11</f>
         <v>3952200</v>
       </c>
@@ -13628,10 +14990,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80605593-FA81-460E-B498-6BBA7B2DB4BD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13653,7 +15015,7 @@
     <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
@@ -13715,16 +15077,19 @@
         <v>202</v>
       </c>
       <c r="U1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X1" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="V1" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="27" t="s">
-        <v>218</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>2014</v>
       </c>
@@ -13785,10 +15150,14 @@
         <v>0.10442551098163294</v>
       </c>
       <c r="U2" s="34"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32"/>
+      <c r="V2" s="34">
+        <f>P2/I2</f>
+        <v>0.10025619203971817</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="32"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2015</v>
       </c>
@@ -13850,10 +15219,14 @@
         <v>8.5453532396543713E-2</v>
       </c>
       <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="32"/>
+      <c r="V3" s="34">
+        <f t="shared" ref="V3:V11" si="2">P3/I3</f>
+        <v>8.234321225052664E-2</v>
+      </c>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2016</v>
       </c>
@@ -13915,10 +15288,14 @@
         <v>0.12691852675956325</v>
       </c>
       <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
+      <c r="V4" s="34">
+        <f t="shared" si="2"/>
+        <v>0.12058225316880511</v>
+      </c>
+      <c r="W4" s="31"/>
+      <c r="X4" s="32"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2017</v>
       </c>
@@ -13980,10 +15357,14 @@
         <v>0.14674544344026691</v>
       </c>
       <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
+      <c r="V5" s="34">
+        <f t="shared" si="2"/>
+        <v>0.13839263953317557</v>
+      </c>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>2018</v>
       </c>
@@ -14045,10 +15426,14 @@
         <v>8.4012065920098564E-2</v>
       </c>
       <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
+      <c r="V6" s="34">
+        <f t="shared" si="2"/>
+        <v>8.2077252712459345E-2</v>
+      </c>
+      <c r="W6" s="31"/>
+      <c r="X6" s="32"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>2019</v>
       </c>
@@ -14112,10 +15497,14 @@
       <c r="U7" s="31">
         <v>6.3E-3</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="V7" s="34">
+        <f t="shared" si="2"/>
+        <v>0.11014126241776175</v>
+      </c>
+      <c r="W7" s="31"/>
+      <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>2020</v>
       </c>
@@ -14179,10 +15568,14 @@
       <c r="U8" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
+      <c r="V8" s="34">
+        <f t="shared" si="2"/>
+        <v>9.51438616674571E-2</v>
+      </c>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2021</v>
       </c>
@@ -14246,10 +15639,14 @@
       <c r="U9" s="31">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
+      <c r="V9" s="34">
+        <f t="shared" si="2"/>
+        <v>6.0910286339327796E-2</v>
+      </c>
+      <c r="W9" s="31"/>
+      <c r="X9" s="32"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>2022</v>
       </c>
@@ -14313,10 +15710,14 @@
       <c r="U10" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="V10" s="31"/>
-      <c r="W10" s="32"/>
+      <c r="V10" s="34">
+        <f t="shared" si="2"/>
+        <v>4.4902680601561586E-2</v>
+      </c>
+      <c r="W10" s="31"/>
+      <c r="X10" s="32"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>2023</v>
       </c>
@@ -14383,11 +15784,15 @@
       <c r="U11" s="31">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="34">
+        <f t="shared" si="2"/>
+        <v>4.3819198892550655E-2</v>
+      </c>
+      <c r="W11" s="31">
         <f>3.94%+U11</f>
         <v>4.53E-2</v>
       </c>
-      <c r="W11" s="62">
+      <c r="X11" s="52">
         <f>R11*P11</f>
         <v>7441463.5</v>
       </c>
@@ -14402,8 +15807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1201D640-FACA-47DD-A6E4-D0E6DE97DB38}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14950,7 +16355,7 @@
       <c r="E30" s="45"/>
       <c r="F30" s="37"/>
       <c r="G30" s="49" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="38"/>
@@ -15169,8 +16574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F4CA64-9DF2-4FC1-BEFD-FEA468E129B0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FinancialManagement/Pharma_Data.xlsx
+++ b/FinancialManagement/Pharma_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3863360b7313d4a6/Documentos/GitHub/UC3M_Projects/FinancialManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1337" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{892C9AA0-8682-4834-915C-6CBF97F379CE}"/>
+  <xr:revisionPtr revIDLastSave="1515" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592CD358-309C-461B-AF36-CA95B8990B93}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search strategy" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}</author>
   </authors>
   <commentList>
-    <comment ref="R11" authorId="0" shapeId="0" xr:uid="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
+    <comment ref="V11" authorId="0" shapeId="0" xr:uid="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="222">
   <si>
     <t>Product name</t>
   </si>
@@ -1104,27 +1104,12 @@
     <t>La media del crecimiento de BVE de J&amp;J ha sido:</t>
   </si>
   <si>
-    <t>g_ventas</t>
-  </si>
-  <si>
-    <t>La media del crecimiento de las ventas de J&amp;J ha sido:</t>
-  </si>
-  <si>
     <t>La mediana fue:</t>
   </si>
   <si>
-    <t>La media compuesta ha sido:</t>
-  </si>
-  <si>
     <t>La media del ratio D/E del sector fue:</t>
   </si>
   <si>
-    <t>D&amp;A / Ventas</t>
-  </si>
-  <si>
-    <t>La media del ratio D&amp;A / Ventas de J&amp;J fue:</t>
-  </si>
-  <si>
     <t>Spread</t>
   </si>
   <si>
@@ -1141,6 +1126,30 @@
   </si>
   <si>
     <t>La media del ratio D/V del sector fue:</t>
+  </si>
+  <si>
+    <t>D&amp;A/Ventas</t>
+  </si>
+  <si>
+    <t>Media 5 últimos años:</t>
+  </si>
+  <si>
+    <t>Crec.Ventas</t>
+  </si>
+  <si>
+    <t>EBIT/Ventas</t>
+  </si>
+  <si>
+    <t>Aftertax EBIT</t>
+  </si>
+  <si>
+    <t>NWC</t>
+  </si>
+  <si>
+    <t>Change in NWC</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,6 +1276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,7 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1590,11 +1605,19 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1604,14 +1627,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1778,7 +1796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JOHNSON &amp; JOHNSON'!$N$2:$N$11</c:f>
+              <c:f>'JOHNSON &amp; JOHNSON'!$R$2:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1839,7 +1857,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'JOHNSON &amp; JOHNSON'!$L$2:$L$11</c:f>
+              <c:f>'JOHNSON &amp; JOHNSON'!$O$2:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4404,7 +4422,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JOHNSON &amp; JOHNSON'!$T$2:$T$11</c:f>
+              <c:f>'JOHNSON &amp; JOHNSON'!$X$2:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8742,7 +8760,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="R11" dT="2024-04-16T20:44:33.13" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
+  <threadedComment ref="V11" dT="2024-04-16T20:44:33.13" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
     <text>9% del Estado de Nueva Jersey y 21% federal de EEUU</text>
   </threadedComment>
 </ThreadedComments>
@@ -8804,86 +8822,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="61"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="61"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="61"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="60" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="61"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -8895,10 +8913,10 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -8910,10 +8928,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
@@ -8925,10 +8943,10 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
@@ -8940,10 +8958,10 @@
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
@@ -8955,10 +8973,10 @@
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
@@ -8967,17 +8985,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
@@ -8986,42 +9004,25 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="B11:C11"/>
@@ -9029,6 +9030,23 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11696,10 +11714,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03140F42-7C75-4C7D-9199-1DB0B1072644}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11712,19 +11730,28 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
@@ -11759,46 +11786,67 @@
         <v>181</v>
       </c>
       <c r="L1" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="P1" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="U1" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="W1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="X1" s="27" t="s">
-        <v>217</v>
+      <c r="AE1" s="27" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>2014</v>
       </c>
@@ -11832,41 +11880,54 @@
       <c r="K2" s="29">
         <v>33089000</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29">
         <v>21034000</v>
       </c>
-      <c r="M2" s="29">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29">
         <v>533000</v>
       </c>
-      <c r="N2" s="29">
+      <c r="R2" s="29">
         <v>74331000</v>
       </c>
-      <c r="O2" s="29">
+      <c r="S2" s="29">
         <v>3895000</v>
       </c>
-      <c r="P2" s="29">
+      <c r="T2" s="29">
         <v>18760000</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="U2" s="29">
         <v>39.463414634146339</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31" t="s">
+      <c r="V2" s="31"/>
+      <c r="W2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="T2" s="31">
-        <f>P2/E2</f>
+      <c r="X2" s="31">
+        <f>T2/E2</f>
         <v>6.4092277574088155E-2</v>
       </c>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31">
-        <f t="shared" ref="W2:W11" si="0">P2/I2</f>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31">
+        <f>T2/I2</f>
         <v>6.7391358466454318E-2</v>
       </c>
-      <c r="X2" s="32"/>
+      <c r="AB2" s="31">
+        <f>O2/R2</f>
+        <v>0.28297749256703125</v>
+      </c>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31">
+        <f>S2/R2</f>
+        <v>5.2400748005542772E-2</v>
+      </c>
+      <c r="AE2" s="32"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2015</v>
       </c>
@@ -11900,42 +11961,58 @@
       <c r="K3" s="29">
         <v>38376000</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29">
         <v>19652000</v>
       </c>
-      <c r="M3" s="29">
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29">
         <v>552000</v>
       </c>
-      <c r="N3" s="29">
+      <c r="R3" s="29">
         <v>70074000</v>
       </c>
-      <c r="O3" s="29">
+      <c r="S3" s="29">
         <v>3746000</v>
       </c>
-      <c r="P3" s="29">
+      <c r="T3" s="29">
         <v>19861000</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="U3" s="29">
         <v>35.60144927536232</v>
       </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31">
+      <c r="V3" s="31"/>
+      <c r="W3" s="31">
         <f>C3/C2 - 1</f>
         <v>2.0042436059181101E-2</v>
       </c>
-      <c r="T3" s="31">
-        <f t="shared" ref="T3:T11" si="1">P3/E3</f>
+      <c r="X3" s="31">
+        <f>T3/E3</f>
         <v>6.9878855621977348E-2</v>
       </c>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31">
-        <f t="shared" si="0"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31">
+        <f>T3/I3</f>
         <v>7.4748183658842712E-2</v>
       </c>
-      <c r="X3" s="32"/>
+      <c r="AB3" s="31">
+        <f>O3/R3</f>
+        <v>0.28044638524987869</v>
+      </c>
+      <c r="AC3" s="31">
+        <f>R3/R2 - 1</f>
+        <v>-5.7270856035839701E-2</v>
+      </c>
+      <c r="AD3" s="31">
+        <f>S3/R3</f>
+        <v>5.3457773211176757E-2</v>
+      </c>
+      <c r="AE3" s="32"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2016</v>
       </c>
@@ -11970,42 +12047,58 @@
       <c r="K4" s="29">
         <v>41907000</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29">
         <v>20215000</v>
       </c>
-      <c r="M4" s="29">
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29">
         <v>726000</v>
       </c>
-      <c r="N4" s="29">
+      <c r="R4" s="29">
         <v>71890000</v>
       </c>
-      <c r="O4" s="29">
+      <c r="S4" s="29">
         <v>3754000</v>
       </c>
-      <c r="P4" s="29">
+      <c r="T4" s="29">
         <v>27126000</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="U4" s="29">
         <v>27.844352617079888</v>
       </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31">
-        <f t="shared" ref="S4:S11" si="2">C4/C3 - 1</f>
-        <v>-1.0288123682361205E-2</v>
-      </c>
-      <c r="T4" s="31">
-        <f t="shared" si="1"/>
-        <v>8.6544961466626408E-2</v>
-      </c>
-      <c r="U4" s="31"/>
       <c r="V4" s="31"/>
       <c r="W4" s="31">
-        <f t="shared" si="0"/>
+        <f>C4/C3 - 1</f>
+        <v>-1.0288123682361205E-2</v>
+      </c>
+      <c r="X4" s="31">
+        <f>T4/E4</f>
+        <v>8.6544961466626408E-2</v>
+      </c>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31">
+        <f>T4/I4</f>
         <v>9.0828285860904787E-2</v>
       </c>
-      <c r="X4" s="32"/>
+      <c r="AB4" s="31">
+        <f>O4/R4</f>
+        <v>0.28119349005424954</v>
+      </c>
+      <c r="AC4" s="31">
+        <f t="shared" ref="AC4:AC11" si="0">R4/R3 - 1</f>
+        <v>2.5915460798584311E-2</v>
+      </c>
+      <c r="AD4" s="31">
+        <f>S4/R4</f>
+        <v>5.2218667408540829E-2</v>
+      </c>
+      <c r="AE4" s="32"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2017</v>
       </c>
@@ -12039,42 +12132,58 @@
       <c r="K5" s="29">
         <v>18296000</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29">
         <v>18222000</v>
       </c>
-      <c r="M5" s="29">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29">
         <v>934000</v>
       </c>
-      <c r="N5" s="29">
+      <c r="R5" s="29">
         <v>76450000</v>
       </c>
-      <c r="O5" s="29">
+      <c r="S5" s="29">
         <v>5642000</v>
       </c>
-      <c r="P5" s="29">
+      <c r="T5" s="29">
         <v>34581000</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="U5" s="29">
         <v>19.509635974304068</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31">
-        <f t="shared" si="2"/>
-        <v>-0.14567298133999829</v>
-      </c>
-      <c r="T5" s="31">
-        <f t="shared" si="1"/>
-        <v>9.2127413963828939E-2</v>
-      </c>
-      <c r="U5" s="31"/>
       <c r="V5" s="31"/>
       <c r="W5" s="31">
+        <f>C5/C4 - 1</f>
+        <v>-0.14567298133999829</v>
+      </c>
+      <c r="X5" s="31">
+        <f>T5/E5</f>
+        <v>9.2127413963828939E-2</v>
+      </c>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31">
+        <f>T5/I5</f>
+        <v>8.8296667508711985E-2</v>
+      </c>
+      <c r="AB5" s="31">
+        <f>O5/R5</f>
+        <v>0.23835186396337477</v>
+      </c>
+      <c r="AC5" s="31">
         <f t="shared" si="0"/>
-        <v>8.8296667508711985E-2</v>
-      </c>
-      <c r="X5" s="32"/>
+        <v>6.3430240645430569E-2</v>
+      </c>
+      <c r="AD5" s="31">
+        <f>S5/R5</f>
+        <v>7.3799869195552648E-2</v>
+      </c>
+      <c r="AE5" s="32"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>2018</v>
       </c>
@@ -12109,41 +12218,59 @@
         <v>19687000</v>
       </c>
       <c r="L6" s="29">
+        <v>-1958000</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29">
         <v>18393000</v>
       </c>
-      <c r="M6" s="29">
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29">
         <v>1005000</v>
       </c>
-      <c r="N6" s="29">
+      <c r="R6" s="29">
         <v>81581000</v>
       </c>
-      <c r="O6" s="29">
+      <c r="S6" s="29">
         <v>6929000</v>
       </c>
-      <c r="P6" s="29">
+      <c r="T6" s="29">
         <v>29981000</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="U6" s="29">
         <v>18.301492537313433</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31">
-        <f t="shared" si="2"/>
-        <v>-6.7819148936170137E-3</v>
-      </c>
-      <c r="T6" s="31">
-        <f t="shared" si="1"/>
-        <v>8.6622933945440614E-2</v>
-      </c>
-      <c r="U6" s="31"/>
       <c r="V6" s="31"/>
       <c r="W6" s="31">
+        <f>C6/C5 - 1</f>
+        <v>-6.7819148936170137E-3</v>
+      </c>
+      <c r="X6" s="31">
+        <f>T6/E6</f>
+        <v>8.6622933945440614E-2</v>
+      </c>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31">
+        <f>T6/I6</f>
+        <v>8.412100265130848E-2</v>
+      </c>
+      <c r="AB6" s="31">
+        <f>O6/R6</f>
+        <v>0.22545690785844744</v>
+      </c>
+      <c r="AC6" s="31">
         <f t="shared" si="0"/>
-        <v>8.412100265130848E-2</v>
-      </c>
-      <c r="X6" s="32"/>
+        <v>6.7115761935905738E-2</v>
+      </c>
+      <c r="AD6" s="31">
+        <f>S6/R6</f>
+        <v>8.493399198342752E-2</v>
+      </c>
+      <c r="AE6" s="32"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>2019</v>
       </c>
@@ -12178,43 +12305,66 @@
         <v>19287000</v>
       </c>
       <c r="L7" s="29">
+        <v>-8440000</v>
+      </c>
+      <c r="M7" s="29">
+        <f>L7-L6</f>
+        <v>-6482000</v>
+      </c>
+      <c r="N7" s="29">
+        <v>3498000</v>
+      </c>
+      <c r="O7" s="29">
         <v>17145000</v>
       </c>
-      <c r="M7" s="29">
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29">
         <v>318000</v>
       </c>
-      <c r="N7" s="29">
+      <c r="R7" s="29">
         <v>82059000</v>
       </c>
-      <c r="O7" s="29">
+      <c r="S7" s="29">
         <v>7009000</v>
       </c>
-      <c r="P7" s="29">
+      <c r="T7" s="29">
         <v>27696000</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="U7" s="29">
         <v>53.915094339622641</v>
-      </c>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31">
-        <f t="shared" si="2"/>
-        <v>-4.7027714553488087E-3</v>
-      </c>
-      <c r="T7" s="31">
-        <f t="shared" si="1"/>
-        <v>7.2141680133365416E-2</v>
-      </c>
-      <c r="U7" s="31">
-        <v>6.3E-3</v>
       </c>
       <c r="V7" s="31"/>
       <c r="W7" s="31">
+        <f>C7/C6 - 1</f>
+        <v>-4.7027714553488087E-3</v>
+      </c>
+      <c r="X7" s="31">
+        <f>T7/E7</f>
+        <v>7.2141680133365416E-2</v>
+      </c>
+      <c r="Y7" s="31">
+        <v>6.3E-3</v>
+      </c>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31">
+        <f>T7/I7</f>
+        <v>7.0595393792276015E-2</v>
+      </c>
+      <c r="AB7" s="31">
+        <f>O7/R7</f>
+        <v>0.2089350345483128</v>
+      </c>
+      <c r="AC7" s="31">
         <f t="shared" si="0"/>
-        <v>7.0595393792276015E-2</v>
-      </c>
-      <c r="X7" s="32"/>
+        <v>5.8592074134908856E-3</v>
+      </c>
+      <c r="AD7" s="31">
+        <f>S7/R7</f>
+        <v>8.5414153231211695E-2</v>
+      </c>
+      <c r="AE7" s="32"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>2020</v>
       </c>
@@ -12249,43 +12399,66 @@
         <v>25185000</v>
       </c>
       <c r="L8" s="29">
+        <v>-11305000</v>
+      </c>
+      <c r="M8" s="29">
+        <f t="shared" ref="M8:M11" si="1">L8-L7</f>
+        <v>-2865000</v>
+      </c>
+      <c r="N8" s="29">
+        <v>3347000</v>
+      </c>
+      <c r="O8" s="29">
         <v>16087000</v>
       </c>
-      <c r="M8" s="29">
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29">
         <v>201000</v>
       </c>
-      <c r="N8" s="29">
+      <c r="R8" s="29">
         <v>82584000</v>
       </c>
-      <c r="O8" s="29">
+      <c r="S8" s="29">
         <v>7300000</v>
       </c>
-      <c r="P8" s="29">
+      <c r="T8" s="29">
         <v>35266000</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="U8" s="29">
         <v>80.03482587064677</v>
-      </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31">
-        <f t="shared" si="2"/>
-        <v>6.4014393569975292E-2</v>
-      </c>
-      <c r="T8" s="31">
-        <f t="shared" si="1"/>
-        <v>8.5119924296995317E-2</v>
-      </c>
-      <c r="U8" s="31">
-        <v>6.8999999999999999E-3</v>
       </c>
       <c r="V8" s="31"/>
       <c r="W8" s="31">
+        <f>C8/C7 - 1</f>
+        <v>6.4014393569975292E-2</v>
+      </c>
+      <c r="X8" s="31">
+        <f>T8/E8</f>
+        <v>8.5119924296995317E-2</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31">
+        <f>T8/I8</f>
+        <v>8.3097980363037227E-2</v>
+      </c>
+      <c r="AB8" s="31">
+        <f>O8/R8</f>
+        <v>0.19479560205366658</v>
+      </c>
+      <c r="AC8" s="31">
         <f t="shared" si="0"/>
-        <v>8.3097980363037227E-2</v>
-      </c>
-      <c r="X8" s="32"/>
+        <v>6.3978357035792133E-3</v>
+      </c>
+      <c r="AD8" s="31">
+        <f>S8/R8</f>
+        <v>8.8394846459362589E-2</v>
+      </c>
+      <c r="AE8" s="32"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2021</v>
       </c>
@@ -12320,43 +12493,66 @@
         <v>31608000</v>
       </c>
       <c r="L9" s="29">
+        <v>-10621000</v>
+      </c>
+      <c r="M9" s="29">
+        <f t="shared" si="1"/>
+        <v>684000</v>
+      </c>
+      <c r="N9" s="29">
+        <v>3652000</v>
+      </c>
+      <c r="O9" s="29">
         <v>19524000</v>
       </c>
-      <c r="M9" s="29">
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29">
         <v>183000</v>
       </c>
-      <c r="N9" s="29">
+      <c r="R9" s="29">
         <v>78740000</v>
       </c>
-      <c r="O9" s="29">
+      <c r="S9" s="29">
         <v>7390000</v>
       </c>
-      <c r="P9" s="29">
+      <c r="T9" s="29">
         <v>33751000</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="U9" s="29">
         <v>106.68852459016394</v>
-      </c>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31">
-        <f t="shared" si="2"/>
-        <v>0.16980625177786912</v>
-      </c>
-      <c r="T9" s="31">
-        <f t="shared" si="1"/>
-        <v>7.4942537485751651E-2</v>
-      </c>
-      <c r="U9" s="31">
-        <v>6.7000000000000002E-3</v>
       </c>
       <c r="V9" s="31"/>
       <c r="W9" s="31">
+        <f>C9/C8 - 1</f>
+        <v>0.16980625177786912</v>
+      </c>
+      <c r="X9" s="31">
+        <f>T9/E9</f>
+        <v>7.4942537485751651E-2</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31">
+        <f>T9/I9</f>
+        <v>7.4587617337735293E-2</v>
+      </c>
+      <c r="AB9" s="31">
+        <f>O9/R9</f>
+        <v>0.24795529591059182</v>
+      </c>
+      <c r="AC9" s="31">
         <f t="shared" si="0"/>
-        <v>7.4587617337735293E-2</v>
-      </c>
-      <c r="X9" s="32"/>
+        <v>-4.6546546546546552E-2</v>
+      </c>
+      <c r="AD9" s="31">
+        <f>S9/R9</f>
+        <v>9.3853187706375407E-2</v>
+      </c>
+      <c r="AE9" s="32"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>2022</v>
       </c>
@@ -12392,43 +12588,66 @@
         <v>23519000</v>
       </c>
       <c r="L10" s="29">
+        <v>-9370000</v>
+      </c>
+      <c r="M10" s="29">
+        <f t="shared" si="1"/>
+        <v>1251000</v>
+      </c>
+      <c r="N10" s="29">
+        <v>4009000</v>
+      </c>
+      <c r="O10" s="29">
         <v>20131000</v>
       </c>
-      <c r="M10" s="29">
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29">
         <v>276000</v>
       </c>
-      <c r="N10" s="29">
+      <c r="R10" s="29">
         <v>79990000</v>
       </c>
-      <c r="O10" s="29">
+      <c r="S10" s="29">
         <v>6970000</v>
       </c>
-      <c r="P10" s="29">
+      <c r="T10" s="29">
         <v>39659000</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="U10" s="29">
         <v>72.938405797101453</v>
-      </c>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31">
-        <f t="shared" si="2"/>
-        <v>3.75694041041299E-2</v>
-      </c>
-      <c r="T10" s="31">
-        <f t="shared" si="1"/>
-        <v>8.5870147642978331E-2</v>
-      </c>
-      <c r="U10" s="31">
-        <v>6.8999999999999999E-3</v>
       </c>
       <c r="V10" s="31"/>
       <c r="W10" s="31">
+        <f>C10/C9 - 1</f>
+        <v>3.75694041041299E-2</v>
+      </c>
+      <c r="X10" s="31">
+        <f>T10/E10</f>
+        <v>8.5870147642978331E-2</v>
+      </c>
+      <c r="Y10" s="31">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31">
+        <f>T10/I10</f>
+        <v>8.2970613145257735E-2</v>
+      </c>
+      <c r="AB10" s="31">
+        <f>O10/R10</f>
+        <v>0.25166895861982747</v>
+      </c>
+      <c r="AC10" s="31">
         <f t="shared" si="0"/>
-        <v>8.2970613145257735E-2</v>
-      </c>
-      <c r="X10" s="32"/>
+        <v>1.5875031750063551E-2</v>
+      </c>
+      <c r="AD10" s="31">
+        <f>S10/R10</f>
+        <v>8.7135891986498307E-2</v>
+      </c>
+      <c r="AE10" s="32"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>2023</v>
       </c>
@@ -12463,79 +12682,355 @@
         <v>22927000</v>
       </c>
       <c r="L11" s="29">
+        <v>-11108000</v>
+      </c>
+      <c r="M11" s="29">
+        <f t="shared" si="1"/>
+        <v>-1738000</v>
+      </c>
+      <c r="N11" s="29">
+        <v>4543000</v>
+      </c>
+      <c r="O11" s="29">
         <v>15539000</v>
       </c>
-      <c r="M11" s="29">
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29">
         <v>772000</v>
       </c>
-      <c r="N11" s="29">
+      <c r="R11" s="29">
         <v>85159000</v>
       </c>
-      <c r="O11" s="29">
+      <c r="S11" s="29">
         <v>7103000</v>
       </c>
-      <c r="P11" s="29">
+      <c r="T11" s="29">
         <v>29332000</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="U11" s="29">
         <v>20.128238341968913</v>
       </c>
-      <c r="R11" s="33">
+      <c r="V11" s="33">
         <f>9% + 21%</f>
         <v>0.3</v>
       </c>
-      <c r="S11" s="31">
-        <f t="shared" si="2"/>
+      <c r="W11" s="31">
+        <f>C11/C10 - 1</f>
         <v>-0.1045518462580074</v>
       </c>
-      <c r="T11" s="31">
-        <f t="shared" si="1"/>
+      <c r="X11" s="31">
+        <f>T11/E11</f>
         <v>7.773837535128035E-2</v>
       </c>
-      <c r="U11" s="31">
+      <c r="Y11" s="31">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="V11" s="51">
-        <f>3.94%+U11</f>
+      <c r="Z11" s="51">
+        <f>3.94%+Y11</f>
         <v>4.53E-2</v>
       </c>
-      <c r="W11" s="31">
+      <c r="AA11" s="31">
+        <f>T11/I11</f>
+        <v>7.6440783681797186E-2</v>
+      </c>
+      <c r="AB11" s="31">
+        <f>O11/R11</f>
+        <v>0.1824704376519217</v>
+      </c>
+      <c r="AC11" s="31">
         <f t="shared" si="0"/>
-        <v>7.6440783681797186E-2</v>
-      </c>
-      <c r="X11" s="52">
-        <f>R11*P11</f>
+        <v>6.4620577572196414E-2</v>
+      </c>
+      <c r="AD11" s="31">
+        <f>S11/R11</f>
+        <v>8.3408682581993687E-2</v>
+      </c>
+      <c r="AE11" s="52">
+        <f>V11*T11</f>
         <v>8799600</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>2024</v>
       </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64">
+        <f>M11*(1-AC12)</f>
+        <v>-1625689.4361795227</v>
+      </c>
+      <c r="N12" s="64">
+        <f>N11*(1+ AC12)</f>
+        <v>4836571.2839104887</v>
+      </c>
+      <c r="O12" s="63">
+        <f>$AB$11 * R12</f>
+        <v>16543139.154894359</v>
+      </c>
+      <c r="P12" s="64">
+        <f>O12*(1-$V$11)</f>
+        <v>11580197.40842605</v>
+      </c>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="65">
+        <f>R11*(1+AC12)</f>
+        <v>90662023.765470669</v>
+      </c>
+      <c r="S12" s="63">
+        <f>R12*$AD$14</f>
+        <v>7945742.3735001637</v>
+      </c>
+      <c r="T12" s="63"/>
+      <c r="AC12" s="63">
+        <f>AC11</f>
+        <v>6.4620577572196414E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>2025</v>
       </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64">
+        <f t="shared" ref="M13:M17" si="2">M12*(1-AC13)</f>
+        <v>-1532666.5476883119</v>
+      </c>
+      <c r="N13" s="64">
+        <f t="shared" ref="N13:N17" si="3">N12*(1+ AC13)</f>
+        <v>5113322.686244946</v>
+      </c>
+      <c r="O13" s="63">
+        <f t="shared" ref="O13:O17" si="4">$AB$11 * R13</f>
+        <v>17489747.132194631</v>
+      </c>
+      <c r="P13" s="64">
+        <f t="shared" ref="P13:P17" si="5">O13*(1-$V$11)</f>
+        <v>12242822.992536241</v>
+      </c>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="65">
+        <f t="shared" ref="R13:R17" si="6">R12*(1+AC13)</f>
+        <v>95849757.129195094</v>
+      </c>
+      <c r="S13" s="63">
+        <f t="shared" ref="S13:S17" si="7">R13*$AD$14</f>
+        <v>8400402.3413517177</v>
+      </c>
+      <c r="T13" s="63"/>
+      <c r="AC13" s="63">
+        <f>AC12 - 0.0074</f>
+        <v>5.722057757219641E-2</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>2026</v>
       </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64">
+        <f t="shared" si="2"/>
+        <v>-1456308.215056896</v>
+      </c>
+      <c r="N14" s="64">
+        <f t="shared" si="3"/>
+        <v>5368071.3757866845</v>
+      </c>
+      <c r="O14" s="63">
+        <f t="shared" si="4"/>
+        <v>18361096.435912233</v>
+      </c>
+      <c r="P14" s="64">
+        <f t="shared" si="5"/>
+        <v>12852767.505138563</v>
+      </c>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="65">
+        <f t="shared" si="6"/>
+        <v>100625047.38952635</v>
+      </c>
+      <c r="S14" s="63">
+        <f t="shared" si="7"/>
+        <v>8818915.2378366925</v>
+      </c>
+      <c r="T14" s="63"/>
+      <c r="AC14" s="63">
+        <f t="shared" ref="AC14:AC17" si="8">AC13 - 0.0074</f>
+        <v>4.9820577572196406E-2</v>
+      </c>
+      <c r="AD14">
+        <f>AVERAGE(AD7:AD11)</f>
+        <v>8.7641352393088331E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>2027</v>
       </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64">
+        <f t="shared" si="2"/>
+        <v>-1394530.779451048</v>
+      </c>
+      <c r="N15" s="64">
+        <f t="shared" si="3"/>
+        <v>5595788.0639963308</v>
+      </c>
+      <c r="O15" s="63">
+        <f t="shared" si="4"/>
+        <v>19139984.751582429</v>
+      </c>
+      <c r="P15" s="64">
+        <f t="shared" si="5"/>
+        <v>13397989.326107699</v>
+      </c>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="65">
+        <f t="shared" si="6"/>
+        <v>104893620.01801969</v>
+      </c>
+      <c r="S15" s="63">
+        <f t="shared" si="7"/>
+        <v>9193018.715785969</v>
+      </c>
+      <c r="T15" s="63"/>
+      <c r="AC15" s="63">
+        <f t="shared" si="8"/>
+        <v>4.2420577572196402E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <v>2028</v>
       </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64">
+        <f t="shared" si="2"/>
+        <v>-1345693.506112467</v>
+      </c>
+      <c r="N16" s="64">
+        <f t="shared" si="3"/>
+        <v>5791755.7939690845</v>
+      </c>
+      <c r="O16" s="63">
+        <f t="shared" si="4"/>
+        <v>19810278.072305873</v>
+      </c>
+      <c r="P16" s="64">
+        <f t="shared" si="5"/>
+        <v>13867194.650614111</v>
+      </c>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="65">
+        <f t="shared" si="6"/>
+        <v>108567055.17468923</v>
+      </c>
+      <c r="S16" s="63">
+        <f t="shared" si="7"/>
+        <v>9514963.5408448037</v>
+      </c>
+      <c r="T16" s="63"/>
+      <c r="AC16" s="63">
+        <f t="shared" si="8"/>
+        <v>3.5020577572196399E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>2029</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64">
+        <f t="shared" si="2"/>
+        <v>-1308524.6742384867</v>
+      </c>
+      <c r="N17" s="64">
+        <f t="shared" si="3"/>
+        <v>5951727.4341556262</v>
+      </c>
+      <c r="O17" s="63">
+        <f t="shared" si="4"/>
+        <v>20357449.394528784</v>
+      </c>
+      <c r="P17" s="64">
+        <f t="shared" si="5"/>
+        <v>14250214.576170148</v>
+      </c>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="65">
+        <f t="shared" si="6"/>
+        <v>111565739.94392668</v>
+      </c>
+      <c r="S17" s="63">
+        <f t="shared" si="7"/>
+        <v>9777772.3294213284</v>
+      </c>
+      <c r="T17" s="63"/>
+      <c r="AC17" s="63">
+        <f t="shared" si="8"/>
+        <v>2.7620577572196398E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12550,8 +13045,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12631,16 +13126,16 @@
         <v>202</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -13446,16 +13941,16 @@
         <v>202</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -14262,16 +14757,16 @@
         <v>202</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -15077,16 +15572,16 @@
         <v>202</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -15805,763 +16300,594 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1201D640-FACA-47DD-A6E4-D0E6DE97DB38}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="35"/>
-    <col min="2" max="2" width="13.109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="35"/>
-    <col min="5" max="5" width="8.88671875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="35"/>
-    <col min="7" max="7" width="34.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="35"/>
-    <col min="19" max="19" width="10.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="35"/>
+    <col min="1" max="3" width="8.88671875" style="35"/>
+    <col min="4" max="4" width="8.88671875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="35"/>
+    <col min="6" max="6" width="34.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="8.88671875" style="35"/>
+    <col min="18" max="18" width="10.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>202</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="36" t="s">
-        <v>206</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="35" cm="1">
-        <f t="array" ref="A2:A11">'JOHNSON &amp; JOHNSON'!T2:T11</f>
+        <f t="array" ref="A2:A11">'JOHNSON &amp; JOHNSON'!X2:X11</f>
         <v>6.4092277574088155E-2</v>
       </c>
-      <c r="B2" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O2/'JOHNSON &amp; JOHNSON'!N2</f>
-        <v>5.2400748005542772E-2</v>
+      <c r="B2" s="35" cm="1">
+        <f t="array" ref="B2:B10">'JOHNSON &amp; JOHNSON'!W3:W11</f>
+        <v>2.0042436059181101E-2</v>
       </c>
       <c r="C2" s="35" cm="1">
-        <f t="array" ref="C2:C10">'JOHNSON &amp; JOHNSON'!S3:S11</f>
-        <v>2.0042436059181101E-2</v>
-      </c>
-      <c r="D2" s="35" cm="1">
-        <f t="array" ref="D2:D11">'JOHNSON &amp; JOHNSON'!P2:P11/'JOHNSON &amp; JOHNSON'!I2:I11</f>
+        <f t="array" ref="C2:C11">'JOHNSON &amp; JOHNSON'!T2:T11/'JOHNSON &amp; JOHNSON'!I2:I11</f>
         <v>6.7391358466454318E-2</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="46">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="46">
         <f>AVERAGE(A2:A51)</f>
         <v>0.12584781207593759</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="K2" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!N3/'JOHNSON &amp; JOHNSON'!N2  - 1</f>
-        <v>-5.7270856035839701E-2</v>
-      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>6.9878855621977348E-2</v>
       </c>
       <c r="B3" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O3/'JOHNSON &amp; JOHNSON'!N3</f>
-        <v>5.3457773211176757E-2</v>
+        <v>-1.0288123682361205E-2</v>
       </c>
       <c r="C3" s="35">
-        <v>-1.0288123682361205E-2</v>
-      </c>
-      <c r="D3" s="35">
         <v>7.4748183658842712E-2</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="K3" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!N4/'JOHNSON &amp; JOHNSON'!N3  - 1</f>
-        <v>2.5915460798584311E-2</v>
-      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>8.6544961466626408E-2</v>
       </c>
       <c r="B4" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O4/'JOHNSON &amp; JOHNSON'!N4</f>
-        <v>5.2218667408540829E-2</v>
+        <v>-0.14567298133999829</v>
       </c>
       <c r="C4" s="35">
-        <v>-0.14567298133999829</v>
-      </c>
-      <c r="D4" s="35">
         <v>9.0828285860904787E-2</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="46">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="46">
         <f>MEDIAN(A2:A51)</f>
         <v>0.12144276564971253</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="K4" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!N5/'JOHNSON &amp; JOHNSON'!N4  - 1</f>
-        <v>6.3430240645430569E-2</v>
-      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>9.2127413963828939E-2</v>
       </c>
       <c r="B5" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O5/'JOHNSON &amp; JOHNSON'!N5</f>
-        <v>7.3799869195552648E-2</v>
+        <v>-6.7819148936170137E-3</v>
       </c>
       <c r="C5" s="35">
-        <v>-6.7819148936170137E-3</v>
-      </c>
-      <c r="D5" s="35">
         <v>8.8296667508711985E-2</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="K5" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!N6/'JOHNSON &amp; JOHNSON'!N5  - 1</f>
-        <v>6.7115761935905738E-2</v>
-      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35">
         <v>8.6622933945440614E-2</v>
       </c>
       <c r="B6" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O6/'JOHNSON &amp; JOHNSON'!N6</f>
-        <v>8.493399198342752E-2</v>
+        <v>-4.7027714553488087E-3</v>
       </c>
       <c r="C6" s="35">
-        <v>-4.7027714553488087E-3</v>
-      </c>
-      <c r="D6" s="35">
         <v>8.412100265130848E-2</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="K6" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!N7/'JOHNSON &amp; JOHNSON'!N6  - 1</f>
-        <v>5.8592074134908856E-3</v>
-      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>7.2141680133365416E-2</v>
       </c>
       <c r="B7" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O7/'JOHNSON &amp; JOHNSON'!N7</f>
-        <v>8.5414153231211695E-2</v>
+        <v>6.4014393569975292E-2</v>
       </c>
       <c r="C7" s="35">
-        <v>6.4014393569975292E-2</v>
-      </c>
-      <c r="D7" s="35">
         <v>7.0595393792276015E-2</v>
       </c>
-      <c r="K7" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!N8/'JOHNSON &amp; JOHNSON'!N7  - 1</f>
-        <v>6.3978357035792133E-3</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>8.5119924296995317E-2</v>
       </c>
       <c r="B8" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O8/'JOHNSON &amp; JOHNSON'!N8</f>
-        <v>8.8394846459362589E-2</v>
+        <v>0.16980625177786912</v>
       </c>
       <c r="C8" s="35">
-        <v>0.16980625177786912</v>
-      </c>
-      <c r="D8" s="35">
         <v>8.3097980363037227E-2</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="49" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="K8" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!N9/'JOHNSON &amp; JOHNSON'!N8  - 1</f>
-        <v>-4.6546546546546552E-2</v>
-      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>7.4942537485751651E-2</v>
       </c>
       <c r="B9" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O9/'JOHNSON &amp; JOHNSON'!N9</f>
-        <v>9.3853187706375407E-2</v>
+        <v>3.75694041041299E-2</v>
       </c>
       <c r="C9" s="35">
-        <v>3.75694041041299E-2</v>
-      </c>
-      <c r="D9" s="35">
         <v>7.4587617337735293E-2</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="46">
-        <f>AVERAGE(_xlfn.ANCHORARRAY(C2))</f>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="46">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(B2))</f>
         <v>2.1594275424247447E-3</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="K9" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!N10/'JOHNSON &amp; JOHNSON'!N9  - 1</f>
-        <v>1.5875031750063551E-2</v>
-      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>8.5870147642978331E-2</v>
       </c>
       <c r="B10" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O10/'JOHNSON &amp; JOHNSON'!N10</f>
-        <v>8.7135891986498307E-2</v>
+        <v>-0.1045518462580074</v>
       </c>
       <c r="C10" s="35">
-        <v>-0.1045518462580074</v>
-      </c>
-      <c r="D10" s="35">
         <v>8.2970613145257735E-2</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="47" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="K10" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!N11/'JOHNSON &amp; JOHNSON'!N10  - 1</f>
-        <v>6.4620577572196414E-2</v>
-      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>7.773837535128035E-2</v>
       </c>
-      <c r="B11" s="35">
-        <f>'JOHNSON &amp; JOHNSON'!O11/'JOHNSON &amp; JOHNSON'!N11</f>
-        <v>8.3408682581993687E-2</v>
-      </c>
-      <c r="D11" s="35">
+      <c r="C11" s="35">
         <v>7.6440783681797186E-2</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="46">
-        <f>MEDIAN(_xlfn.ANCHORARRAY(C2))</f>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="46">
+        <f>MEDIAN(_xlfn.ANCHORARRAY(B2))</f>
         <v>-4.7027714553488087E-3</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="35" cm="1">
         <f t="array" ref="A12:A21" xml:space="preserve"> 'PFIZER INC'!T2:T11</f>
         <v>0.18689991577784967</v>
       </c>
-      <c r="D12" s="35" cm="1">
-        <f t="array" ref="D12:D21">'ROCHE HOLDING AG'!P2:P11/'ROCHE HOLDING AG'!I2:I11</f>
+      <c r="C12" s="35" cm="1">
+        <f t="array" ref="C12:C21">'ROCHE HOLDING AG'!P2:P11/'ROCHE HOLDING AG'!I2:I11</f>
         <v>0.12627639855990955</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="47" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>0.19521290032125391</v>
       </c>
-      <c r="D13" s="35">
+      <c r="C13" s="35">
         <v>0.11234466095804965</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="48">
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="48">
         <f>('JOHNSON &amp; JOHNSON'!B11 / 'JOHNSON &amp; JOHNSON'!B2)^(1/10) - 1</f>
         <v>2.4825572786371986E-2</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
         <v>0.2135259425344388</v>
       </c>
-      <c r="D14" s="35">
+      <c r="C14" s="35">
         <v>0.12734184797976697</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
         <v>0.20144344317502844</v>
       </c>
-      <c r="D15" s="35">
+      <c r="C15" s="35">
         <v>0.10574827455229649</v>
       </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>0.16542634951795934</v>
       </c>
-      <c r="D16" s="35">
+      <c r="C16" s="35">
         <v>0.10625785940318917</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="46">
+        <f>AVERAGE(C2:C46)</f>
+        <v>0.1203840648667111</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>0.24051442026690081</v>
       </c>
-      <c r="D17" s="35">
+      <c r="C17" s="35">
         <v>6.9466150511263702E-2</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="46">
-        <f>AVERAGE(K2:K10)</f>
-        <v>1.6155190359651603E-2</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>0.1946974932419159</v>
       </c>
-      <c r="D18" s="35">
+      <c r="C18" s="35">
         <v>6.9999131535661327E-2</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="46">
+        <f>MEDIAN(C2:C51)</f>
+        <v>0.11124296168790571</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>0.11596677197770668</v>
       </c>
-      <c r="D19" s="35">
+      <c r="C19" s="35">
         <v>0.11387769929773073</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="46">
-        <f>MEDIAN(K2:K10)</f>
-        <v>1.5875031750063551E-2</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>0.12456790886878939</v>
       </c>
-      <c r="D20" s="35">
+      <c r="C20" s="35">
         <v>0.12018175896407232</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="35">
         <v>0.44222374567794082</v>
       </c>
-      <c r="D21" s="35">
+      <c r="C21" s="35">
         <v>0.16029905535912797</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="48">
-        <f>('JOHNSON &amp; JOHNSON'!N11 / 'JOHNSON &amp; JOHNSON'!N2) ^(1 / 10) - 1</f>
-        <v>1.3692090244024291E-2</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="35" cm="1">
         <f t="array" ref="A22:A31">'NOVARTIS AG'!T2:T11</f>
         <v>8.0575128891098302E-2</v>
       </c>
-      <c r="D22" s="35" cm="1">
-        <f t="array" ref="D22:D31">'NOVARTIS AG'!P2:P11/'NOVARTIS AG'!I2:I11</f>
+      <c r="C22" s="35" cm="1">
+        <f t="array" ref="C22:C31">'NOVARTIS AG'!P2:P11/'NOVARTIS AG'!I2:I11</f>
         <v>7.8447459327470562E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="35">
         <v>9.3508782761580478E-2</v>
       </c>
-      <c r="D23" s="35">
+      <c r="C23" s="35">
         <v>8.732097745012371E-2</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>0.12361983972268509</v>
       </c>
-      <c r="D24" s="35">
+      <c r="C24" s="35">
         <v>0.11401612298645813</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="46">
-        <f>AVERAGE(B2:B11)</f>
-        <v>7.5501781176968222E-2</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="35">
         <v>0.12856818411971854</v>
       </c>
-      <c r="D25" s="35">
+      <c r="C25" s="35">
         <v>0.11840794121928611</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
         <v>0.14741477711122725</v>
       </c>
-      <c r="D26" s="35">
+      <c r="C26" s="35">
         <v>0.13717128141401569</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="46">
-        <f>MEDIAN(B2:B11)</f>
-        <v>8.4171337282710604E-2</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="35">
         <v>0.12150346930271523</v>
       </c>
-      <c r="D27" s="35">
+      <c r="C27" s="35">
         <v>0.11310897443427607</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="35">
         <v>0.16164114128332377</v>
       </c>
-      <c r="D28" s="35">
+      <c r="C28" s="35">
         <v>0.14523718592576942</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="35">
         <v>0.14488945988623</v>
       </c>
-      <c r="D29" s="35">
+      <c r="C29" s="35">
         <v>0.14301864519450544</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
         <v>0.12824049478859698</v>
       </c>
-      <c r="D30" s="35">
+      <c r="C30" s="35">
         <v>0.12304841316809498</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>0.11451026466998719</v>
       </c>
-      <c r="D31" s="35">
+      <c r="C31" s="35">
         <v>0.10871076134474007</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="46">
-        <f>AVERAGE(D2:D46)</f>
-        <v>0.1203840648667111</v>
-      </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="35" cm="1">
         <f t="array" ref="A32:A41">'NOVARTIS AG'!T2:T11</f>
         <v>8.0575128891098302E-2</v>
       </c>
-      <c r="D32" s="35" cm="1">
-        <f t="array" ref="D32:D41">'PFIZER INC'!P2:P11/'PFIZER INC'!I2:I11</f>
+      <c r="C32" s="35" cm="1">
+        <f t="array" ref="C32:C41">'PFIZER INC'!P2:P11/'PFIZER INC'!I2:I11</f>
         <v>0.18636815557271041</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="35">
         <v>9.3508782761580478E-2</v>
       </c>
-      <c r="D33" s="35">
+      <c r="C33" s="35">
         <v>0.18103209984088545</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="46">
-        <f>MEDIAN(D2:D51)</f>
-        <v>0.11124296168790571</v>
-      </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="35">
         <v>0.12361983972268509</v>
       </c>
-      <c r="D34" s="35">
+      <c r="C34" s="35">
         <v>0.19014515169260268</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="35">
         <v>0.12856818411971854</v>
       </c>
-      <c r="D35" s="35">
+      <c r="C35" s="35">
         <v>0.1816698341265148</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="35">
         <v>0.14741477711122725</v>
       </c>
-      <c r="D36" s="35">
+      <c r="C36" s="35">
         <v>0.15165788666573429</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="35">
         <v>0.12150346930271523</v>
       </c>
-      <c r="D37" s="35">
+      <c r="C37" s="35">
         <v>0.20109441945595102</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="35">
         <v>0.16164114128332377</v>
       </c>
-      <c r="D38" s="35">
+      <c r="C38" s="35">
         <v>0.17154453113184001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="35">
         <v>0.14488945988623</v>
       </c>
-      <c r="D39" s="35">
+      <c r="C39" s="35">
         <v>0.11344519540412487</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="35">
         <v>0.12824049478859698</v>
       </c>
-      <c r="D40" s="35">
+      <c r="C40" s="35">
         <v>0.11914276823149215</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="35">
         <v>0.11451026466998719</v>
       </c>
-      <c r="D41" s="35">
+      <c r="C41" s="35">
         <v>0.32417284112332706</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="35" cm="1">
         <f t="array" ref="A42:A51">'ELI LILLY AND COMPANY'!T2:T11</f>
         <v>0.10442551098163294</v>
       </c>
-      <c r="D42" s="35" cm="1">
-        <f t="array" ref="D42:D51">'ELI LILLY AND COMPANY'!P2:P11/'ELI LILLY AND COMPANY'!I2:I11</f>
+      <c r="C42" s="35" cm="1">
+        <f t="array" ref="C42:C51">'ELI LILLY AND COMPANY'!P2:P11/'ELI LILLY AND COMPANY'!I2:I11</f>
         <v>0.10025619203971817</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="35">
         <v>8.5453532396543713E-2</v>
       </c>
-      <c r="D43" s="35">
+      <c r="C43" s="35">
         <v>8.234321225052664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="35">
         <v>0.12691852675956325</v>
       </c>
-      <c r="D44" s="35">
+      <c r="C44" s="35">
         <v>0.12058225316880511</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="35">
         <v>0.14674544344026691</v>
       </c>
-      <c r="D45" s="35">
+      <c r="C45" s="35">
         <v>0.13839263953317557</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="35">
         <v>8.4012065920098564E-2</v>
       </c>
-      <c r="D46" s="35">
+      <c r="C46" s="35">
         <v>8.2077252712459345E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="35">
         <v>0.12138206199670983</v>
       </c>
-      <c r="D47" s="35">
+      <c r="C47" s="35">
         <v>0.11014126241776175</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="35">
         <v>0.10275140089555157</v>
       </c>
-      <c r="D48" s="35">
+      <c r="C48" s="35">
         <v>9.51438616674571E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="35">
         <v>6.3901536803928488E-2</v>
       </c>
-      <c r="D49" s="35">
+      <c r="C49" s="35">
         <v>6.0910286339327796E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="35">
         <v>4.6714582850026054E-2</v>
       </c>
-      <c r="D50" s="35">
+      <c r="C50" s="35">
         <v>4.4902680601561586E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="35">
         <v>4.5584857836116252E-2</v>
       </c>
-      <c r="D51" s="35">
+      <c r="C51" s="35">
         <v>4.3819198892550655E-2</v>
       </c>
     </row>
@@ -16574,7 +16900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F4CA64-9DF2-4FC1-BEFD-FEA468E129B0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>

--- a/FinancialManagement/Pharma_Data.xlsx
+++ b/FinancialManagement/Pharma_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3863360b7313d4a6/Documentos/GitHub/UC3M_Projects/FinancialManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1515" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592CD358-309C-461B-AF36-CA95B8990B93}"/>
+  <xr:revisionPtr revIDLastSave="1533" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E168F70A-C478-47E4-9A1C-662637A641A6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <author>tc={6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}</author>
   </authors>
   <commentList>
-    <comment ref="V11" authorId="0" shapeId="0" xr:uid="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
+    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="223">
   <si>
     <t>Product name</t>
   </si>
@@ -1150,6 +1150,9 @@
   </si>
   <si>
     <t>CAPEX</t>
+  </si>
+  <si>
+    <t>NWC/Ventas</t>
   </si>
 </sst>
 </file>
@@ -1605,6 +1608,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1627,9 +1633,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1796,7 +1799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JOHNSON &amp; JOHNSON'!$R$2:$R$11</c:f>
+              <c:f>'JOHNSON &amp; JOHNSON'!$S$2:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1857,7 +1860,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'JOHNSON &amp; JOHNSON'!$O$2:$O$11</c:f>
+              <c:f>'JOHNSON &amp; JOHNSON'!$P$2:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4422,7 +4425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JOHNSON &amp; JOHNSON'!$X$2:$X$11</c:f>
+              <c:f>'JOHNSON &amp; JOHNSON'!$Y$2:$Y$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8760,7 +8763,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V11" dT="2024-04-16T20:44:33.13" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
+  <threadedComment ref="W11" dT="2024-04-16T20:44:33.13" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
     <text>9% del Estado de Nueva Jersey y 21% federal de EEUU</text>
   </threadedComment>
 </ThreadedComments>
@@ -8822,86 +8825,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="59"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -8913,10 +8916,10 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -8928,10 +8931,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
@@ -8943,10 +8946,10 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
@@ -8958,10 +8961,10 @@
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
@@ -8973,10 +8976,10 @@
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
@@ -8985,17 +8988,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
@@ -9004,22 +9007,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -11714,10 +11717,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03140F42-7C75-4C7D-9199-1DB0B1072644}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11732,26 +11735,27 @@
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
@@ -11789,64 +11793,67 @@
         <v>219</v>
       </c>
       <c r="M1" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AB1" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>2014</v>
       </c>
@@ -11883,51 +11890,52 @@
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
-      <c r="O2" s="29">
+      <c r="O2" s="29"/>
+      <c r="P2" s="29">
         <v>21034000</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29">
         <v>533000</v>
       </c>
-      <c r="R2" s="29">
+      <c r="S2" s="29">
         <v>74331000</v>
       </c>
-      <c r="S2" s="29">
+      <c r="T2" s="29">
         <v>3895000</v>
       </c>
-      <c r="T2" s="29">
+      <c r="U2" s="29">
         <v>18760000</v>
       </c>
-      <c r="U2" s="29">
+      <c r="V2" s="29">
         <v>39.463414634146339</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="31"/>
+      <c r="X2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="X2" s="31">
-        <f>T2/E2</f>
+      <c r="Y2" s="31">
+        <f t="shared" ref="Y2:Y11" si="0">U2/E2</f>
         <v>6.4092277574088155E-2</v>
       </c>
-      <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
-      <c r="AA2" s="31">
-        <f>T2/I2</f>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31">
+        <f t="shared" ref="AB2:AB11" si="1">U2/I2</f>
         <v>6.7391358466454318E-2</v>
       </c>
-      <c r="AB2" s="31">
-        <f>O2/R2</f>
+      <c r="AC2" s="31">
+        <f t="shared" ref="AC2:AC11" si="2">P2/S2</f>
         <v>0.28297749256703125</v>
       </c>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31">
-        <f>S2/R2</f>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31">
+        <f t="shared" ref="AE2:AE11" si="3">T2/S2</f>
         <v>5.2400748005542772E-2</v>
       </c>
-      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2015</v>
       </c>
@@ -11964,55 +11972,56 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="29">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29">
         <v>19652000</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29">
         <v>552000</v>
       </c>
-      <c r="R3" s="29">
+      <c r="S3" s="29">
         <v>70074000</v>
       </c>
-      <c r="S3" s="29">
+      <c r="T3" s="29">
         <v>3746000</v>
       </c>
-      <c r="T3" s="29">
+      <c r="U3" s="29">
         <v>19861000</v>
       </c>
-      <c r="U3" s="29">
+      <c r="V3" s="29">
         <v>35.60144927536232</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31">
-        <f>C3/C2 - 1</f>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31">
+        <f t="shared" ref="X3:X11" si="4">C3/C2 - 1</f>
         <v>2.0042436059181101E-2</v>
       </c>
-      <c r="X3" s="31">
-        <f>T3/E3</f>
+      <c r="Y3" s="31">
+        <f t="shared" si="0"/>
         <v>6.9878855621977348E-2</v>
       </c>
-      <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
-      <c r="AA3" s="31">
-        <f>T3/I3</f>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31">
+        <f t="shared" si="1"/>
         <v>7.4748183658842712E-2</v>
       </c>
-      <c r="AB3" s="31">
-        <f>O3/R3</f>
+      <c r="AC3" s="31">
+        <f t="shared" si="2"/>
         <v>0.28044638524987869</v>
       </c>
-      <c r="AC3" s="31">
-        <f>R3/R2 - 1</f>
+      <c r="AD3" s="31">
+        <f>S3/S2 - 1</f>
         <v>-5.7270856035839701E-2</v>
       </c>
-      <c r="AD3" s="31">
-        <f>S3/R3</f>
+      <c r="AE3" s="31">
+        <f t="shared" si="3"/>
         <v>5.3457773211176757E-2</v>
       </c>
-      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2016</v>
       </c>
@@ -12050,55 +12059,56 @@
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
-      <c r="O4" s="29">
+      <c r="O4" s="29"/>
+      <c r="P4" s="29">
         <v>20215000</v>
       </c>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29">
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29">
         <v>726000</v>
       </c>
-      <c r="R4" s="29">
+      <c r="S4" s="29">
         <v>71890000</v>
       </c>
-      <c r="S4" s="29">
+      <c r="T4" s="29">
         <v>3754000</v>
       </c>
-      <c r="T4" s="29">
+      <c r="U4" s="29">
         <v>27126000</v>
       </c>
-      <c r="U4" s="29">
+      <c r="V4" s="29">
         <v>27.844352617079888</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31">
-        <f>C4/C3 - 1</f>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31">
+        <f t="shared" si="4"/>
         <v>-1.0288123682361205E-2</v>
       </c>
-      <c r="X4" s="31">
-        <f>T4/E4</f>
+      <c r="Y4" s="31">
+        <f t="shared" si="0"/>
         <v>8.6544961466626408E-2</v>
       </c>
-      <c r="Y4" s="31"/>
       <c r="Z4" s="31"/>
-      <c r="AA4" s="31">
-        <f>T4/I4</f>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31">
+        <f t="shared" si="1"/>
         <v>9.0828285860904787E-2</v>
       </c>
-      <c r="AB4" s="31">
-        <f>O4/R4</f>
+      <c r="AC4" s="31">
+        <f t="shared" si="2"/>
         <v>0.28119349005424954</v>
       </c>
-      <c r="AC4" s="31">
-        <f t="shared" ref="AC4:AC11" si="0">R4/R3 - 1</f>
+      <c r="AD4" s="31">
+        <f t="shared" ref="AD4:AD11" si="5">S4/S3 - 1</f>
         <v>2.5915460798584311E-2</v>
       </c>
-      <c r="AD4" s="31">
-        <f>S4/R4</f>
+      <c r="AE4" s="31">
+        <f t="shared" si="3"/>
         <v>5.2218667408540829E-2</v>
       </c>
-      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2017</v>
       </c>
@@ -12135,55 +12145,56 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
-      <c r="O5" s="29">
+      <c r="O5" s="29"/>
+      <c r="P5" s="29">
         <v>18222000</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29">
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29">
         <v>934000</v>
       </c>
-      <c r="R5" s="29">
+      <c r="S5" s="29">
         <v>76450000</v>
       </c>
-      <c r="S5" s="29">
+      <c r="T5" s="29">
         <v>5642000</v>
       </c>
-      <c r="T5" s="29">
+      <c r="U5" s="29">
         <v>34581000</v>
       </c>
-      <c r="U5" s="29">
+      <c r="V5" s="29">
         <v>19.509635974304068</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31">
-        <f>C5/C4 - 1</f>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31">
+        <f t="shared" si="4"/>
         <v>-0.14567298133999829</v>
       </c>
-      <c r="X5" s="31">
-        <f>T5/E5</f>
+      <c r="Y5" s="31">
+        <f t="shared" si="0"/>
         <v>9.2127413963828939E-2</v>
       </c>
-      <c r="Y5" s="31"/>
       <c r="Z5" s="31"/>
-      <c r="AA5" s="31">
-        <f>T5/I5</f>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31">
+        <f t="shared" si="1"/>
         <v>8.8296667508711985E-2</v>
       </c>
-      <c r="AB5" s="31">
-        <f>O5/R5</f>
+      <c r="AC5" s="31">
+        <f t="shared" si="2"/>
         <v>0.23835186396337477</v>
       </c>
-      <c r="AC5" s="31">
-        <f t="shared" si="0"/>
+      <c r="AD5" s="31">
+        <f t="shared" si="5"/>
         <v>6.3430240645430569E-2</v>
       </c>
-      <c r="AD5" s="31">
-        <f>S5/R5</f>
+      <c r="AE5" s="31">
+        <f t="shared" si="3"/>
         <v>7.3799869195552648E-2</v>
       </c>
-      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>2018</v>
       </c>
@@ -12220,57 +12231,61 @@
       <c r="L6" s="29">
         <v>-1958000</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="29">
+        <f>L6/S7</f>
+        <v>-2.3860880585919887E-2</v>
+      </c>
       <c r="N6" s="29"/>
-      <c r="O6" s="29">
+      <c r="O6" s="29"/>
+      <c r="P6" s="29">
         <v>18393000</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29">
         <v>1005000</v>
       </c>
-      <c r="R6" s="29">
+      <c r="S6" s="29">
         <v>81581000</v>
       </c>
-      <c r="S6" s="29">
+      <c r="T6" s="29">
         <v>6929000</v>
       </c>
-      <c r="T6" s="29">
+      <c r="U6" s="29">
         <v>29981000</v>
       </c>
-      <c r="U6" s="29">
+      <c r="V6" s="29">
         <v>18.301492537313433</v>
       </c>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31">
-        <f>C6/C5 - 1</f>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31">
+        <f t="shared" si="4"/>
         <v>-6.7819148936170137E-3</v>
       </c>
-      <c r="X6" s="31">
-        <f>T6/E6</f>
+      <c r="Y6" s="31">
+        <f t="shared" si="0"/>
         <v>8.6622933945440614E-2</v>
       </c>
-      <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
-      <c r="AA6" s="31">
-        <f>T6/I6</f>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31">
+        <f t="shared" si="1"/>
         <v>8.412100265130848E-2</v>
       </c>
-      <c r="AB6" s="31">
-        <f>O6/R6</f>
+      <c r="AC6" s="31">
+        <f t="shared" si="2"/>
         <v>0.22545690785844744</v>
       </c>
-      <c r="AC6" s="31">
-        <f t="shared" si="0"/>
+      <c r="AD6" s="31">
+        <f t="shared" si="5"/>
         <v>6.7115761935905738E-2</v>
       </c>
-      <c r="AD6" s="31">
-        <f>S6/R6</f>
+      <c r="AE6" s="31">
+        <f t="shared" si="3"/>
         <v>8.493399198342752E-2</v>
       </c>
-      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>2019</v>
       </c>
@@ -12308,63 +12323,67 @@
         <v>-8440000</v>
       </c>
       <c r="M7" s="29">
+        <f t="shared" ref="M7:M11" si="6">L7/S8</f>
+        <v>-0.1021989731667151</v>
+      </c>
+      <c r="N7" s="29">
         <f>L7-L6</f>
         <v>-6482000</v>
       </c>
-      <c r="N7" s="29">
+      <c r="O7" s="29">
         <v>3498000</v>
       </c>
-      <c r="O7" s="29">
+      <c r="P7" s="29">
         <v>17145000</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29">
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29">
         <v>318000</v>
       </c>
-      <c r="R7" s="29">
+      <c r="S7" s="29">
         <v>82059000</v>
       </c>
-      <c r="S7" s="29">
+      <c r="T7" s="29">
         <v>7009000</v>
       </c>
-      <c r="T7" s="29">
+      <c r="U7" s="29">
         <v>27696000</v>
       </c>
-      <c r="U7" s="29">
+      <c r="V7" s="29">
         <v>53.915094339622641</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31">
-        <f>C7/C6 - 1</f>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31">
+        <f t="shared" si="4"/>
         <v>-4.7027714553488087E-3</v>
       </c>
-      <c r="X7" s="31">
-        <f>T7/E7</f>
+      <c r="Y7" s="31">
+        <f t="shared" si="0"/>
         <v>7.2141680133365416E-2</v>
       </c>
-      <c r="Y7" s="31">
+      <c r="Z7" s="31">
         <v>6.3E-3</v>
       </c>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31">
-        <f>T7/I7</f>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31">
+        <f t="shared" si="1"/>
         <v>7.0595393792276015E-2</v>
       </c>
-      <c r="AB7" s="31">
-        <f>O7/R7</f>
+      <c r="AC7" s="31">
+        <f t="shared" si="2"/>
         <v>0.2089350345483128</v>
       </c>
-      <c r="AC7" s="31">
-        <f t="shared" si="0"/>
+      <c r="AD7" s="31">
+        <f t="shared" si="5"/>
         <v>5.8592074134908856E-3</v>
       </c>
-      <c r="AD7" s="31">
-        <f>S7/R7</f>
+      <c r="AE7" s="31">
+        <f t="shared" si="3"/>
         <v>8.5414153231211695E-2</v>
       </c>
-      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>2020</v>
       </c>
@@ -12402,63 +12421,67 @@
         <v>-11305000</v>
       </c>
       <c r="M8" s="29">
-        <f t="shared" ref="M8:M11" si="1">L8-L7</f>
+        <f t="shared" si="6"/>
+        <v>-0.14357378714757429</v>
+      </c>
+      <c r="N8" s="29">
+        <f t="shared" ref="N8:N11" si="7">L8-L7</f>
         <v>-2865000</v>
       </c>
-      <c r="N8" s="29">
+      <c r="O8" s="29">
         <v>3347000</v>
       </c>
-      <c r="O8" s="29">
+      <c r="P8" s="29">
         <v>16087000</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29">
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29">
         <v>201000</v>
       </c>
-      <c r="R8" s="29">
+      <c r="S8" s="29">
         <v>82584000</v>
       </c>
-      <c r="S8" s="29">
+      <c r="T8" s="29">
         <v>7300000</v>
       </c>
-      <c r="T8" s="29">
+      <c r="U8" s="29">
         <v>35266000</v>
       </c>
-      <c r="U8" s="29">
+      <c r="V8" s="29">
         <v>80.03482587064677</v>
       </c>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31">
-        <f>C8/C7 - 1</f>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31">
+        <f t="shared" si="4"/>
         <v>6.4014393569975292E-2</v>
       </c>
-      <c r="X8" s="31">
-        <f>T8/E8</f>
+      <c r="Y8" s="31">
+        <f t="shared" si="0"/>
         <v>8.5119924296995317E-2</v>
       </c>
-      <c r="Y8" s="31">
+      <c r="Z8" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31">
-        <f>T8/I8</f>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31">
+        <f t="shared" si="1"/>
         <v>8.3097980363037227E-2</v>
       </c>
-      <c r="AB8" s="31">
-        <f>O8/R8</f>
+      <c r="AC8" s="31">
+        <f t="shared" si="2"/>
         <v>0.19479560205366658</v>
       </c>
-      <c r="AC8" s="31">
-        <f t="shared" si="0"/>
+      <c r="AD8" s="31">
+        <f t="shared" si="5"/>
         <v>6.3978357035792133E-3</v>
       </c>
-      <c r="AD8" s="31">
-        <f>S8/R8</f>
+      <c r="AE8" s="31">
+        <f t="shared" si="3"/>
         <v>8.8394846459362589E-2</v>
       </c>
-      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2021</v>
       </c>
@@ -12496,63 +12519,67 @@
         <v>-10621000</v>
       </c>
       <c r="M9" s="29">
+        <f t="shared" si="6"/>
+        <v>-0.13277909738717339</v>
+      </c>
+      <c r="N9" s="29">
+        <f t="shared" si="7"/>
+        <v>684000</v>
+      </c>
+      <c r="O9" s="29">
+        <v>3652000</v>
+      </c>
+      <c r="P9" s="29">
+        <v>19524000</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
+        <v>183000</v>
+      </c>
+      <c r="S9" s="29">
+        <v>78740000</v>
+      </c>
+      <c r="T9" s="29">
+        <v>7390000</v>
+      </c>
+      <c r="U9" s="29">
+        <v>33751000</v>
+      </c>
+      <c r="V9" s="29">
+        <v>106.68852459016394</v>
+      </c>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31">
+        <f t="shared" si="4"/>
+        <v>0.16980625177786912</v>
+      </c>
+      <c r="Y9" s="31">
+        <f t="shared" si="0"/>
+        <v>7.4942537485751651E-2</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31">
         <f t="shared" si="1"/>
-        <v>684000</v>
-      </c>
-      <c r="N9" s="29">
-        <v>3652000</v>
-      </c>
-      <c r="O9" s="29">
-        <v>19524000</v>
-      </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29">
-        <v>183000</v>
-      </c>
-      <c r="R9" s="29">
-        <v>78740000</v>
-      </c>
-      <c r="S9" s="29">
-        <v>7390000</v>
-      </c>
-      <c r="T9" s="29">
-        <v>33751000</v>
-      </c>
-      <c r="U9" s="29">
-        <v>106.68852459016394</v>
-      </c>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31">
-        <f>C9/C8 - 1</f>
-        <v>0.16980625177786912</v>
-      </c>
-      <c r="X9" s="31">
-        <f>T9/E9</f>
-        <v>7.4942537485751651E-2</v>
-      </c>
-      <c r="Y9" s="31">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31">
-        <f>T9/I9</f>
         <v>7.4587617337735293E-2</v>
       </c>
-      <c r="AB9" s="31">
-        <f>O9/R9</f>
+      <c r="AC9" s="31">
+        <f t="shared" si="2"/>
         <v>0.24795529591059182</v>
       </c>
-      <c r="AC9" s="31">
-        <f t="shared" si="0"/>
+      <c r="AD9" s="31">
+        <f t="shared" si="5"/>
         <v>-4.6546546546546552E-2</v>
       </c>
-      <c r="AD9" s="31">
-        <f>S9/R9</f>
+      <c r="AE9" s="31">
+        <f t="shared" si="3"/>
         <v>9.3853187706375407E-2</v>
       </c>
-      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>2022</v>
       </c>
@@ -12591,63 +12618,67 @@
         <v>-9370000</v>
       </c>
       <c r="M10" s="29">
+        <f t="shared" si="6"/>
+        <v>-0.11002947427752792</v>
+      </c>
+      <c r="N10" s="29">
+        <f t="shared" si="7"/>
+        <v>1251000</v>
+      </c>
+      <c r="O10" s="29">
+        <v>4009000</v>
+      </c>
+      <c r="P10" s="29">
+        <v>20131000</v>
+      </c>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29">
+        <v>276000</v>
+      </c>
+      <c r="S10" s="29">
+        <v>79990000</v>
+      </c>
+      <c r="T10" s="29">
+        <v>6970000</v>
+      </c>
+      <c r="U10" s="29">
+        <v>39659000</v>
+      </c>
+      <c r="V10" s="29">
+        <v>72.938405797101453</v>
+      </c>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31">
+        <f t="shared" si="4"/>
+        <v>3.75694041041299E-2</v>
+      </c>
+      <c r="Y10" s="31">
+        <f t="shared" si="0"/>
+        <v>8.5870147642978331E-2</v>
+      </c>
+      <c r="Z10" s="31">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31">
         <f t="shared" si="1"/>
-        <v>1251000</v>
-      </c>
-      <c r="N10" s="29">
-        <v>4009000</v>
-      </c>
-      <c r="O10" s="29">
-        <v>20131000</v>
-      </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29">
-        <v>276000</v>
-      </c>
-      <c r="R10" s="29">
-        <v>79990000</v>
-      </c>
-      <c r="S10" s="29">
-        <v>6970000</v>
-      </c>
-      <c r="T10" s="29">
-        <v>39659000</v>
-      </c>
-      <c r="U10" s="29">
-        <v>72.938405797101453</v>
-      </c>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31">
-        <f>C10/C9 - 1</f>
-        <v>3.75694041041299E-2</v>
-      </c>
-      <c r="X10" s="31">
-        <f>T10/E10</f>
-        <v>8.5870147642978331E-2</v>
-      </c>
-      <c r="Y10" s="31">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31">
-        <f>T10/I10</f>
         <v>8.2970613145257735E-2</v>
       </c>
-      <c r="AB10" s="31">
-        <f>O10/R10</f>
+      <c r="AC10" s="31">
+        <f t="shared" si="2"/>
         <v>0.25166895861982747</v>
       </c>
-      <c r="AC10" s="31">
-        <f t="shared" si="0"/>
+      <c r="AD10" s="31">
+        <f t="shared" si="5"/>
         <v>1.5875031750063551E-2</v>
       </c>
-      <c r="AD10" s="31">
-        <f>S10/R10</f>
+      <c r="AE10" s="31">
+        <f t="shared" si="3"/>
         <v>8.7135891986498307E-2</v>
       </c>
-      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>2023</v>
       </c>
@@ -12685,351 +12716,379 @@
         <v>-11108000</v>
       </c>
       <c r="M11" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
+        <v>-0.12252097999416783</v>
+      </c>
+      <c r="N11" s="29">
+        <f t="shared" si="7"/>
         <v>-1738000</v>
       </c>
-      <c r="N11" s="29">
+      <c r="O11" s="29">
         <v>4543000</v>
       </c>
-      <c r="O11" s="29">
+      <c r="P11" s="29">
         <v>15539000</v>
       </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29">
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29">
         <v>772000</v>
       </c>
-      <c r="R11" s="29">
+      <c r="S11" s="29">
         <v>85159000</v>
       </c>
-      <c r="S11" s="29">
+      <c r="T11" s="29">
         <v>7103000</v>
       </c>
-      <c r="T11" s="29">
+      <c r="U11" s="29">
         <v>29332000</v>
       </c>
-      <c r="U11" s="29">
+      <c r="V11" s="29">
         <v>20.128238341968913</v>
       </c>
-      <c r="V11" s="33">
+      <c r="W11" s="33">
         <f>9% + 21%</f>
         <v>0.3</v>
       </c>
-      <c r="W11" s="31">
-        <f>C11/C10 - 1</f>
+      <c r="X11" s="31">
+        <f t="shared" si="4"/>
         <v>-0.1045518462580074</v>
       </c>
-      <c r="X11" s="31">
-        <f>T11/E11</f>
+      <c r="Y11" s="31">
+        <f t="shared" si="0"/>
         <v>7.773837535128035E-2</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="Z11" s="31">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="Z11" s="51">
-        <f>3.94%+Y11</f>
+      <c r="AA11" s="51">
+        <f>3.94%+Z11</f>
         <v>4.53E-2</v>
       </c>
-      <c r="AA11" s="31">
-        <f>T11/I11</f>
+      <c r="AB11" s="31">
+        <f t="shared" si="1"/>
         <v>7.6440783681797186E-2</v>
       </c>
-      <c r="AB11" s="31">
-        <f>O11/R11</f>
+      <c r="AC11" s="31">
+        <f t="shared" si="2"/>
         <v>0.1824704376519217</v>
       </c>
-      <c r="AC11" s="31">
-        <f t="shared" si="0"/>
+      <c r="AD11" s="31">
+        <f t="shared" si="5"/>
         <v>6.4620577572196414E-2</v>
       </c>
-      <c r="AD11" s="31">
-        <f>S11/R11</f>
+      <c r="AE11" s="31">
+        <f t="shared" si="3"/>
         <v>8.3408682581993687E-2</v>
       </c>
-      <c r="AE11" s="52">
-        <f>V11*T11</f>
+      <c r="AF11" s="52">
+        <f>W11*U11</f>
         <v>8799600</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>2024</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64">
-        <f>M11*(1-AC12)</f>
-        <v>-1625689.4361795227</v>
-      </c>
-      <c r="N12" s="64">
-        <f>N11*(1+ AC12)</f>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53">
+        <f>AVERAGE($M$7:$M$11)*S12</f>
+        <v>-11080754.466248915</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54">
+        <f>L12-L11</f>
+        <v>27245.533751085401</v>
+      </c>
+      <c r="O12" s="54">
+        <f>O11*(1+ AD12)</f>
         <v>4836571.2839104887</v>
       </c>
-      <c r="O12" s="63">
-        <f>$AB$11 * R12</f>
+      <c r="P12" s="53">
+        <f>$AC$11 * S12</f>
         <v>16543139.154894359</v>
       </c>
-      <c r="P12" s="64">
-        <f>O12*(1-$V$11)</f>
+      <c r="Q12" s="54">
+        <f>P12*(1-$W$11)</f>
         <v>11580197.40842605</v>
       </c>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="65">
-        <f>R11*(1+AC12)</f>
+      <c r="R12" s="53"/>
+      <c r="S12" s="55">
+        <f>S11*(1+AD12)</f>
         <v>90662023.765470669</v>
       </c>
-      <c r="S12" s="63">
-        <f>R12*$AD$14</f>
+      <c r="T12" s="53">
+        <f>S12*$AE$14</f>
         <v>7945742.3735001637</v>
       </c>
-      <c r="T12" s="63"/>
-      <c r="AC12" s="63">
-        <f>AC11</f>
+      <c r="U12" s="53"/>
+      <c r="AD12" s="53">
+        <f>AD11</f>
         <v>6.4620577572196414E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>2025</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64">
-        <f t="shared" ref="M13:M17" si="2">M12*(1-AC13)</f>
-        <v>-1532666.5476883119</v>
-      </c>
-      <c r="N13" s="64">
-        <f t="shared" ref="N13:N17" si="3">N12*(1+ AC13)</f>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53">
+        <f t="shared" ref="L13:L17" si="8">AVERAGE($M$7:$M$11)*S13</f>
+        <v>-11714801.636743372</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54">
+        <f t="shared" ref="N13:N17" si="9">L13-L12</f>
+        <v>-634047.17049445771</v>
+      </c>
+      <c r="O13" s="54">
+        <f t="shared" ref="O13:O17" si="10">O12*(1+ AD13)</f>
         <v>5113322.686244946</v>
       </c>
-      <c r="O13" s="63">
-        <f t="shared" ref="O13:O17" si="4">$AB$11 * R13</f>
+      <c r="P13" s="53">
+        <f t="shared" ref="P13:P17" si="11">$AC$11 * S13</f>
         <v>17489747.132194631</v>
       </c>
-      <c r="P13" s="64">
-        <f t="shared" ref="P13:P17" si="5">O13*(1-$V$11)</f>
+      <c r="Q13" s="54">
+        <f t="shared" ref="Q13:Q17" si="12">P13*(1-$W$11)</f>
         <v>12242822.992536241</v>
       </c>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="65">
-        <f t="shared" ref="R13:R17" si="6">R12*(1+AC13)</f>
+      <c r="R13" s="53"/>
+      <c r="S13" s="55">
+        <f t="shared" ref="S13:S17" si="13">S12*(1+AD13)</f>
         <v>95849757.129195094</v>
       </c>
-      <c r="S13" s="63">
-        <f t="shared" ref="S13:S17" si="7">R13*$AD$14</f>
+      <c r="T13" s="53">
+        <f t="shared" ref="T13:T17" si="14">S13*$AE$14</f>
         <v>8400402.3413517177</v>
       </c>
-      <c r="T13" s="63"/>
-      <c r="AC13" s="63">
-        <f>AC12 - 0.0074</f>
+      <c r="U13" s="53"/>
+      <c r="AD13" s="53">
+        <f>AD12 - 0.0074</f>
         <v>5.722057757219641E-2</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>2026</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="64">
-        <f t="shared" si="2"/>
-        <v>-1456308.215056896</v>
-      </c>
-      <c r="N14" s="64">
-        <f t="shared" si="3"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53">
+        <f t="shared" si="8"/>
+        <v>-12298439.82042964</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54">
+        <f t="shared" si="9"/>
+        <v>-583638.18368626758</v>
+      </c>
+      <c r="O14" s="54">
+        <f t="shared" si="10"/>
         <v>5368071.3757866845</v>
       </c>
-      <c r="O14" s="63">
-        <f t="shared" si="4"/>
+      <c r="P14" s="53">
+        <f t="shared" si="11"/>
         <v>18361096.435912233</v>
       </c>
-      <c r="P14" s="64">
-        <f t="shared" si="5"/>
+      <c r="Q14" s="54">
+        <f t="shared" si="12"/>
         <v>12852767.505138563</v>
       </c>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="65">
-        <f t="shared" si="6"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="55">
+        <f t="shared" si="13"/>
         <v>100625047.38952635</v>
       </c>
-      <c r="S14" s="63">
-        <f t="shared" si="7"/>
+      <c r="T14" s="53">
+        <f t="shared" si="14"/>
         <v>8818915.2378366925</v>
       </c>
-      <c r="T14" s="63"/>
-      <c r="AC14" s="63">
-        <f t="shared" ref="AC14:AC17" si="8">AC13 - 0.0074</f>
+      <c r="U14" s="53"/>
+      <c r="AD14" s="53">
+        <f t="shared" ref="AD14:AD17" si="15">AD13 - 0.0074</f>
         <v>4.9820577572196406E-2</v>
       </c>
-      <c r="AD14">
-        <f>AVERAGE(AD7:AD11)</f>
+      <c r="AE14">
+        <f>AVERAGE(AE7:AE11)</f>
         <v>8.7641352393088331E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>2027</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="64">
-        <f t="shared" si="2"/>
-        <v>-1394530.779451048</v>
-      </c>
-      <c r="N15" s="64">
-        <f t="shared" si="3"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53">
+        <f t="shared" si="8"/>
+        <v>-12820146.740849165</v>
+      </c>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54">
+        <f t="shared" si="9"/>
+        <v>-521706.92041952536</v>
+      </c>
+      <c r="O15" s="54">
+        <f t="shared" si="10"/>
         <v>5595788.0639963308</v>
       </c>
-      <c r="O15" s="63">
-        <f t="shared" si="4"/>
+      <c r="P15" s="53">
+        <f t="shared" si="11"/>
         <v>19139984.751582429</v>
       </c>
-      <c r="P15" s="64">
-        <f t="shared" si="5"/>
+      <c r="Q15" s="54">
+        <f t="shared" si="12"/>
         <v>13397989.326107699</v>
       </c>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="65">
-        <f t="shared" si="6"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="55">
+        <f t="shared" si="13"/>
         <v>104893620.01801969</v>
       </c>
-      <c r="S15" s="63">
-        <f t="shared" si="7"/>
+      <c r="T15" s="53">
+        <f t="shared" si="14"/>
         <v>9193018.715785969</v>
       </c>
-      <c r="T15" s="63"/>
-      <c r="AC15" s="63">
-        <f t="shared" si="8"/>
+      <c r="U15" s="53"/>
+      <c r="AD15" s="53">
+        <f t="shared" si="15"/>
         <v>4.2420577572196402E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <v>2028</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="64">
-        <f t="shared" si="2"/>
-        <v>-1345693.506112467</v>
-      </c>
-      <c r="N16" s="64">
-        <f t="shared" si="3"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53">
+        <f t="shared" si="8"/>
+        <v>-13269115.684274012</v>
+      </c>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54">
+        <f t="shared" si="9"/>
+        <v>-448968.94342484698</v>
+      </c>
+      <c r="O16" s="54">
+        <f t="shared" si="10"/>
         <v>5791755.7939690845</v>
       </c>
-      <c r="O16" s="63">
-        <f t="shared" si="4"/>
+      <c r="P16" s="53">
+        <f t="shared" si="11"/>
         <v>19810278.072305873</v>
       </c>
-      <c r="P16" s="64">
-        <f t="shared" si="5"/>
+      <c r="Q16" s="54">
+        <f t="shared" si="12"/>
         <v>13867194.650614111</v>
       </c>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="65">
-        <f t="shared" si="6"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="55">
+        <f t="shared" si="13"/>
         <v>108567055.17468923</v>
       </c>
-      <c r="S16" s="63">
-        <f t="shared" si="7"/>
+      <c r="T16" s="53">
+        <f t="shared" si="14"/>
         <v>9514963.5408448037</v>
       </c>
-      <c r="T16" s="63"/>
-      <c r="AC16" s="63">
-        <f t="shared" si="8"/>
+      <c r="U16" s="53"/>
+      <c r="AD16" s="53">
+        <f t="shared" si="15"/>
         <v>3.5020577572196399E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>2029</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64">
-        <f t="shared" si="2"/>
-        <v>-1308524.6742384867</v>
-      </c>
-      <c r="N17" s="64">
-        <f t="shared" si="3"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53">
+        <f t="shared" si="8"/>
+        <v>-13635616.323345952</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54">
+        <f t="shared" si="9"/>
+        <v>-366500.63907193951</v>
+      </c>
+      <c r="O17" s="54">
+        <f t="shared" si="10"/>
         <v>5951727.4341556262</v>
       </c>
-      <c r="O17" s="63">
-        <f t="shared" si="4"/>
+      <c r="P17" s="53">
+        <f t="shared" si="11"/>
         <v>20357449.394528784</v>
       </c>
-      <c r="P17" s="64">
-        <f t="shared" si="5"/>
+      <c r="Q17" s="54">
+        <f t="shared" si="12"/>
         <v>14250214.576170148</v>
       </c>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="65">
-        <f t="shared" si="6"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="55">
+        <f t="shared" si="13"/>
         <v>111565739.94392668</v>
       </c>
-      <c r="S17" s="63">
-        <f t="shared" si="7"/>
+      <c r="T17" s="53">
+        <f t="shared" si="14"/>
         <v>9777772.3294213284</v>
       </c>
-      <c r="T17" s="63"/>
-      <c r="AC17" s="63">
-        <f t="shared" si="8"/>
+      <c r="U17" s="53"/>
+      <c r="AD17" s="53">
+        <f t="shared" si="15"/>
         <v>2.7620577572196398E-2</v>
       </c>
     </row>
@@ -16337,15 +16396,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="35" cm="1">
-        <f t="array" ref="A2:A11">'JOHNSON &amp; JOHNSON'!X2:X11</f>
+        <f t="array" ref="A2:A11">'JOHNSON &amp; JOHNSON'!Y2:Y11</f>
         <v>6.4092277574088155E-2</v>
       </c>
       <c r="B2" s="35" cm="1">
-        <f t="array" ref="B2:B10">'JOHNSON &amp; JOHNSON'!W3:W11</f>
+        <f t="array" ref="B2:B10">'JOHNSON &amp; JOHNSON'!X3:X11</f>
         <v>2.0042436059181101E-2</v>
       </c>
       <c r="C2" s="35" cm="1">
-        <f t="array" ref="C2:C11">'JOHNSON &amp; JOHNSON'!T2:T11/'JOHNSON &amp; JOHNSON'!I2:I11</f>
+        <f t="array" ref="C2:C11">'JOHNSON &amp; JOHNSON'!U2:U11/'JOHNSON &amp; JOHNSON'!I2:I11</f>
         <v>6.7391358466454318E-2</v>
       </c>
       <c r="D2" s="39"/>

--- a/FinancialManagement/Pharma_Data.xlsx
+++ b/FinancialManagement/Pharma_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3863360b7313d4a6/Documentos/GitHub/UC3M_Projects/FinancialManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1533" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E168F70A-C478-47E4-9A1C-662637A641A6}"/>
+  <xr:revisionPtr revIDLastSave="1558" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1696DD-6648-4436-AD27-64F95A3A60FF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <author>tc={6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}</author>
   </authors>
   <commentList>
-    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
+    <comment ref="X11" authorId="0" shapeId="0" xr:uid="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="224">
   <si>
     <t>Product name</t>
   </si>
@@ -1154,13 +1154,19 @@
   <si>
     <t>NWC/Ventas</t>
   </si>
+  <si>
+    <t>FCF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1488,11 +1494,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1609,21 +1616,11 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1633,8 +1630,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1799,9 +1811,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JOHNSON &amp; JOHNSON'!$S$2:$S$11</c:f>
+              <c:f>'JOHNSON &amp; JOHNSON'!$T$2:$T$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>74331000</c:v>
@@ -1862,7 +1874,7 @@
             <c:numRef>
               <c:f>'JOHNSON &amp; JOHNSON'!$P$2:$P$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>21034000</c:v>
@@ -1988,7 +2000,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4425,7 +4437,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'JOHNSON &amp; JOHNSON'!$Y$2:$Y$11</c:f>
+              <c:f>'JOHNSON &amp; JOHNSON'!$Z$2:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8763,7 +8775,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="W11" dT="2024-04-16T20:44:33.13" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
+  <threadedComment ref="X11" dT="2024-04-16T20:44:33.13" personId="{D102DFAF-7AB4-4E26-AD3A-9DDD4F90D851}" id="{6D7E679E-BD2F-441B-88DC-4231C8BC6A1C}">
     <text>9% del Estado de Nueva Jersey y 21% federal de EEUU</text>
   </threadedComment>
 </ThreadedComments>
@@ -8825,86 +8837,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="59"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="59"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="59"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -8916,10 +8928,10 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -8931,10 +8943,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
@@ -8946,10 +8958,10 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
@@ -8961,10 +8973,10 @@
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
@@ -8976,10 +8988,10 @@
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
@@ -8988,17 +9000,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
@@ -9007,25 +9019,42 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="B11:C11"/>
@@ -9033,23 +9062,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11717,45 +11729,44 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03140F42-7C75-4C7D-9199-1DB0B1072644}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:N17"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.109375" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
@@ -11808,65 +11819,68 @@
         <v>218</v>
       </c>
       <c r="R1" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AB1" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AF1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>2014</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="67">
         <v>131119000</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="67">
         <v>69752000</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="67">
         <v>16323000</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="67">
         <v>292702970</v>
       </c>
       <c r="F2" s="29">
@@ -11875,80 +11889,81 @@
       <c r="G2" s="29">
         <v>0.15679999999999999</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="67">
         <v>104.57</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="64">
         <v>278373970</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="68">
         <v>2783000</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="64">
         <v>33089000</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64">
         <v>21034000</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29">
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64">
         <v>533000</v>
       </c>
-      <c r="S2" s="29">
+      <c r="T2" s="64">
         <v>74331000</v>
       </c>
-      <c r="T2" s="29">
+      <c r="U2" s="64">
         <v>3895000</v>
       </c>
-      <c r="U2" s="29">
+      <c r="V2" s="64">
         <v>18760000</v>
       </c>
-      <c r="V2" s="29">
+      <c r="W2" s="29">
         <v>39.463414634146339</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="Y2" s="31">
-        <f t="shared" ref="Y2:Y11" si="0">U2/E2</f>
+      <c r="Z2" s="31">
+        <f t="shared" ref="Z2:Z11" si="0">V2/E2</f>
         <v>6.4092277574088155E-2</v>
       </c>
-      <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
-      <c r="AB2" s="31">
-        <f t="shared" ref="AB2:AB11" si="1">U2/I2</f>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31">
+        <f t="shared" ref="AC2:AC11" si="1">V2/I2</f>
         <v>6.7391358466454318E-2</v>
       </c>
-      <c r="AC2" s="31">
-        <f t="shared" ref="AC2:AC11" si="2">P2/S2</f>
+      <c r="AD2" s="31">
+        <f t="shared" ref="AD2:AD11" si="2">P2/T2</f>
         <v>0.28297749256703125</v>
       </c>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31">
-        <f t="shared" ref="AE2:AE11" si="3">T2/S2</f>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31">
+        <f t="shared" ref="AF2:AF11" si="3">U2/T2</f>
         <v>5.2400748005542772E-2</v>
       </c>
-      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2015</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="67">
         <v>133411000</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="67">
         <v>71150000</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="67">
         <v>15409000</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="67">
         <v>284220453</v>
       </c>
       <c r="F3" s="29">
@@ -11957,84 +11972,85 @@
       <c r="G3" s="29">
         <v>0.1439</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="67">
         <v>102.72</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="64">
         <v>265705453</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="68">
         <v>2755000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="64">
         <v>38376000</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64">
         <v>19652000</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64">
         <v>552000</v>
       </c>
-      <c r="S3" s="29">
+      <c r="T3" s="64">
         <v>70074000</v>
       </c>
-      <c r="T3" s="29">
+      <c r="U3" s="64">
         <v>3746000</v>
       </c>
-      <c r="U3" s="29">
+      <c r="V3" s="64">
         <v>19861000</v>
       </c>
-      <c r="V3" s="29">
+      <c r="W3" s="29">
         <v>35.60144927536232</v>
       </c>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31">
-        <f t="shared" ref="X3:X11" si="4">C3/C2 - 1</f>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31">
+        <f t="shared" ref="Y3:Y11" si="4">C3/C2 - 1</f>
         <v>2.0042436059181101E-2</v>
       </c>
-      <c r="Y3" s="31">
+      <c r="Z3" s="31">
         <f t="shared" si="0"/>
         <v>6.9878855621977348E-2</v>
       </c>
-      <c r="Z3" s="31"/>
       <c r="AA3" s="31"/>
-      <c r="AB3" s="31">
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31">
         <f t="shared" si="1"/>
         <v>7.4748183658842712E-2</v>
       </c>
-      <c r="AC3" s="31">
+      <c r="AD3" s="31">
         <f t="shared" si="2"/>
         <v>0.28044638524987869</v>
       </c>
-      <c r="AD3" s="31">
-        <f>S3/S2 - 1</f>
+      <c r="AE3" s="31">
+        <f>T3/T2 - 1</f>
         <v>-5.7270856035839701E-2</v>
       </c>
-      <c r="AE3" s="31">
+      <c r="AF3" s="31">
         <f t="shared" si="3"/>
         <v>5.3457773211176757E-2</v>
       </c>
-      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2016</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="67">
         <v>141208000</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="67">
         <v>70418000</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="67">
         <v>16540000</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="67">
         <v>313432458</v>
       </c>
       <c r="F4" s="29">
@@ -12043,85 +12059,86 @@
       <c r="G4" s="29">
         <v>0.14019999999999999</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="67">
         <f>E4/J4</f>
         <v>115.78590986331733</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="64">
         <v>298651458</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="68">
         <v>2707000</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="64">
         <v>41907000</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29">
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64">
         <v>20215000</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29">
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64">
         <v>726000</v>
       </c>
-      <c r="S4" s="29">
+      <c r="T4" s="64">
         <v>71890000</v>
       </c>
-      <c r="T4" s="29">
+      <c r="U4" s="64">
         <v>3754000</v>
       </c>
-      <c r="U4" s="29">
+      <c r="V4" s="64">
         <v>27126000</v>
       </c>
-      <c r="V4" s="29">
+      <c r="W4" s="29">
         <v>27.844352617079888</v>
       </c>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31">
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31">
         <f t="shared" si="4"/>
         <v>-1.0288123682361205E-2</v>
       </c>
-      <c r="Y4" s="31">
+      <c r="Z4" s="31">
         <f t="shared" si="0"/>
         <v>8.6544961466626408E-2</v>
       </c>
-      <c r="Z4" s="31"/>
       <c r="AA4" s="31"/>
-      <c r="AB4" s="31">
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31">
         <f t="shared" si="1"/>
         <v>9.0828285860904787E-2</v>
       </c>
-      <c r="AC4" s="31">
+      <c r="AD4" s="31">
         <f t="shared" si="2"/>
         <v>0.28119349005424954</v>
       </c>
-      <c r="AD4" s="31">
-        <f t="shared" ref="AD4:AD11" si="5">S4/S3 - 1</f>
+      <c r="AE4" s="31">
+        <f t="shared" ref="AE4:AE11" si="5">T4/T3 - 1</f>
         <v>2.5915460798584311E-2</v>
       </c>
-      <c r="AE4" s="31">
+      <c r="AF4" s="31">
         <f t="shared" si="3"/>
         <v>5.2218667408540829E-2</v>
       </c>
-      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>2017</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="67">
         <v>157303000</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="67">
         <v>60160000</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="67">
         <v>1300000</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="67">
         <v>375360585</v>
       </c>
       <c r="F5" s="29">
@@ -12130,84 +12147,85 @@
       <c r="G5" s="29">
         <v>0.1124</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="67">
         <v>139.72</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="64">
         <v>391645585</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="68">
         <v>2683000</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="64">
         <v>18296000</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29">
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64">
         <v>18222000</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29">
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64">
         <v>934000</v>
       </c>
-      <c r="S5" s="29">
+      <c r="T5" s="64">
         <v>76450000</v>
       </c>
-      <c r="T5" s="29">
+      <c r="U5" s="64">
         <v>5642000</v>
       </c>
-      <c r="U5" s="29">
+      <c r="V5" s="64">
         <v>34581000</v>
       </c>
-      <c r="V5" s="29">
+      <c r="W5" s="29">
         <v>19.509635974304068</v>
       </c>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31">
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31">
         <f t="shared" si="4"/>
         <v>-0.14567298133999829</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Z5" s="31">
         <f t="shared" si="0"/>
         <v>9.2127413963828939E-2</v>
       </c>
-      <c r="Z5" s="31"/>
       <c r="AA5" s="31"/>
-      <c r="AB5" s="31">
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31">
         <f t="shared" si="1"/>
         <v>8.8296667508711985E-2</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AD5" s="31">
         <f t="shared" si="2"/>
         <v>0.23835186396337477</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AE5" s="31">
         <f t="shared" si="5"/>
         <v>6.3430240645430569E-2</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AF5" s="31">
         <f t="shared" si="3"/>
         <v>7.3799869195552648E-2</v>
       </c>
-      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>2018</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="67">
         <v>152954000</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="67">
         <v>59752000</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="67">
         <v>15297000</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="67">
         <v>346109265</v>
       </c>
       <c r="F6" s="29">
@@ -12216,89 +12234,90 @@
       <c r="G6" s="29">
         <v>0.1177</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="67">
         <v>129.05000000000001</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="64">
         <v>356403265</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="68">
         <v>2662000</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="64">
         <v>19687000</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="64">
         <v>-1958000</v>
       </c>
-      <c r="M6" s="29">
-        <f>L6/S7</f>
+      <c r="M6" s="66">
+        <f>L6/T7</f>
         <v>-2.3860880585919887E-2</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29">
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64">
         <v>18393000</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29">
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64">
         <v>1005000</v>
       </c>
-      <c r="S6" s="29">
+      <c r="T6" s="64">
         <v>81581000</v>
       </c>
-      <c r="T6" s="29">
+      <c r="U6" s="64">
         <v>6929000</v>
       </c>
-      <c r="U6" s="29">
+      <c r="V6" s="64">
         <v>29981000</v>
       </c>
-      <c r="V6" s="29">
+      <c r="W6" s="29">
         <v>18.301492537313433</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31">
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31">
         <f t="shared" si="4"/>
         <v>-6.7819148936170137E-3</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Z6" s="31">
         <f t="shared" si="0"/>
         <v>8.6622933945440614E-2</v>
       </c>
-      <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
-      <c r="AB6" s="31">
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31">
         <f t="shared" si="1"/>
         <v>8.412100265130848E-2</v>
       </c>
-      <c r="AC6" s="31">
+      <c r="AD6" s="31">
         <f t="shared" si="2"/>
         <v>0.22545690785844744</v>
       </c>
-      <c r="AD6" s="31">
+      <c r="AE6" s="31">
         <f t="shared" si="5"/>
         <v>6.7115761935905738E-2</v>
       </c>
-      <c r="AE6" s="31">
+      <c r="AF6" s="31">
         <f t="shared" si="3"/>
         <v>8.493399198342752E-2</v>
       </c>
-      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>2019</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="67">
         <v>157728000</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="67">
         <v>59471000</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="67">
         <v>15119000</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="67">
         <v>383911214</v>
       </c>
       <c r="F7" s="29">
@@ -12307,96 +12326,97 @@
       <c r="G7" s="29">
         <v>0.1099</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="67">
         <v>145.87</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="64">
         <v>392320214</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="68">
         <v>2633000</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="64">
         <v>19287000</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="64">
         <v>-8440000</v>
       </c>
-      <c r="M7" s="29">
-        <f t="shared" ref="M7:M11" si="6">L7/S8</f>
+      <c r="M7" s="66">
+        <f t="shared" ref="M7:M11" si="6">L7/T8</f>
         <v>-0.1021989731667151</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="64">
         <f>L7-L6</f>
         <v>-6482000</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="64">
         <v>3498000</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="64">
         <v>17145000</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29">
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64">
         <v>318000</v>
       </c>
-      <c r="S7" s="29">
+      <c r="T7" s="64">
         <v>82059000</v>
       </c>
-      <c r="T7" s="29">
+      <c r="U7" s="64">
         <v>7009000</v>
       </c>
-      <c r="U7" s="29">
+      <c r="V7" s="64">
         <v>27696000</v>
       </c>
-      <c r="V7" s="29">
+      <c r="W7" s="29">
         <v>53.915094339622641</v>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31">
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31">
         <f t="shared" si="4"/>
         <v>-4.7027714553488087E-3</v>
       </c>
-      <c r="Y7" s="31">
+      <c r="Z7" s="31">
         <f t="shared" si="0"/>
         <v>7.2141680133365416E-2</v>
       </c>
-      <c r="Z7" s="31">
+      <c r="AA7" s="31">
         <v>6.3E-3</v>
       </c>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31">
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31">
         <f t="shared" si="1"/>
         <v>7.0595393792276015E-2</v>
       </c>
-      <c r="AC7" s="31">
+      <c r="AD7" s="31">
         <f t="shared" si="2"/>
         <v>0.2089350345483128</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="AE7" s="31">
         <f t="shared" si="5"/>
         <v>5.8592074134908856E-3</v>
       </c>
-      <c r="AE7" s="31">
+      <c r="AF7" s="31">
         <f t="shared" si="3"/>
         <v>8.5414153231211695E-2</v>
       </c>
-      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>2020</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="67">
         <v>174894000</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="67">
         <v>63278000</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="67">
         <v>14714000</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="67">
         <v>414309579</v>
       </c>
       <c r="F8" s="29">
@@ -12405,96 +12425,97 @@
       <c r="G8" s="29">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="67">
         <v>157.38</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="64">
         <v>424390579</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="68">
         <v>2629000</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="64">
         <v>25185000</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="64">
         <v>-11305000</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="66">
         <f t="shared" si="6"/>
         <v>-0.14357378714757429</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="64">
         <f t="shared" ref="N8:N11" si="7">L8-L7</f>
         <v>-2865000</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="64">
         <v>3347000</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="64">
         <v>16087000</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29">
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64">
         <v>201000</v>
       </c>
-      <c r="S8" s="29">
+      <c r="T8" s="64">
         <v>82584000</v>
       </c>
-      <c r="T8" s="29">
+      <c r="U8" s="64">
         <v>7300000</v>
       </c>
-      <c r="U8" s="29">
+      <c r="V8" s="64">
         <v>35266000</v>
       </c>
-      <c r="V8" s="29">
+      <c r="W8" s="29">
         <v>80.03482587064677</v>
       </c>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31">
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31">
         <f t="shared" si="4"/>
         <v>6.4014393569975292E-2</v>
       </c>
-      <c r="Y8" s="31">
+      <c r="Z8" s="31">
         <f t="shared" si="0"/>
         <v>8.5119924296995317E-2</v>
       </c>
-      <c r="Z8" s="31">
+      <c r="AA8" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31">
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31">
         <f t="shared" si="1"/>
         <v>8.3097980363037227E-2</v>
       </c>
-      <c r="AC8" s="31">
+      <c r="AD8" s="31">
         <f t="shared" si="2"/>
         <v>0.19479560205366658</v>
       </c>
-      <c r="AD8" s="31">
+      <c r="AE8" s="31">
         <f t="shared" si="5"/>
         <v>6.3978357035792133E-3</v>
       </c>
-      <c r="AE8" s="31">
+      <c r="AF8" s="31">
         <f t="shared" si="3"/>
         <v>8.8394846459362589E-2</v>
       </c>
-      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>2021</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="67">
         <v>182018000</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="67">
         <v>74023000</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="67">
         <v>20878000</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="67">
         <v>450358383</v>
       </c>
       <c r="F9" s="29">
@@ -12503,96 +12524,97 @@
       <c r="G9" s="29">
         <v>0.10539999999999999</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="67">
         <v>171.07</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="64">
         <v>452501383</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="68">
         <v>2633000</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="64">
         <v>31608000</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="64">
         <v>-10621000</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="66">
         <f t="shared" si="6"/>
         <v>-0.13277909738717339</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="64">
         <f t="shared" si="7"/>
         <v>684000</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="64">
         <v>3652000</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="64">
         <v>19524000</v>
       </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64">
         <v>183000</v>
       </c>
-      <c r="S9" s="29">
+      <c r="T9" s="64">
         <v>78740000</v>
       </c>
-      <c r="T9" s="29">
+      <c r="U9" s="64">
         <v>7390000</v>
       </c>
-      <c r="U9" s="29">
+      <c r="V9" s="64">
         <v>33751000</v>
       </c>
-      <c r="V9" s="29">
+      <c r="W9" s="29">
         <v>106.68852459016394</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31">
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31">
         <f t="shared" si="4"/>
         <v>0.16980625177786912</v>
       </c>
-      <c r="Y9" s="31">
+      <c r="Z9" s="31">
         <f t="shared" si="0"/>
         <v>7.4942537485751651E-2</v>
       </c>
-      <c r="Z9" s="31">
+      <c r="AA9" s="31">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31">
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31">
         <f t="shared" si="1"/>
         <v>7.4587617337735293E-2</v>
       </c>
-      <c r="AC9" s="31">
+      <c r="AD9" s="31">
         <f t="shared" si="2"/>
         <v>0.24795529591059182</v>
       </c>
-      <c r="AD9" s="31">
+      <c r="AE9" s="31">
         <f t="shared" si="5"/>
         <v>-4.6546546546546552E-2</v>
       </c>
-      <c r="AE9" s="31">
+      <c r="AF9" s="31">
         <f t="shared" si="3"/>
         <v>9.3853187706375407E-2</v>
       </c>
-      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>2022</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="67">
         <v>187378000</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="67">
         <v>76804000</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="67">
         <v>17941000</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="67">
         <v>461848513</v>
       </c>
       <c r="F10" s="29">
@@ -12601,97 +12623,98 @@
       <c r="G10" s="29">
         <v>0.1033</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="67">
         <f>E10/J10</f>
         <v>176.68267521040551</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="64">
         <v>477988513</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="68">
         <v>2614000</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="64">
         <v>23519000</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="64">
         <v>-9370000</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="66">
         <f t="shared" si="6"/>
         <v>-0.11002947427752792</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="64">
         <f t="shared" si="7"/>
         <v>1251000</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="64">
         <v>4009000</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="64">
         <v>20131000</v>
       </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29">
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64">
         <v>276000</v>
       </c>
-      <c r="S10" s="29">
+      <c r="T10" s="64">
         <v>79990000</v>
       </c>
-      <c r="T10" s="29">
+      <c r="U10" s="64">
         <v>6970000</v>
       </c>
-      <c r="U10" s="29">
+      <c r="V10" s="64">
         <v>39659000</v>
       </c>
-      <c r="V10" s="29">
+      <c r="W10" s="29">
         <v>72.938405797101453</v>
       </c>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31">
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31">
         <f t="shared" si="4"/>
         <v>3.75694041041299E-2</v>
       </c>
-      <c r="Y10" s="31">
+      <c r="Z10" s="31">
         <f t="shared" si="0"/>
         <v>8.5870147642978331E-2</v>
       </c>
-      <c r="Z10" s="31">
+      <c r="AA10" s="31">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31">
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31">
         <f t="shared" si="1"/>
         <v>8.2970613145257735E-2</v>
       </c>
-      <c r="AC10" s="31">
+      <c r="AD10" s="31">
         <f t="shared" si="2"/>
         <v>0.25166895861982747</v>
       </c>
-      <c r="AD10" s="31">
+      <c r="AE10" s="31">
         <f t="shared" si="5"/>
         <v>1.5875031750063551E-2</v>
       </c>
-      <c r="AE10" s="31">
+      <c r="AF10" s="31">
         <f t="shared" si="3"/>
         <v>8.7135891986498307E-2</v>
       </c>
-      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>2023</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="67">
         <v>167558000</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="67">
         <v>68774000</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="67">
         <v>35153000</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="67">
         <v>377316864</v>
       </c>
       <c r="F11" s="29">
@@ -12700,92 +12723,93 @@
       <c r="G11" s="29">
         <v>8.9900000000000008E-2</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="67">
         <v>156.74</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="64">
         <v>383721864</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="68">
         <v>2407000</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="64">
         <v>22927000</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="64">
         <v>-11108000</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="66">
         <f t="shared" si="6"/>
         <v>-0.12252097999416783</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="64">
         <f t="shared" si="7"/>
         <v>-1738000</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="64">
         <v>4543000</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="64">
         <v>15539000</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29">
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64">
         <v>772000</v>
       </c>
-      <c r="S11" s="29">
+      <c r="T11" s="64">
         <v>85159000</v>
       </c>
-      <c r="T11" s="29">
+      <c r="U11" s="64">
         <v>7103000</v>
       </c>
-      <c r="U11" s="29">
+      <c r="V11" s="64">
         <v>29332000</v>
       </c>
-      <c r="V11" s="29">
+      <c r="W11" s="29">
         <v>20.128238341968913</v>
       </c>
-      <c r="W11" s="33">
+      <c r="X11" s="33">
         <f>9% + 21%</f>
         <v>0.3</v>
       </c>
-      <c r="X11" s="31">
+      <c r="Y11" s="31">
         <f t="shared" si="4"/>
         <v>-0.1045518462580074</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="Z11" s="31">
         <f t="shared" si="0"/>
         <v>7.773837535128035E-2</v>
       </c>
-      <c r="Z11" s="31">
+      <c r="AA11" s="31">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="AA11" s="51">
-        <f>3.94%+Z11</f>
+      <c r="AB11" s="51">
+        <f>3.94%+AA11</f>
         <v>4.53E-2</v>
       </c>
-      <c r="AB11" s="31">
+      <c r="AC11" s="31">
         <f t="shared" si="1"/>
         <v>7.6440783681797186E-2</v>
       </c>
-      <c r="AC11" s="31">
+      <c r="AD11" s="31">
         <f t="shared" si="2"/>
         <v>0.1824704376519217</v>
       </c>
-      <c r="AD11" s="31">
+      <c r="AE11" s="31">
         <f t="shared" si="5"/>
         <v>6.4620577572196414E-2</v>
       </c>
-      <c r="AE11" s="31">
+      <c r="AF11" s="31">
         <f t="shared" si="3"/>
         <v>8.3408682581993687E-2</v>
       </c>
-      <c r="AF11" s="52">
-        <f>W11*U11</f>
+      <c r="AG11" s="69">
+        <f>X11*V11</f>
         <v>8799600</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>2024</v>
       </c>
@@ -12797,45 +12821,49 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53">
-        <f>AVERAGE($M$7:$M$11)*S12</f>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65">
+        <f>AVERAGE($M$7:$M$11)*T12</f>
         <v>-11080754.466248915</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="54">
+      <c r="M12" s="65"/>
+      <c r="N12" s="65">
         <f>L12-L11</f>
         <v>27245.533751085401</v>
       </c>
-      <c r="O12" s="54">
-        <f>O11*(1+ AD12)</f>
+      <c r="O12" s="65">
+        <f>O11*(1+ AE12)</f>
         <v>4836571.2839104887</v>
       </c>
-      <c r="P12" s="53">
-        <f>$AC$11 * S12</f>
+      <c r="P12" s="65">
+        <f>$AD$11 * T12</f>
         <v>16543139.154894359</v>
       </c>
-      <c r="Q12" s="54">
-        <f>P12*(1-$W$11)</f>
+      <c r="Q12" s="65">
+        <f>P12*(1-$X$11)</f>
         <v>11580197.40842605</v>
       </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="55">
-        <f>S11*(1+AD12)</f>
+      <c r="R12" s="65">
+        <f>Q12-N12-O12+U12</f>
+        <v>14662122.964264639</v>
+      </c>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65">
+        <f>T11*(1+AE12)</f>
         <v>90662023.765470669</v>
       </c>
-      <c r="T12" s="53">
-        <f>S12*$AE$14</f>
+      <c r="U12" s="65">
+        <f>T12*$AF$14</f>
         <v>7945742.3735001637</v>
       </c>
-      <c r="U12" s="53"/>
-      <c r="AD12" s="53">
-        <f>AD11</f>
+      <c r="V12" s="65"/>
+      <c r="AE12" s="53">
+        <f>AE11</f>
         <v>6.4620577572196414E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>2025</v>
       </c>
@@ -12847,48 +12875,52 @@
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53">
-        <f t="shared" ref="L13:L17" si="8">AVERAGE($M$7:$M$11)*S13</f>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65">
+        <f t="shared" ref="L13:L17" si="8">AVERAGE($M$7:$M$11)*T13</f>
         <v>-11714801.636743372</v>
       </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54">
+      <c r="M13" s="65"/>
+      <c r="N13" s="65">
         <f t="shared" ref="N13:N17" si="9">L13-L12</f>
         <v>-634047.17049445771</v>
       </c>
-      <c r="O13" s="54">
-        <f t="shared" ref="O13:O17" si="10">O12*(1+ AD13)</f>
+      <c r="O13" s="65">
+        <f t="shared" ref="O13:O17" si="10">O12*(1+ AE13)</f>
         <v>5113322.686244946</v>
       </c>
-      <c r="P13" s="53">
-        <f t="shared" ref="P13:P17" si="11">$AC$11 * S13</f>
+      <c r="P13" s="65">
+        <f t="shared" ref="P13:P17" si="11">$AD$11 * T13</f>
         <v>17489747.132194631</v>
       </c>
-      <c r="Q13" s="54">
-        <f t="shared" ref="Q13:Q17" si="12">P13*(1-$W$11)</f>
+      <c r="Q13" s="65">
+        <f t="shared" ref="Q13:Q17" si="12">P13*(1-$X$11)</f>
         <v>12242822.992536241</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="55">
-        <f t="shared" ref="S13:S17" si="13">S12*(1+AD13)</f>
+      <c r="R13" s="65">
+        <f t="shared" ref="R13:R17" si="13">Q13-N13-O13+U13</f>
+        <v>16163949.818137471</v>
+      </c>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65">
+        <f t="shared" ref="T13:T17" si="14">T12*(1+AE13)</f>
         <v>95849757.129195094</v>
       </c>
-      <c r="T13" s="53">
-        <f t="shared" ref="T13:T17" si="14">S13*$AE$14</f>
+      <c r="U13" s="65">
+        <f t="shared" ref="U13:U17" si="15">T13*$AF$14</f>
         <v>8400402.3413517177</v>
       </c>
-      <c r="U13" s="53"/>
-      <c r="AD13" s="53">
-        <f>AD12 - 0.0074</f>
+      <c r="V13" s="65"/>
+      <c r="AE13" s="53">
+        <f>AE12 - 0.0074</f>
         <v>5.722057757219641E-2</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>2026</v>
       </c>
@@ -12900,49 +12932,53 @@
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53">
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65">
         <f t="shared" si="8"/>
         <v>-12298439.82042964</v>
       </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54">
+      <c r="M14" s="65"/>
+      <c r="N14" s="65">
         <f t="shared" si="9"/>
         <v>-583638.18368626758</v>
       </c>
-      <c r="O14" s="54">
+      <c r="O14" s="65">
         <f t="shared" si="10"/>
         <v>5368071.3757866845</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="65">
         <f t="shared" si="11"/>
         <v>18361096.435912233</v>
       </c>
-      <c r="Q14" s="54">
+      <c r="Q14" s="65">
         <f t="shared" si="12"/>
         <v>12852767.505138563</v>
       </c>
-      <c r="R14" s="53"/>
-      <c r="S14" s="55">
+      <c r="R14" s="65">
         <f t="shared" si="13"/>
+        <v>16887249.550874837</v>
+      </c>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65">
+        <f t="shared" si="14"/>
         <v>100625047.38952635</v>
       </c>
-      <c r="T14" s="53">
-        <f t="shared" si="14"/>
+      <c r="U14" s="65">
+        <f t="shared" si="15"/>
         <v>8818915.2378366925</v>
       </c>
-      <c r="U14" s="53"/>
-      <c r="AD14" s="53">
-        <f t="shared" ref="AD14:AD17" si="15">AD13 - 0.0074</f>
+      <c r="V14" s="65"/>
+      <c r="AE14" s="53">
+        <f t="shared" ref="AE14:AE17" si="16">AE13 - 0.0074</f>
         <v>4.9820577572196406E-2</v>
       </c>
-      <c r="AE14">
-        <f>AVERAGE(AE7:AE11)</f>
+      <c r="AF14">
+        <f>AVERAGE(AF7:AF11)</f>
         <v>8.7641352393088331E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>2027</v>
       </c>
@@ -12954,45 +12990,49 @@
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
       <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53">
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65">
         <f t="shared" si="8"/>
         <v>-12820146.740849165</v>
       </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54">
+      <c r="M15" s="65"/>
+      <c r="N15" s="65">
         <f t="shared" si="9"/>
         <v>-521706.92041952536</v>
       </c>
-      <c r="O15" s="54">
+      <c r="O15" s="65">
         <f t="shared" si="10"/>
         <v>5595788.0639963308</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="65">
         <f t="shared" si="11"/>
         <v>19139984.751582429</v>
       </c>
-      <c r="Q15" s="54">
+      <c r="Q15" s="65">
         <f t="shared" si="12"/>
         <v>13397989.326107699</v>
       </c>
-      <c r="R15" s="53"/>
-      <c r="S15" s="55">
+      <c r="R15" s="65">
         <f t="shared" si="13"/>
+        <v>17516926.898316864</v>
+      </c>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65">
+        <f t="shared" si="14"/>
         <v>104893620.01801969</v>
       </c>
-      <c r="T15" s="53">
-        <f t="shared" si="14"/>
+      <c r="U15" s="65">
+        <f t="shared" si="15"/>
         <v>9193018.715785969</v>
       </c>
-      <c r="U15" s="53"/>
-      <c r="AD15" s="53">
-        <f t="shared" si="15"/>
+      <c r="V15" s="65"/>
+      <c r="AE15" s="53">
+        <f t="shared" si="16"/>
         <v>4.2420577572196402E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <v>2028</v>
       </c>
@@ -13004,45 +13044,49 @@
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53">
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65">
         <f t="shared" si="8"/>
         <v>-13269115.684274012</v>
       </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="54">
+      <c r="M16" s="65"/>
+      <c r="N16" s="65">
         <f t="shared" si="9"/>
         <v>-448968.94342484698</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="65">
         <f t="shared" si="10"/>
         <v>5791755.7939690845</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="65">
         <f t="shared" si="11"/>
         <v>19810278.072305873</v>
       </c>
-      <c r="Q16" s="54">
+      <c r="Q16" s="65">
         <f t="shared" si="12"/>
         <v>13867194.650614111</v>
       </c>
-      <c r="R16" s="53"/>
-      <c r="S16" s="55">
+      <c r="R16" s="65">
         <f t="shared" si="13"/>
+        <v>18039371.340914674</v>
+      </c>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65">
+        <f t="shared" si="14"/>
         <v>108567055.17468923</v>
       </c>
-      <c r="T16" s="53">
-        <f t="shared" si="14"/>
+      <c r="U16" s="65">
+        <f t="shared" si="15"/>
         <v>9514963.5408448037</v>
       </c>
-      <c r="U16" s="53"/>
-      <c r="AD16" s="53">
-        <f t="shared" si="15"/>
+      <c r="V16" s="65"/>
+      <c r="AE16" s="53">
+        <f t="shared" si="16"/>
         <v>3.5020577572196399E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>2029</v>
       </c>
@@ -13054,41 +13098,45 @@
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
       <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53">
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65">
         <f t="shared" si="8"/>
         <v>-13635616.323345952</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="54">
+      <c r="M17" s="65"/>
+      <c r="N17" s="65">
         <f t="shared" si="9"/>
         <v>-366500.63907193951</v>
       </c>
-      <c r="O17" s="54">
+      <c r="O17" s="65">
         <f t="shared" si="10"/>
         <v>5951727.4341556262</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="65">
         <f t="shared" si="11"/>
         <v>20357449.394528784</v>
       </c>
-      <c r="Q17" s="54">
+      <c r="Q17" s="65">
         <f t="shared" si="12"/>
         <v>14250214.576170148</v>
       </c>
-      <c r="R17" s="53"/>
-      <c r="S17" s="55">
+      <c r="R17" s="65">
         <f t="shared" si="13"/>
+        <v>18442760.11050779</v>
+      </c>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65">
+        <f t="shared" si="14"/>
         <v>111565739.94392668</v>
       </c>
-      <c r="T17" s="53">
-        <f t="shared" si="14"/>
+      <c r="U17" s="65">
+        <f t="shared" si="15"/>
         <v>9777772.3294213284</v>
       </c>
-      <c r="U17" s="53"/>
-      <c r="AD17" s="53">
-        <f t="shared" si="15"/>
+      <c r="V17" s="65"/>
+      <c r="AE17" s="53">
+        <f t="shared" si="16"/>
         <v>2.7620577572196398E-2</v>
       </c>
     </row>
@@ -16396,15 +16444,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="35" cm="1">
-        <f t="array" ref="A2:A11">'JOHNSON &amp; JOHNSON'!Y2:Y11</f>
+        <f t="array" ref="A2:A11">'JOHNSON &amp; JOHNSON'!Z2:Z11</f>
         <v>6.4092277574088155E-2</v>
       </c>
       <c r="B2" s="35" cm="1">
-        <f t="array" ref="B2:B10">'JOHNSON &amp; JOHNSON'!X3:X11</f>
+        <f t="array" ref="B2:B10">'JOHNSON &amp; JOHNSON'!Y3:Y11</f>
         <v>2.0042436059181101E-2</v>
       </c>
       <c r="C2" s="35" cm="1">
-        <f t="array" ref="C2:C11">'JOHNSON &amp; JOHNSON'!U2:U11/'JOHNSON &amp; JOHNSON'!I2:I11</f>
+        <f t="array" ref="C2:C11">'JOHNSON &amp; JOHNSON'!V2:V11/'JOHNSON &amp; JOHNSON'!I2:I11</f>
         <v>6.7391358466454318E-2</v>
       </c>
       <c r="D2" s="39"/>

--- a/FinancialManagement/Pharma_Data.xlsx
+++ b/FinancialManagement/Pharma_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3863360b7313d4a6/Documentos/GitHub/UC3M_Projects/FinancialManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1940" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88B2EF64-D2CE-4C92-931F-F3101F245DF8}"/>
+  <xr:revisionPtr revIDLastSave="1950" documentId="13_ncr:1_{9CE7DB7C-C080-4BB2-8A92-1D4A7BD45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AFEEE68-B6AE-43BA-BBED-F521C5687149}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search strategy" sheetId="1" r:id="rId1"/>
@@ -2419,9 +2419,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="13" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="13" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2443,6 +2440,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9646,86 +9646,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="79"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="79"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="79"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="79"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="79"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="79"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="79"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -9737,10 +9737,10 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -9752,10 +9752,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
@@ -9767,10 +9767,10 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
@@ -9782,10 +9782,10 @@
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
@@ -9797,10 +9797,10 @@
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
@@ -9809,17 +9809,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="9" t="s">
         <v>33</v>
       </c>
@@ -9828,22 +9828,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12540,8 +12540,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13917,7 +13917,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -17196,8 +17196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1201D640-FACA-47DD-A6E4-D0E6DE97DB38}">
   <dimension ref="A1:R1238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17930,7 +17930,7 @@
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="75">
+      <c r="G23" s="85">
         <f>SLOPE(R2:R366,Q2:Q366)</f>
         <v>0.33162150375484817</v>
       </c>
